--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>18.03293490603242</v>
       </c>
       <c r="C2">
-        <v>12.65832732263762</v>
+        <v>12.6583273226375</v>
       </c>
       <c r="D2">
-        <v>2.987649406661049</v>
+        <v>2.987649406661048</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.25078268517947</v>
+        <v>29.25078268517953</v>
       </c>
       <c r="G2">
-        <v>22.01262800706715</v>
+        <v>22.0126280070672</v>
       </c>
       <c r="H2">
-        <v>18.95388678043777</v>
+        <v>18.95388678043783</v>
       </c>
       <c r="I2">
-        <v>7.385946799754348</v>
+        <v>7.385946799754395</v>
       </c>
       <c r="J2">
-        <v>16.06957562185271</v>
+        <v>16.06957562185268</v>
       </c>
       <c r="K2">
         <v>10.31061770909979</v>
       </c>
       <c r="L2">
-        <v>14.36630010248183</v>
+        <v>14.36630010248181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.80543950209531</v>
+        <v>16.80543950209521</v>
       </c>
       <c r="C3">
-        <v>11.82426056632561</v>
+        <v>11.8242605663256</v>
       </c>
       <c r="D3">
-        <v>2.966047191510542</v>
+        <v>2.966047191510672</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.10758726629137</v>
+        <v>28.10758726629141</v>
       </c>
       <c r="G3">
-        <v>21.33141592403973</v>
+        <v>21.33141592403979</v>
       </c>
       <c r="H3">
-        <v>18.65026945011307</v>
+        <v>18.65026945011318</v>
       </c>
       <c r="I3">
-        <v>7.339006005417557</v>
+        <v>7.339006005417606</v>
       </c>
       <c r="J3">
-        <v>15.02637109297686</v>
+        <v>15.02637109297679</v>
       </c>
       <c r="K3">
-        <v>9.815485418427512</v>
+        <v>9.815485418427501</v>
       </c>
       <c r="L3">
-        <v>13.40545446061863</v>
+        <v>13.40545446061859</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01038682446262</v>
+        <v>16.01038682446272</v>
       </c>
       <c r="C4">
-        <v>11.28565230480095</v>
+        <v>11.28565230480089</v>
       </c>
       <c r="D4">
-        <v>2.95245651702095</v>
+        <v>2.952456517020882</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.41467161516151</v>
+        <v>27.4146716151613</v>
       </c>
       <c r="G4">
-        <v>20.92670527448416</v>
+        <v>20.926705274484</v>
       </c>
       <c r="H4">
-        <v>18.48148504287231</v>
+        <v>18.48148504287214</v>
       </c>
       <c r="I4">
-        <v>7.315746429893297</v>
+        <v>7.315746429893304</v>
       </c>
       <c r="J4">
-        <v>14.35216926050905</v>
+        <v>14.35216926050908</v>
       </c>
       <c r="K4">
-        <v>9.507505391546948</v>
+        <v>9.507505391546953</v>
       </c>
       <c r="L4">
-        <v>12.78475824531754</v>
+        <v>12.78475824531759</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67589076456698</v>
+        <v>15.67589076456697</v>
       </c>
       <c r="C5">
-        <v>11.05944903075548</v>
+        <v>11.05944903075538</v>
       </c>
       <c r="D5">
-        <v>2.946838440295221</v>
+        <v>2.94683844029541</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.1348506970974</v>
+        <v>27.13485069709741</v>
       </c>
       <c r="G5">
-        <v>20.76527186352495</v>
+        <v>20.76527186352498</v>
       </c>
       <c r="H5">
-        <v>18.417004625372</v>
+        <v>18.41700462537198</v>
       </c>
       <c r="I5">
-        <v>7.30760898473814</v>
+        <v>7.30760898473809</v>
       </c>
       <c r="J5">
-        <v>14.06890530393763</v>
+        <v>14.06890530393759</v>
       </c>
       <c r="K5">
-        <v>9.381149857600391</v>
+        <v>9.381149857600379</v>
       </c>
       <c r="L5">
-        <v>12.52401958158858</v>
+        <v>12.52401958158857</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61971051360313</v>
+        <v>15.61971051360309</v>
       </c>
       <c r="C6">
-        <v>11.02148110438716</v>
+        <v>11.02148110438715</v>
       </c>
       <c r="D6">
-        <v>2.945900821587612</v>
+        <v>2.945900821587664</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.08854929754008</v>
+        <v>27.08854929754023</v>
       </c>
       <c r="G6">
-        <v>20.73867906525972</v>
+        <v>20.73867906525986</v>
       </c>
       <c r="H6">
-        <v>18.40655333027864</v>
+        <v>18.4065533302788</v>
       </c>
       <c r="I6">
-        <v>7.306337080704465</v>
+        <v>7.306337080704514</v>
       </c>
       <c r="J6">
-        <v>14.02135354754465</v>
+        <v>14.02135354754462</v>
       </c>
       <c r="K6">
-        <v>9.360121996891611</v>
+        <v>9.36012199689163</v>
       </c>
       <c r="L6">
-        <v>12.48025111803107</v>
+        <v>12.48025111803103</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00591836382138</v>
+        <v>16.0059183638214</v>
       </c>
       <c r="C7">
-        <v>11.28262890703679</v>
+        <v>11.28262890703669</v>
       </c>
       <c r="D7">
-        <v>2.952381069237938</v>
+        <v>2.952381069238004</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.41088714326428</v>
+        <v>27.41088714326426</v>
       </c>
       <c r="G7">
         <v>20.92451389192937</v>
       </c>
       <c r="H7">
-        <v>18.48059820902168</v>
+        <v>18.48059820902166</v>
       </c>
       <c r="I7">
-        <v>7.315631331731151</v>
+        <v>7.315631331731183</v>
       </c>
       <c r="J7">
-        <v>14.34838362842682</v>
+        <v>14.34838362842678</v>
       </c>
       <c r="K7">
-        <v>9.505804550347516</v>
+        <v>9.505804550347532</v>
       </c>
       <c r="L7">
         <v>12.78127350221315</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61821530703217</v>
+        <v>17.61821530703209</v>
       </c>
       <c r="C8">
-        <v>12.37620197252818</v>
+        <v>12.37620197252811</v>
       </c>
       <c r="D8">
-        <v>2.980270148854122</v>
+        <v>2.980270148854437</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.85489810583713</v>
+        <v>28.85489810583723</v>
       </c>
       <c r="G8">
-        <v>21.77498008124163</v>
+        <v>21.77498008124176</v>
       </c>
       <c r="H8">
-        <v>18.84546050024458</v>
+        <v>18.84546050024474</v>
       </c>
       <c r="I8">
-        <v>7.368572388418519</v>
+        <v>7.368572388418444</v>
       </c>
       <c r="J8">
-        <v>15.71682979562659</v>
+        <v>15.71682979562652</v>
       </c>
       <c r="K8">
-        <v>10.14079892559023</v>
+        <v>10.14079892559021</v>
       </c>
       <c r="L8">
         <v>14.04133288762728</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45674178888947</v>
+        <v>20.45674178888949</v>
       </c>
       <c r="C9">
-        <v>14.31358284268837</v>
+        <v>14.31358284268846</v>
       </c>
       <c r="D9">
-        <v>3.032278881414886</v>
+        <v>3.032278881414832</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>23.54713317321647</v>
       </c>
       <c r="H9">
-        <v>19.70654413584576</v>
+        <v>19.70654413584575</v>
       </c>
       <c r="I9">
-        <v>7.51912907548358</v>
+        <v>7.519129075483547</v>
       </c>
       <c r="J9">
-        <v>18.13636011141153</v>
+        <v>18.13636011141158</v>
       </c>
       <c r="K9">
-        <v>11.3495225218007</v>
+        <v>11.34952252180069</v>
       </c>
       <c r="L9">
-        <v>16.27220435603805</v>
+        <v>16.27220435603811</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.35271924035916</v>
+        <v>22.35271924035914</v>
       </c>
       <c r="C10">
-        <v>15.61572411401987</v>
+        <v>15.61572411401996</v>
       </c>
       <c r="D10">
-        <v>3.068764955612705</v>
+        <v>3.068764955612714</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.899692064426</v>
+        <v>33.89969206442602</v>
       </c>
       <c r="G10">
-        <v>24.90972330799183</v>
+        <v>24.90972330799184</v>
       </c>
       <c r="H10">
-        <v>20.43537573702839</v>
+        <v>20.43537573702845</v>
       </c>
       <c r="I10">
-        <v>7.661879404512828</v>
+        <v>7.661879404512822</v>
       </c>
       <c r="J10">
-        <v>19.75838708591466</v>
+        <v>19.75838708591465</v>
       </c>
       <c r="K10">
-        <v>12.21058843389513</v>
+        <v>12.21058843389512</v>
       </c>
       <c r="L10">
         <v>17.77078419245144</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.17591965024639</v>
+        <v>23.17591965024631</v>
       </c>
       <c r="C11">
-        <v>16.18308162688948</v>
+        <v>16.18308162688956</v>
       </c>
       <c r="D11">
-        <v>3.084978590648266</v>
+        <v>3.084978590648237</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.88345776533783</v>
+        <v>34.88345776533777</v>
       </c>
       <c r="G11">
-        <v>25.54259254893113</v>
+        <v>25.54259254893108</v>
       </c>
       <c r="H11">
-        <v>20.78941489215091</v>
+        <v>20.78941489215094</v>
       </c>
       <c r="I11">
-        <v>7.734612609115923</v>
+        <v>7.734612609115893</v>
       </c>
       <c r="J11">
-        <v>20.4639176361216</v>
+        <v>20.46391763612154</v>
       </c>
       <c r="K11">
-        <v>12.6265111062005</v>
+        <v>12.62651110620054</v>
       </c>
       <c r="L11">
-        <v>18.42353366823665</v>
+        <v>18.42353366823664</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.48215815968817</v>
+        <v>23.48215815968812</v>
       </c>
       <c r="C12">
-        <v>16.39445439638221</v>
+        <v>16.3944543963824</v>
       </c>
       <c r="D12">
-        <v>3.091062792661009</v>
+        <v>3.091062792660995</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.25666635068723</v>
+        <v>35.25666635068727</v>
       </c>
       <c r="G12">
-        <v>25.78414286813435</v>
+        <v>25.78414286813439</v>
       </c>
       <c r="H12">
-        <v>20.92685080420422</v>
+        <v>20.92685080420424</v>
       </c>
       <c r="I12">
-        <v>7.763345975577648</v>
+        <v>7.76334597557764</v>
       </c>
       <c r="J12">
-        <v>20.72656727258176</v>
+        <v>20.72656727258174</v>
       </c>
       <c r="K12">
-        <v>12.80440630871371</v>
+        <v>12.80440630871377</v>
       </c>
       <c r="L12">
-        <v>18.66668726090754</v>
+        <v>18.66668726090755</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.41644566798839</v>
+        <v>23.41644566798849</v>
       </c>
       <c r="C13">
-        <v>16.34908388644622</v>
+        <v>16.34908388644639</v>
       </c>
       <c r="D13">
-        <v>3.0897549206069</v>
+        <v>3.089754920606997</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.17625847690484</v>
+        <v>35.17625847690477</v>
       </c>
       <c r="G13">
-        <v>25.73203552794108</v>
+        <v>25.73203552794102</v>
       </c>
       <c r="H13">
-        <v>20.89709941021462</v>
+        <v>20.89709941021452</v>
       </c>
       <c r="I13">
-        <v>7.757103612479755</v>
+        <v>7.757103612479785</v>
       </c>
       <c r="J13">
-        <v>20.67019973323773</v>
+        <v>20.67019973323789</v>
       </c>
       <c r="K13">
-        <v>12.76621262031322</v>
+        <v>12.76621262031325</v>
       </c>
       <c r="L13">
-        <v>18.61449662825433</v>
+        <v>18.61449662825441</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.20122312936728</v>
+        <v>23.20122312936726</v>
       </c>
       <c r="C14">
-        <v>16.20054025827929</v>
+        <v>16.20054025827916</v>
       </c>
       <c r="D14">
-        <v>3.085480254757582</v>
+        <v>3.085480254757632</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.914148086587</v>
+        <v>34.91414808658701</v>
       </c>
       <c r="G14">
-        <v>25.56242675114304</v>
+        <v>25.56242675114308</v>
       </c>
       <c r="H14">
-        <v>20.80065349378933</v>
+        <v>20.80065349378934</v>
       </c>
       <c r="I14">
-        <v>7.736952239623114</v>
+        <v>7.736952239623098</v>
       </c>
       <c r="J14">
-        <v>20.48561575356998</v>
+        <v>20.48561575356993</v>
       </c>
       <c r="K14">
-        <v>12.64120056213483</v>
+        <v>12.64120056213477</v>
       </c>
       <c r="L14">
-        <v>18.44361796579084</v>
+        <v>18.44361796579079</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.06868319169241</v>
+        <v>23.06868319169238</v>
       </c>
       <c r="C15">
-        <v>16.10910450603305</v>
+        <v>16.10910450603313</v>
       </c>
       <c r="D15">
-        <v>3.082854664251768</v>
+        <v>3.082854664251881</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>20.74202052391501</v>
       </c>
       <c r="I15">
-        <v>7.724766167903341</v>
+        <v>7.724766167903338</v>
       </c>
       <c r="J15">
         <v>20.37196830701056</v>
       </c>
       <c r="K15">
-        <v>12.56427580013639</v>
+        <v>12.56427580013646</v>
       </c>
       <c r="L15">
-        <v>18.33842951228628</v>
+        <v>18.3384295122863</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.29814393164258</v>
+        <v>22.29814393164262</v>
       </c>
       <c r="C16">
-        <v>15.57815305082608</v>
+        <v>15.57815305082597</v>
       </c>
       <c r="D16">
-        <v>3.067697588089477</v>
+        <v>3.06769758808936</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.8354945216412</v>
+        <v>33.83549452164119</v>
       </c>
       <c r="G16">
-        <v>24.86862700180499</v>
+        <v>24.86862700180497</v>
       </c>
       <c r="H16">
-        <v>20.41270229316174</v>
+        <v>20.41270229316169</v>
       </c>
       <c r="I16">
-        <v>7.657288876869743</v>
+        <v>7.657288876869693</v>
       </c>
       <c r="J16">
-        <v>19.71163911162793</v>
+        <v>19.71163911162794</v>
       </c>
       <c r="K16">
         <v>12.18527323060517</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81548978643501</v>
+        <v>21.81548978643499</v>
       </c>
       <c r="C17">
-        <v>15.24611182509499</v>
+        <v>15.24611182509513</v>
       </c>
       <c r="D17">
-        <v>3.058300445035887</v>
+        <v>3.058300445035764</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.2734101509367</v>
+        <v>33.27341015093671</v>
       </c>
       <c r="G17">
-        <v>24.50992428299345</v>
+        <v>24.50992428299344</v>
       </c>
       <c r="H17">
-        <v>20.21652928493328</v>
+        <v>20.21652928493326</v>
       </c>
       <c r="I17">
-        <v>7.617938985274707</v>
+        <v>7.617938985274714</v>
       </c>
       <c r="J17">
-        <v>19.29835430651283</v>
+        <v>19.29835430651285</v>
       </c>
       <c r="K17">
-        <v>11.96271063704186</v>
+        <v>11.96271063704189</v>
       </c>
       <c r="L17">
-        <v>17.34547637697813</v>
+        <v>17.34547637697814</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53417143720829</v>
+        <v>21.53417143720831</v>
       </c>
       <c r="C18">
-        <v>15.05276999726996</v>
+        <v>15.0527699972699</v>
       </c>
       <c r="D18">
-        <v>3.052859294378403</v>
+        <v>3.052859294378523</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.95056119167823</v>
+        <v>32.95056119167814</v>
       </c>
       <c r="G18">
-        <v>24.3048298559312</v>
+        <v>24.3048298559311</v>
       </c>
       <c r="H18">
-        <v>20.10580410073788</v>
+        <v>20.10580410073775</v>
       </c>
       <c r="I18">
-        <v>7.596035342359212</v>
+        <v>7.596035342359218</v>
       </c>
       <c r="J18">
-        <v>19.05759133395285</v>
+        <v>19.05759133395282</v>
       </c>
       <c r="K18">
         <v>11.83410503085308</v>
       </c>
       <c r="L18">
-        <v>17.12298041985464</v>
+        <v>17.12298041985465</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.43828029139605</v>
+        <v>21.43828029139603</v>
       </c>
       <c r="C19">
-        <v>14.98689890221895</v>
+        <v>14.9868989022191</v>
       </c>
       <c r="D19">
-        <v>3.051010822003265</v>
+        <v>3.051010822003132</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.84132831559378</v>
+        <v>32.84132831559361</v>
       </c>
       <c r="G19">
-        <v>24.23559815403774</v>
+        <v>24.2355981540376</v>
       </c>
       <c r="H19">
-        <v>20.06867262198681</v>
+        <v>20.0686726219867</v>
       </c>
       <c r="I19">
-        <v>7.588742342204932</v>
+        <v>7.588742342204976</v>
       </c>
       <c r="J19">
-        <v>18.97554512601513</v>
+        <v>18.97554512601517</v>
       </c>
       <c r="K19">
-        <v>11.79046003003075</v>
+        <v>11.79046003003076</v>
       </c>
       <c r="L19">
-        <v>17.04717344791369</v>
+        <v>17.04717344791366</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.86725183859184</v>
+        <v>21.86725183859195</v>
       </c>
       <c r="C20">
-        <v>15.28170165187021</v>
+        <v>15.28170165187036</v>
       </c>
       <c r="D20">
-        <v>3.05930453371466</v>
+        <v>3.059304533714664</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.33319901433845</v>
+        <v>33.33319901433836</v>
       </c>
       <c r="G20">
-        <v>24.54798228690861</v>
+        <v>24.54798228690852</v>
       </c>
       <c r="H20">
-        <v>20.23719308831001</v>
+        <v>20.2371930883099</v>
       </c>
       <c r="I20">
-        <v>7.622051865906469</v>
+        <v>7.622051865906482</v>
       </c>
       <c r="J20">
-        <v>19.34266420170707</v>
+        <v>19.34266420170717</v>
       </c>
       <c r="K20">
-        <v>11.9864643484237</v>
+        <v>11.98646434842371</v>
       </c>
       <c r="L20">
-        <v>17.38643131420379</v>
+        <v>17.38643131420386</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26458684636884</v>
+        <v>23.26458684636885</v>
       </c>
       <c r="C21">
-        <v>16.24426435215062</v>
+        <v>16.24426435215063</v>
       </c>
       <c r="D21">
-        <v>3.086737335122468</v>
+        <v>3.08673733512253</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.99111760207301</v>
+        <v>34.99111760207296</v>
       </c>
       <c r="G21">
-        <v>25.61219310081099</v>
+        <v>25.61219310081095</v>
       </c>
       <c r="H21">
-        <v>20.82888943123569</v>
+        <v>20.82888943123565</v>
       </c>
       <c r="I21">
-        <v>7.742838290339805</v>
+        <v>7.742838290339796</v>
       </c>
       <c r="J21">
-        <v>20.53995408224728</v>
+        <v>20.53995408224731</v>
       </c>
       <c r="K21">
-        <v>12.67799261169079</v>
+        <v>12.67799261169083</v>
       </c>
       <c r="L21">
-        <v>18.49391734567531</v>
+        <v>18.49391734567532</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.14591319115115</v>
+        <v>24.14591319115121</v>
       </c>
       <c r="C22">
-        <v>16.85317662690349</v>
+        <v>16.85317662690371</v>
       </c>
       <c r="D22">
-        <v>3.104342735515968</v>
+        <v>3.104342735515962</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.07866024056386</v>
+        <v>36.07866024056387</v>
       </c>
       <c r="G22">
-        <v>26.31881127337098</v>
+        <v>26.31881127337096</v>
       </c>
       <c r="H22">
-        <v>21.23530629993026</v>
+        <v>21.23530629993024</v>
       </c>
       <c r="I22">
-        <v>7.828755928484061</v>
+        <v>7.828755928484117</v>
       </c>
       <c r="J22">
-        <v>21.29618122496878</v>
+        <v>21.29618122496887</v>
       </c>
       <c r="K22">
-        <v>13.19084772339203</v>
+        <v>13.19084772339204</v>
       </c>
       <c r="L22">
-        <v>19.19431630820231</v>
+        <v>19.19431630820234</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.67839607428803</v>
+        <v>23.678396074288</v>
       </c>
       <c r="C23">
-        <v>16.52999134210493</v>
+        <v>16.52999134210478</v>
       </c>
       <c r="D23">
-        <v>3.094975961403669</v>
+        <v>3.094975961403613</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.49783763642451</v>
+        <v>35.49783763642445</v>
       </c>
       <c r="G23">
-        <v>25.94064207615647</v>
+        <v>25.94064207615642</v>
       </c>
       <c r="H23">
-        <v>21.01654268566355</v>
+        <v>21.01654268566353</v>
       </c>
       <c r="I23">
-        <v>7.782237564473665</v>
+        <v>7.782237564473649</v>
       </c>
       <c r="J23">
-        <v>20.894925118986</v>
+        <v>20.89492511898596</v>
       </c>
       <c r="K23">
-        <v>12.91853329537041</v>
+        <v>12.91853329537035</v>
       </c>
       <c r="L23">
-        <v>18.82259313342567</v>
+        <v>18.82259313342561</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84386216895433</v>
+        <v>21.8438621689543</v>
       </c>
       <c r="C24">
         <v>15.26561912169619</v>
       </c>
       <c r="D24">
-        <v>3.05885070544779</v>
+        <v>3.058850705447846</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>33.30616753044818</v>
       </c>
       <c r="G24">
-        <v>24.53077274945649</v>
+        <v>24.5307727494565</v>
       </c>
       <c r="H24">
-        <v>20.22784458482791</v>
+        <v>20.22784458482794</v>
       </c>
       <c r="I24">
-        <v>7.620190197870095</v>
+        <v>7.620190197870101</v>
       </c>
       <c r="J24">
-        <v>19.32264155057067</v>
+        <v>19.32264155057065</v>
       </c>
       <c r="K24">
-        <v>11.97572732377495</v>
+        <v>11.97572732377494</v>
       </c>
       <c r="L24">
         <v>17.36792442582843</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72269923787453</v>
+        <v>19.72269923787452</v>
       </c>
       <c r="C25">
         <v>13.81116618263778</v>
       </c>
       <c r="D25">
-        <v>3.018506986698346</v>
+        <v>3.018506986698351</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.9598161524812</v>
+        <v>30.95981615248123</v>
       </c>
       <c r="G25">
-        <v>23.05692698900134</v>
+        <v>23.05692698900137</v>
       </c>
       <c r="H25">
-        <v>19.45723190730291</v>
+        <v>19.4572319073029</v>
       </c>
       <c r="I25">
-        <v>7.473023985211731</v>
+        <v>7.473023985211641</v>
       </c>
       <c r="J25">
-        <v>17.50957221429125</v>
+        <v>17.50957221429121</v>
       </c>
       <c r="K25">
         <v>11.02702847945142</v>
       </c>
       <c r="L25">
-        <v>15.69382601470933</v>
+        <v>15.69382601470934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>18.03293490603242</v>
       </c>
       <c r="C2">
-        <v>12.6583273226375</v>
+        <v>12.65832732263762</v>
       </c>
       <c r="D2">
-        <v>2.987649406661048</v>
+        <v>2.987649406661049</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.25078268517953</v>
+        <v>29.25078268517947</v>
       </c>
       <c r="G2">
-        <v>22.0126280070672</v>
+        <v>22.01262800706715</v>
       </c>
       <c r="H2">
-        <v>18.95388678043783</v>
+        <v>18.95388678043777</v>
       </c>
       <c r="I2">
-        <v>7.385946799754395</v>
+        <v>7.385946799754348</v>
       </c>
       <c r="J2">
-        <v>16.06957562185268</v>
+        <v>16.06957562185271</v>
       </c>
       <c r="K2">
         <v>10.31061770909979</v>
       </c>
       <c r="L2">
-        <v>14.36630010248181</v>
+        <v>14.36630010248183</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.80543950209521</v>
+        <v>16.80543950209531</v>
       </c>
       <c r="C3">
-        <v>11.8242605663256</v>
+        <v>11.82426056632561</v>
       </c>
       <c r="D3">
-        <v>2.966047191510672</v>
+        <v>2.966047191510542</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.10758726629141</v>
+        <v>28.10758726629137</v>
       </c>
       <c r="G3">
-        <v>21.33141592403979</v>
+        <v>21.33141592403973</v>
       </c>
       <c r="H3">
-        <v>18.65026945011318</v>
+        <v>18.65026945011307</v>
       </c>
       <c r="I3">
-        <v>7.339006005417606</v>
+        <v>7.339006005417557</v>
       </c>
       <c r="J3">
-        <v>15.02637109297679</v>
+        <v>15.02637109297686</v>
       </c>
       <c r="K3">
-        <v>9.815485418427501</v>
+        <v>9.815485418427512</v>
       </c>
       <c r="L3">
-        <v>13.40545446061859</v>
+        <v>13.40545446061863</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01038682446272</v>
+        <v>16.01038682446262</v>
       </c>
       <c r="C4">
-        <v>11.28565230480089</v>
+        <v>11.28565230480095</v>
       </c>
       <c r="D4">
-        <v>2.952456517020882</v>
+        <v>2.95245651702095</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.4146716151613</v>
+        <v>27.41467161516151</v>
       </c>
       <c r="G4">
-        <v>20.926705274484</v>
+        <v>20.92670527448416</v>
       </c>
       <c r="H4">
-        <v>18.48148504287214</v>
+        <v>18.48148504287231</v>
       </c>
       <c r="I4">
-        <v>7.315746429893304</v>
+        <v>7.315746429893297</v>
       </c>
       <c r="J4">
-        <v>14.35216926050908</v>
+        <v>14.35216926050905</v>
       </c>
       <c r="K4">
-        <v>9.507505391546953</v>
+        <v>9.507505391546948</v>
       </c>
       <c r="L4">
-        <v>12.78475824531759</v>
+        <v>12.78475824531754</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67589076456697</v>
+        <v>15.67589076456698</v>
       </c>
       <c r="C5">
-        <v>11.05944903075538</v>
+        <v>11.05944903075548</v>
       </c>
       <c r="D5">
-        <v>2.94683844029541</v>
+        <v>2.946838440295221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.13485069709741</v>
+        <v>27.1348506970974</v>
       </c>
       <c r="G5">
-        <v>20.76527186352498</v>
+        <v>20.76527186352495</v>
       </c>
       <c r="H5">
-        <v>18.41700462537198</v>
+        <v>18.417004625372</v>
       </c>
       <c r="I5">
-        <v>7.30760898473809</v>
+        <v>7.30760898473814</v>
       </c>
       <c r="J5">
-        <v>14.06890530393759</v>
+        <v>14.06890530393763</v>
       </c>
       <c r="K5">
-        <v>9.381149857600379</v>
+        <v>9.381149857600391</v>
       </c>
       <c r="L5">
-        <v>12.52401958158857</v>
+        <v>12.52401958158858</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61971051360309</v>
+        <v>15.61971051360313</v>
       </c>
       <c r="C6">
-        <v>11.02148110438715</v>
+        <v>11.02148110438716</v>
       </c>
       <c r="D6">
-        <v>2.945900821587664</v>
+        <v>2.945900821587612</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.08854929754023</v>
+        <v>27.08854929754008</v>
       </c>
       <c r="G6">
-        <v>20.73867906525986</v>
+        <v>20.73867906525972</v>
       </c>
       <c r="H6">
-        <v>18.4065533302788</v>
+        <v>18.40655333027864</v>
       </c>
       <c r="I6">
-        <v>7.306337080704514</v>
+        <v>7.306337080704465</v>
       </c>
       <c r="J6">
-        <v>14.02135354754462</v>
+        <v>14.02135354754465</v>
       </c>
       <c r="K6">
-        <v>9.36012199689163</v>
+        <v>9.360121996891611</v>
       </c>
       <c r="L6">
-        <v>12.48025111803103</v>
+        <v>12.48025111803107</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.0059183638214</v>
+        <v>16.00591836382138</v>
       </c>
       <c r="C7">
-        <v>11.28262890703669</v>
+        <v>11.28262890703679</v>
       </c>
       <c r="D7">
-        <v>2.952381069238004</v>
+        <v>2.952381069237938</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.41088714326426</v>
+        <v>27.41088714326428</v>
       </c>
       <c r="G7">
         <v>20.92451389192937</v>
       </c>
       <c r="H7">
-        <v>18.48059820902166</v>
+        <v>18.48059820902168</v>
       </c>
       <c r="I7">
-        <v>7.315631331731183</v>
+        <v>7.315631331731151</v>
       </c>
       <c r="J7">
-        <v>14.34838362842678</v>
+        <v>14.34838362842682</v>
       </c>
       <c r="K7">
-        <v>9.505804550347532</v>
+        <v>9.505804550347516</v>
       </c>
       <c r="L7">
         <v>12.78127350221315</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61821530703209</v>
+        <v>17.61821530703217</v>
       </c>
       <c r="C8">
-        <v>12.37620197252811</v>
+        <v>12.37620197252818</v>
       </c>
       <c r="D8">
-        <v>2.980270148854437</v>
+        <v>2.980270148854122</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.85489810583723</v>
+        <v>28.85489810583713</v>
       </c>
       <c r="G8">
-        <v>21.77498008124176</v>
+        <v>21.77498008124163</v>
       </c>
       <c r="H8">
-        <v>18.84546050024474</v>
+        <v>18.84546050024458</v>
       </c>
       <c r="I8">
-        <v>7.368572388418444</v>
+        <v>7.368572388418519</v>
       </c>
       <c r="J8">
-        <v>15.71682979562652</v>
+        <v>15.71682979562659</v>
       </c>
       <c r="K8">
-        <v>10.14079892559021</v>
+        <v>10.14079892559023</v>
       </c>
       <c r="L8">
         <v>14.04133288762728</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45674178888949</v>
+        <v>20.45674178888947</v>
       </c>
       <c r="C9">
-        <v>14.31358284268846</v>
+        <v>14.31358284268837</v>
       </c>
       <c r="D9">
-        <v>3.032278881414832</v>
+        <v>3.032278881414886</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>23.54713317321647</v>
       </c>
       <c r="H9">
-        <v>19.70654413584575</v>
+        <v>19.70654413584576</v>
       </c>
       <c r="I9">
-        <v>7.519129075483547</v>
+        <v>7.51912907548358</v>
       </c>
       <c r="J9">
-        <v>18.13636011141158</v>
+        <v>18.13636011141153</v>
       </c>
       <c r="K9">
-        <v>11.34952252180069</v>
+        <v>11.3495225218007</v>
       </c>
       <c r="L9">
-        <v>16.27220435603811</v>
+        <v>16.27220435603805</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.35271924035914</v>
+        <v>22.35271924035916</v>
       </c>
       <c r="C10">
-        <v>15.61572411401996</v>
+        <v>15.61572411401987</v>
       </c>
       <c r="D10">
-        <v>3.068764955612714</v>
+        <v>3.068764955612705</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.89969206442602</v>
+        <v>33.899692064426</v>
       </c>
       <c r="G10">
-        <v>24.90972330799184</v>
+        <v>24.90972330799183</v>
       </c>
       <c r="H10">
-        <v>20.43537573702845</v>
+        <v>20.43537573702839</v>
       </c>
       <c r="I10">
-        <v>7.661879404512822</v>
+        <v>7.661879404512828</v>
       </c>
       <c r="J10">
-        <v>19.75838708591465</v>
+        <v>19.75838708591466</v>
       </c>
       <c r="K10">
-        <v>12.21058843389512</v>
+        <v>12.21058843389513</v>
       </c>
       <c r="L10">
         <v>17.77078419245144</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.17591965024631</v>
+        <v>23.17591965024639</v>
       </c>
       <c r="C11">
-        <v>16.18308162688956</v>
+        <v>16.18308162688948</v>
       </c>
       <c r="D11">
-        <v>3.084978590648237</v>
+        <v>3.084978590648266</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.88345776533777</v>
+        <v>34.88345776533783</v>
       </c>
       <c r="G11">
-        <v>25.54259254893108</v>
+        <v>25.54259254893113</v>
       </c>
       <c r="H11">
-        <v>20.78941489215094</v>
+        <v>20.78941489215091</v>
       </c>
       <c r="I11">
-        <v>7.734612609115893</v>
+        <v>7.734612609115923</v>
       </c>
       <c r="J11">
-        <v>20.46391763612154</v>
+        <v>20.4639176361216</v>
       </c>
       <c r="K11">
-        <v>12.62651110620054</v>
+        <v>12.6265111062005</v>
       </c>
       <c r="L11">
-        <v>18.42353366823664</v>
+        <v>18.42353366823665</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.48215815968812</v>
+        <v>23.48215815968817</v>
       </c>
       <c r="C12">
-        <v>16.3944543963824</v>
+        <v>16.39445439638221</v>
       </c>
       <c r="D12">
-        <v>3.091062792660995</v>
+        <v>3.091062792661009</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.25666635068727</v>
+        <v>35.25666635068723</v>
       </c>
       <c r="G12">
-        <v>25.78414286813439</v>
+        <v>25.78414286813435</v>
       </c>
       <c r="H12">
-        <v>20.92685080420424</v>
+        <v>20.92685080420422</v>
       </c>
       <c r="I12">
-        <v>7.76334597557764</v>
+        <v>7.763345975577648</v>
       </c>
       <c r="J12">
-        <v>20.72656727258174</v>
+        <v>20.72656727258176</v>
       </c>
       <c r="K12">
-        <v>12.80440630871377</v>
+        <v>12.80440630871371</v>
       </c>
       <c r="L12">
-        <v>18.66668726090755</v>
+        <v>18.66668726090754</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.41644566798849</v>
+        <v>23.41644566798839</v>
       </c>
       <c r="C13">
-        <v>16.34908388644639</v>
+        <v>16.34908388644622</v>
       </c>
       <c r="D13">
-        <v>3.089754920606997</v>
+        <v>3.0897549206069</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.17625847690477</v>
+        <v>35.17625847690484</v>
       </c>
       <c r="G13">
-        <v>25.73203552794102</v>
+        <v>25.73203552794108</v>
       </c>
       <c r="H13">
-        <v>20.89709941021452</v>
+        <v>20.89709941021462</v>
       </c>
       <c r="I13">
-        <v>7.757103612479785</v>
+        <v>7.757103612479755</v>
       </c>
       <c r="J13">
-        <v>20.67019973323789</v>
+        <v>20.67019973323773</v>
       </c>
       <c r="K13">
-        <v>12.76621262031325</v>
+        <v>12.76621262031322</v>
       </c>
       <c r="L13">
-        <v>18.61449662825441</v>
+        <v>18.61449662825433</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.20122312936726</v>
+        <v>23.20122312936728</v>
       </c>
       <c r="C14">
-        <v>16.20054025827916</v>
+        <v>16.20054025827929</v>
       </c>
       <c r="D14">
-        <v>3.085480254757632</v>
+        <v>3.085480254757582</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.91414808658701</v>
+        <v>34.914148086587</v>
       </c>
       <c r="G14">
-        <v>25.56242675114308</v>
+        <v>25.56242675114304</v>
       </c>
       <c r="H14">
-        <v>20.80065349378934</v>
+        <v>20.80065349378933</v>
       </c>
       <c r="I14">
-        <v>7.736952239623098</v>
+        <v>7.736952239623114</v>
       </c>
       <c r="J14">
-        <v>20.48561575356993</v>
+        <v>20.48561575356998</v>
       </c>
       <c r="K14">
-        <v>12.64120056213477</v>
+        <v>12.64120056213483</v>
       </c>
       <c r="L14">
-        <v>18.44361796579079</v>
+        <v>18.44361796579084</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.06868319169238</v>
+        <v>23.06868319169241</v>
       </c>
       <c r="C15">
-        <v>16.10910450603313</v>
+        <v>16.10910450603305</v>
       </c>
       <c r="D15">
-        <v>3.082854664251881</v>
+        <v>3.082854664251768</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>20.74202052391501</v>
       </c>
       <c r="I15">
-        <v>7.724766167903338</v>
+        <v>7.724766167903341</v>
       </c>
       <c r="J15">
         <v>20.37196830701056</v>
       </c>
       <c r="K15">
-        <v>12.56427580013646</v>
+        <v>12.56427580013639</v>
       </c>
       <c r="L15">
-        <v>18.3384295122863</v>
+        <v>18.33842951228628</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.29814393164262</v>
+        <v>22.29814393164258</v>
       </c>
       <c r="C16">
-        <v>15.57815305082597</v>
+        <v>15.57815305082608</v>
       </c>
       <c r="D16">
-        <v>3.06769758808936</v>
+        <v>3.067697588089477</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.83549452164119</v>
+        <v>33.8354945216412</v>
       </c>
       <c r="G16">
-        <v>24.86862700180497</v>
+        <v>24.86862700180499</v>
       </c>
       <c r="H16">
-        <v>20.41270229316169</v>
+        <v>20.41270229316174</v>
       </c>
       <c r="I16">
-        <v>7.657288876869693</v>
+        <v>7.657288876869743</v>
       </c>
       <c r="J16">
-        <v>19.71163911162794</v>
+        <v>19.71163911162793</v>
       </c>
       <c r="K16">
         <v>12.18527323060517</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81548978643499</v>
+        <v>21.81548978643501</v>
       </c>
       <c r="C17">
-        <v>15.24611182509513</v>
+        <v>15.24611182509499</v>
       </c>
       <c r="D17">
-        <v>3.058300445035764</v>
+        <v>3.058300445035887</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.27341015093671</v>
+        <v>33.2734101509367</v>
       </c>
       <c r="G17">
-        <v>24.50992428299344</v>
+        <v>24.50992428299345</v>
       </c>
       <c r="H17">
-        <v>20.21652928493326</v>
+        <v>20.21652928493328</v>
       </c>
       <c r="I17">
-        <v>7.617938985274714</v>
+        <v>7.617938985274707</v>
       </c>
       <c r="J17">
-        <v>19.29835430651285</v>
+        <v>19.29835430651283</v>
       </c>
       <c r="K17">
-        <v>11.96271063704189</v>
+        <v>11.96271063704186</v>
       </c>
       <c r="L17">
-        <v>17.34547637697814</v>
+        <v>17.34547637697813</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53417143720831</v>
+        <v>21.53417143720829</v>
       </c>
       <c r="C18">
-        <v>15.0527699972699</v>
+        <v>15.05276999726996</v>
       </c>
       <c r="D18">
-        <v>3.052859294378523</v>
+        <v>3.052859294378403</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.95056119167814</v>
+        <v>32.95056119167823</v>
       </c>
       <c r="G18">
-        <v>24.3048298559311</v>
+        <v>24.3048298559312</v>
       </c>
       <c r="H18">
-        <v>20.10580410073775</v>
+        <v>20.10580410073788</v>
       </c>
       <c r="I18">
-        <v>7.596035342359218</v>
+        <v>7.596035342359212</v>
       </c>
       <c r="J18">
-        <v>19.05759133395282</v>
+        <v>19.05759133395285</v>
       </c>
       <c r="K18">
         <v>11.83410503085308</v>
       </c>
       <c r="L18">
-        <v>17.12298041985465</v>
+        <v>17.12298041985464</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.43828029139603</v>
+        <v>21.43828029139605</v>
       </c>
       <c r="C19">
-        <v>14.9868989022191</v>
+        <v>14.98689890221895</v>
       </c>
       <c r="D19">
-        <v>3.051010822003132</v>
+        <v>3.051010822003265</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.84132831559361</v>
+        <v>32.84132831559378</v>
       </c>
       <c r="G19">
-        <v>24.2355981540376</v>
+        <v>24.23559815403774</v>
       </c>
       <c r="H19">
-        <v>20.0686726219867</v>
+        <v>20.06867262198681</v>
       </c>
       <c r="I19">
-        <v>7.588742342204976</v>
+        <v>7.588742342204932</v>
       </c>
       <c r="J19">
-        <v>18.97554512601517</v>
+        <v>18.97554512601513</v>
       </c>
       <c r="K19">
-        <v>11.79046003003076</v>
+        <v>11.79046003003075</v>
       </c>
       <c r="L19">
-        <v>17.04717344791366</v>
+        <v>17.04717344791369</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.86725183859195</v>
+        <v>21.86725183859184</v>
       </c>
       <c r="C20">
-        <v>15.28170165187036</v>
+        <v>15.28170165187021</v>
       </c>
       <c r="D20">
-        <v>3.059304533714664</v>
+        <v>3.05930453371466</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.33319901433836</v>
+        <v>33.33319901433845</v>
       </c>
       <c r="G20">
-        <v>24.54798228690852</v>
+        <v>24.54798228690861</v>
       </c>
       <c r="H20">
-        <v>20.2371930883099</v>
+        <v>20.23719308831001</v>
       </c>
       <c r="I20">
-        <v>7.622051865906482</v>
+        <v>7.622051865906469</v>
       </c>
       <c r="J20">
-        <v>19.34266420170717</v>
+        <v>19.34266420170707</v>
       </c>
       <c r="K20">
-        <v>11.98646434842371</v>
+        <v>11.9864643484237</v>
       </c>
       <c r="L20">
-        <v>17.38643131420386</v>
+        <v>17.38643131420379</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26458684636885</v>
+        <v>23.26458684636884</v>
       </c>
       <c r="C21">
-        <v>16.24426435215063</v>
+        <v>16.24426435215062</v>
       </c>
       <c r="D21">
-        <v>3.08673733512253</v>
+        <v>3.086737335122468</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.99111760207296</v>
+        <v>34.99111760207301</v>
       </c>
       <c r="G21">
-        <v>25.61219310081095</v>
+        <v>25.61219310081099</v>
       </c>
       <c r="H21">
-        <v>20.82888943123565</v>
+        <v>20.82888943123569</v>
       </c>
       <c r="I21">
-        <v>7.742838290339796</v>
+        <v>7.742838290339805</v>
       </c>
       <c r="J21">
-        <v>20.53995408224731</v>
+        <v>20.53995408224728</v>
       </c>
       <c r="K21">
-        <v>12.67799261169083</v>
+        <v>12.67799261169079</v>
       </c>
       <c r="L21">
-        <v>18.49391734567532</v>
+        <v>18.49391734567531</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.14591319115121</v>
+        <v>24.14591319115115</v>
       </c>
       <c r="C22">
-        <v>16.85317662690371</v>
+        <v>16.85317662690349</v>
       </c>
       <c r="D22">
-        <v>3.104342735515962</v>
+        <v>3.104342735515968</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.07866024056387</v>
+        <v>36.07866024056386</v>
       </c>
       <c r="G22">
-        <v>26.31881127337096</v>
+        <v>26.31881127337098</v>
       </c>
       <c r="H22">
-        <v>21.23530629993024</v>
+        <v>21.23530629993026</v>
       </c>
       <c r="I22">
-        <v>7.828755928484117</v>
+        <v>7.828755928484061</v>
       </c>
       <c r="J22">
-        <v>21.29618122496887</v>
+        <v>21.29618122496878</v>
       </c>
       <c r="K22">
-        <v>13.19084772339204</v>
+        <v>13.19084772339203</v>
       </c>
       <c r="L22">
-        <v>19.19431630820234</v>
+        <v>19.19431630820231</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.678396074288</v>
+        <v>23.67839607428803</v>
       </c>
       <c r="C23">
-        <v>16.52999134210478</v>
+        <v>16.52999134210493</v>
       </c>
       <c r="D23">
-        <v>3.094975961403613</v>
+        <v>3.094975961403669</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.49783763642445</v>
+        <v>35.49783763642451</v>
       </c>
       <c r="G23">
-        <v>25.94064207615642</v>
+        <v>25.94064207615647</v>
       </c>
       <c r="H23">
-        <v>21.01654268566353</v>
+        <v>21.01654268566355</v>
       </c>
       <c r="I23">
-        <v>7.782237564473649</v>
+        <v>7.782237564473665</v>
       </c>
       <c r="J23">
-        <v>20.89492511898596</v>
+        <v>20.894925118986</v>
       </c>
       <c r="K23">
-        <v>12.91853329537035</v>
+        <v>12.91853329537041</v>
       </c>
       <c r="L23">
-        <v>18.82259313342561</v>
+        <v>18.82259313342567</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.8438621689543</v>
+        <v>21.84386216895433</v>
       </c>
       <c r="C24">
         <v>15.26561912169619</v>
       </c>
       <c r="D24">
-        <v>3.058850705447846</v>
+        <v>3.05885070544779</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>33.30616753044818</v>
       </c>
       <c r="G24">
-        <v>24.5307727494565</v>
+        <v>24.53077274945649</v>
       </c>
       <c r="H24">
-        <v>20.22784458482794</v>
+        <v>20.22784458482791</v>
       </c>
       <c r="I24">
-        <v>7.620190197870101</v>
+        <v>7.620190197870095</v>
       </c>
       <c r="J24">
-        <v>19.32264155057065</v>
+        <v>19.32264155057067</v>
       </c>
       <c r="K24">
-        <v>11.97572732377494</v>
+        <v>11.97572732377495</v>
       </c>
       <c r="L24">
         <v>17.36792442582843</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72269923787452</v>
+        <v>19.72269923787453</v>
       </c>
       <c r="C25">
         <v>13.81116618263778</v>
       </c>
       <c r="D25">
-        <v>3.018506986698351</v>
+        <v>3.018506986698346</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.95981615248123</v>
+        <v>30.9598161524812</v>
       </c>
       <c r="G25">
-        <v>23.05692698900137</v>
+        <v>23.05692698900134</v>
       </c>
       <c r="H25">
-        <v>19.4572319073029</v>
+        <v>19.45723190730291</v>
       </c>
       <c r="I25">
-        <v>7.473023985211641</v>
+        <v>7.473023985211731</v>
       </c>
       <c r="J25">
-        <v>17.50957221429121</v>
+        <v>17.50957221429125</v>
       </c>
       <c r="K25">
         <v>11.02702847945142</v>
       </c>
       <c r="L25">
-        <v>15.69382601470934</v>
+        <v>15.69382601470933</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03293490603242</v>
+        <v>18.03298397115637</v>
       </c>
       <c r="C2">
-        <v>12.65832732263762</v>
+        <v>12.65528030846956</v>
       </c>
       <c r="D2">
-        <v>2.987649406661049</v>
+        <v>2.989221094315897</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.25078268517947</v>
+        <v>29.23228705862683</v>
       </c>
       <c r="G2">
-        <v>22.01262800706715</v>
+        <v>20.34924244788137</v>
       </c>
       <c r="H2">
-        <v>18.95388678043777</v>
+        <v>22.04815228571681</v>
       </c>
       <c r="I2">
-        <v>7.385946799754348</v>
+        <v>18.94143619480655</v>
       </c>
       <c r="J2">
-        <v>16.06957562185271</v>
+        <v>7.385391826028417</v>
       </c>
       <c r="K2">
-        <v>10.31061770909979</v>
+        <v>16.06861321202672</v>
       </c>
       <c r="L2">
-        <v>14.36630010248183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10.3109396248222</v>
+      </c>
+      <c r="M2">
+        <v>14.36648471559372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.80543950209531</v>
+        <v>16.80560343724038</v>
       </c>
       <c r="C3">
-        <v>11.82426056632561</v>
+        <v>11.82158217959235</v>
       </c>
       <c r="D3">
-        <v>2.966047191510542</v>
+        <v>2.96723741255629</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.10758726629137</v>
+        <v>28.0902277522908</v>
       </c>
       <c r="G3">
-        <v>21.33141592403973</v>
+        <v>19.42876005537319</v>
       </c>
       <c r="H3">
-        <v>18.65026945011307</v>
+        <v>21.36604859771118</v>
       </c>
       <c r="I3">
-        <v>7.339006005417557</v>
+        <v>18.63871921536308</v>
       </c>
       <c r="J3">
-        <v>15.02637109297686</v>
+        <v>7.338554313202541</v>
       </c>
       <c r="K3">
-        <v>9.815485418427512</v>
+        <v>15.02561973489152</v>
       </c>
       <c r="L3">
-        <v>13.40545446061863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.815804994258585</v>
+      </c>
+      <c r="M3">
+        <v>13.40569354027064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01038682446262</v>
+        <v>16.01062040646127</v>
       </c>
       <c r="C4">
-        <v>11.28565230480095</v>
+        <v>11.2832116057364</v>
       </c>
       <c r="D4">
-        <v>2.95245651702095</v>
+        <v>2.953406493893216</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.41467161516151</v>
+        <v>27.39803399510209</v>
       </c>
       <c r="G4">
-        <v>20.92670527448416</v>
+        <v>18.86653214718431</v>
       </c>
       <c r="H4">
-        <v>18.48148504287231</v>
+        <v>20.96083755070006</v>
       </c>
       <c r="I4">
-        <v>7.315746429893297</v>
+        <v>18.47049748776898</v>
       </c>
       <c r="J4">
-        <v>14.35216926050905</v>
+        <v>7.315361689604876</v>
       </c>
       <c r="K4">
-        <v>9.507505391546948</v>
+        <v>14.35155246300922</v>
       </c>
       <c r="L4">
-        <v>12.78475824531754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.507821780413803</v>
+      </c>
+      <c r="M4">
+        <v>12.78502941592779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67589076456698</v>
+        <v>15.67615263942383</v>
       </c>
       <c r="C5">
-        <v>11.05944903075548</v>
+        <v>11.05710828512043</v>
       </c>
       <c r="D5">
-        <v>2.946838440295221</v>
+        <v>2.947689039203058</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.1348506970974</v>
+        <v>27.11851315981737</v>
       </c>
       <c r="G5">
-        <v>20.76527186352495</v>
+        <v>18.638412408536</v>
       </c>
       <c r="H5">
-        <v>18.417004625372</v>
+        <v>20.79921213576118</v>
       </c>
       <c r="I5">
-        <v>7.30760898473814</v>
+        <v>18.40624846356508</v>
       </c>
       <c r="J5">
-        <v>14.06890530393763</v>
+        <v>7.307252368642589</v>
       </c>
       <c r="K5">
-        <v>9.381149857600391</v>
+        <v>14.06834478591424</v>
       </c>
       <c r="L5">
-        <v>12.52401958158858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.381464551330973</v>
+      </c>
+      <c r="M5">
+        <v>12.52430358001138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61971051360313</v>
+        <v>15.61997708504062</v>
       </c>
       <c r="C6">
-        <v>11.02148110438716</v>
+        <v>11.01915715020682</v>
       </c>
       <c r="D6">
-        <v>2.945900821587612</v>
+        <v>2.94673483082784</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.08854929754008</v>
+        <v>27.07226193735704</v>
       </c>
       <c r="G6">
-        <v>20.73867906525972</v>
+        <v>18.60060125792687</v>
       </c>
       <c r="H6">
-        <v>18.40655333027864</v>
+        <v>20.7725881760713</v>
       </c>
       <c r="I6">
-        <v>7.306337080704465</v>
+        <v>18.39583570648266</v>
       </c>
       <c r="J6">
-        <v>14.02135354754465</v>
+        <v>7.305985183963247</v>
       </c>
       <c r="K6">
-        <v>9.360121996891611</v>
+        <v>14.0208024678939</v>
       </c>
       <c r="L6">
-        <v>12.48025111803107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.360436386446652</v>
+      </c>
+      <c r="M6">
+        <v>12.48053723406815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00591836382138</v>
+        <v>16.00615232756942</v>
       </c>
       <c r="C7">
-        <v>11.28262890703679</v>
+        <v>11.28018954312084</v>
       </c>
       <c r="D7">
-        <v>2.952381069237938</v>
+        <v>2.953329711791405</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.41088714326428</v>
+        <v>27.39425354666702</v>
       </c>
       <c r="G7">
-        <v>20.92451389192937</v>
+        <v>18.86345126818159</v>
       </c>
       <c r="H7">
-        <v>18.48059820902168</v>
+        <v>20.95864353041635</v>
       </c>
       <c r="I7">
-        <v>7.315631331731151</v>
+        <v>18.46961376659072</v>
       </c>
       <c r="J7">
-        <v>14.34838362842682</v>
+        <v>7.315246967395749</v>
       </c>
       <c r="K7">
-        <v>9.505804550347516</v>
+        <v>14.34776758381491</v>
       </c>
       <c r="L7">
-        <v>12.78127350221315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.506120917901868</v>
+      </c>
+      <c r="M7">
+        <v>12.78154484671493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61821530703217</v>
+        <v>17.61830424296967</v>
       </c>
       <c r="C8">
-        <v>12.37620197252818</v>
+        <v>12.37327984458869</v>
       </c>
       <c r="D8">
-        <v>2.980270148854122</v>
+        <v>2.981711578698891</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.85489810583713</v>
+        <v>28.83678906986237</v>
       </c>
       <c r="G8">
-        <v>21.77498008124163</v>
+        <v>20.03138587059202</v>
       </c>
       <c r="H8">
-        <v>18.84546050024458</v>
+        <v>21.81018723338964</v>
       </c>
       <c r="I8">
-        <v>7.368572388418519</v>
+        <v>18.83331808270157</v>
       </c>
       <c r="J8">
-        <v>15.71682979562659</v>
+        <v>7.368052263131619</v>
       </c>
       <c r="K8">
-        <v>10.14079892559023</v>
+        <v>15.71593923742471</v>
       </c>
       <c r="L8">
-        <v>14.04133288762728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>10.14112042476405</v>
+      </c>
+      <c r="M8">
+        <v>14.04153661614357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45674178888947</v>
+        <v>20.45653325622207</v>
       </c>
       <c r="C9">
-        <v>14.31358284268837</v>
+        <v>14.30979409046345</v>
       </c>
       <c r="D9">
-        <v>3.032278881414886</v>
+        <v>3.034637347121262</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.74764227296293</v>
+        <v>31.72683671057228</v>
       </c>
       <c r="G9">
-        <v>23.54713317321647</v>
+        <v>22.33629221681012</v>
       </c>
       <c r="H9">
-        <v>19.70654413584576</v>
+        <v>23.58482085544419</v>
       </c>
       <c r="I9">
-        <v>7.51912907548358</v>
+        <v>19.69222511524579</v>
       </c>
       <c r="J9">
-        <v>18.13636011141153</v>
+        <v>7.518372875406707</v>
       </c>
       <c r="K9">
-        <v>11.3495225218007</v>
+        <v>18.13496247857078</v>
       </c>
       <c r="L9">
-        <v>16.27220435603805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>11.34983808747134</v>
+      </c>
+      <c r="M9">
+        <v>16.27226058289767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.35271924035916</v>
+        <v>22.35227536915596</v>
       </c>
       <c r="C10">
-        <v>15.61572411401987</v>
+        <v>15.61133422240158</v>
       </c>
       <c r="D10">
-        <v>3.068764955612705</v>
+        <v>3.071765217264879</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.899692064426</v>
+        <v>33.8770230275191</v>
       </c>
       <c r="G10">
-        <v>24.90972330799183</v>
+        <v>24.03030900735025</v>
       </c>
       <c r="H10">
-        <v>20.43537573702839</v>
+        <v>24.94944785487719</v>
       </c>
       <c r="I10">
-        <v>7.661879404512828</v>
+        <v>20.41953380709035</v>
       </c>
       <c r="J10">
-        <v>19.75838708591466</v>
+        <v>7.660970760239849</v>
       </c>
       <c r="K10">
-        <v>12.21058843389513</v>
+        <v>19.75662481577461</v>
       </c>
       <c r="L10">
-        <v>17.77078419245144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>12.21088662522657</v>
+      </c>
+      <c r="M10">
+        <v>17.77071676213153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.17591965024639</v>
+        <v>23.17536291765133</v>
       </c>
       <c r="C11">
-        <v>16.18308162688948</v>
+        <v>16.1784230829374</v>
       </c>
       <c r="D11">
-        <v>3.084978590648266</v>
+        <v>3.088263524522413</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.88345776533783</v>
+        <v>34.85996398145615</v>
       </c>
       <c r="G11">
-        <v>25.54259254893113</v>
+        <v>24.80040700427728</v>
       </c>
       <c r="H11">
-        <v>20.78941489215091</v>
+        <v>25.58328802332379</v>
       </c>
       <c r="I11">
-        <v>7.734612609115923</v>
+        <v>20.77289961635504</v>
       </c>
       <c r="J11">
-        <v>20.4639176361216</v>
+        <v>7.733639633318878</v>
       </c>
       <c r="K11">
-        <v>12.6265111062005</v>
+        <v>20.46198869667081</v>
       </c>
       <c r="L11">
-        <v>18.42353366823665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.62678046792363</v>
+      </c>
+      <c r="M11">
+        <v>18.42340511746702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.48215815968817</v>
+        <v>23.48155765046667</v>
       </c>
       <c r="C12">
-        <v>16.39445439638221</v>
+        <v>16.38969455590006</v>
       </c>
       <c r="D12">
-        <v>3.091062792661009</v>
+        <v>3.094454448365841</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.25666635068723</v>
+        <v>35.23286321642436</v>
       </c>
       <c r="G12">
-        <v>25.78414286813435</v>
+        <v>25.09196346637326</v>
       </c>
       <c r="H12">
-        <v>20.92685080420422</v>
+        <v>25.82521220484437</v>
       </c>
       <c r="I12">
-        <v>7.763345975577648</v>
+        <v>20.91008348938305</v>
       </c>
       <c r="J12">
-        <v>20.72656727258176</v>
+        <v>7.76234938842469</v>
       </c>
       <c r="K12">
-        <v>12.80440630871371</v>
+        <v>20.72457488016212</v>
       </c>
       <c r="L12">
-        <v>18.66668726090754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.80467037324599</v>
+      </c>
+      <c r="M12">
+        <v>18.66653471662225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.41644566798839</v>
+        <v>23.41585463655868</v>
       </c>
       <c r="C13">
-        <v>16.34908388644622</v>
+        <v>16.34434584687146</v>
       </c>
       <c r="D13">
-        <v>3.0897549206069</v>
+        <v>3.093123640236017</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.17625847690484</v>
+        <v>35.15252184145307</v>
       </c>
       <c r="G13">
-        <v>25.73203552794108</v>
+        <v>25.02917355612611</v>
       </c>
       <c r="H13">
-        <v>20.89709941021462</v>
+        <v>25.77302407396466</v>
       </c>
       <c r="I13">
-        <v>7.757103612479755</v>
+        <v>20.88038624420073</v>
       </c>
       <c r="J13">
-        <v>20.67019973323773</v>
+        <v>7.756112076769428</v>
       </c>
       <c r="K13">
-        <v>12.76621262031322</v>
+        <v>20.66822102543239</v>
       </c>
       <c r="L13">
-        <v>18.61449662825433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.76647785593951</v>
+      </c>
+      <c r="M13">
+        <v>18.61434929172696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.20122312936728</v>
+        <v>23.20066281731527</v>
       </c>
       <c r="C14">
-        <v>16.20054025827929</v>
+        <v>16.19587337339336</v>
       </c>
       <c r="D14">
-        <v>3.085480254757582</v>
+        <v>3.08877399046021</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.914148086587</v>
+        <v>34.89062879517066</v>
       </c>
       <c r="G14">
-        <v>25.56242675114304</v>
+        <v>24.82439451683637</v>
       </c>
       <c r="H14">
-        <v>20.80065349378933</v>
+        <v>25.60315286026864</v>
       </c>
       <c r="I14">
-        <v>7.736952239623114</v>
+        <v>20.78411742307708</v>
       </c>
       <c r="J14">
-        <v>20.48561575356998</v>
+        <v>7.735977306154769</v>
       </c>
       <c r="K14">
-        <v>12.64120056213483</v>
+        <v>20.48368160196063</v>
       </c>
       <c r="L14">
-        <v>18.44361796579084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.64146950153853</v>
+      </c>
+      <c r="M14">
+        <v>18.44348745898988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.06868319169241</v>
+        <v>23.06814155441868</v>
       </c>
       <c r="C15">
-        <v>16.10910450603305</v>
+        <v>16.10448125433814</v>
       </c>
       <c r="D15">
-        <v>3.082854664251768</v>
+        <v>3.086102328962951</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.75368705864605</v>
+        <v>34.73030127088466</v>
       </c>
       <c r="G15">
-        <v>25.45878484571275</v>
+        <v>24.69895458651166</v>
       </c>
       <c r="H15">
-        <v>20.74202052391501</v>
+        <v>25.49935100610629</v>
       </c>
       <c r="I15">
-        <v>7.724766167903341</v>
+        <v>20.72559331532063</v>
       </c>
       <c r="J15">
-        <v>20.37196830701056</v>
+        <v>7.723801502083971</v>
       </c>
       <c r="K15">
-        <v>12.56427580013639</v>
+        <v>20.37006139619251</v>
       </c>
       <c r="L15">
-        <v>18.33842951228628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.5645469213538</v>
+      </c>
+      <c r="M15">
+        <v>18.33830919892018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.29814393164258</v>
+        <v>22.29770730254416</v>
       </c>
       <c r="C16">
-        <v>15.57815305082608</v>
+        <v>15.57378079166653</v>
       </c>
       <c r="D16">
-        <v>3.067697588089477</v>
+        <v>3.070679096581928</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.8354945216412</v>
+        <v>33.81287981927168</v>
       </c>
       <c r="G16">
-        <v>24.86862700180499</v>
+        <v>23.97997053050899</v>
       </c>
       <c r="H16">
-        <v>20.41270229316174</v>
+        <v>24.90828897248398</v>
       </c>
       <c r="I16">
-        <v>7.657288876869743</v>
+        <v>20.39690477355661</v>
       </c>
       <c r="J16">
-        <v>19.71163911162793</v>
+        <v>7.656384540378748</v>
       </c>
       <c r="K16">
-        <v>12.18527323060517</v>
+        <v>19.70988769898862</v>
       </c>
       <c r="L16">
-        <v>17.72755401546608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>12.18557209801194</v>
+      </c>
+      <c r="M16">
+        <v>17.72749046930837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81548978643501</v>
+        <v>21.81511595245583</v>
       </c>
       <c r="C17">
-        <v>15.24611182509499</v>
+        <v>15.24189459775958</v>
       </c>
       <c r="D17">
-        <v>3.058300445035887</v>
+        <v>3.061116787983849</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.2734101509367</v>
+        <v>33.25127415578196</v>
       </c>
       <c r="G17">
-        <v>24.50992428299345</v>
+        <v>23.53875430282795</v>
       </c>
       <c r="H17">
-        <v>20.21652928493328</v>
+        <v>24.54904278400461</v>
       </c>
       <c r="I17">
-        <v>7.617938985274707</v>
+        <v>20.20112316772136</v>
       </c>
       <c r="J17">
-        <v>19.29835430651283</v>
+        <v>7.617072966593795</v>
       </c>
       <c r="K17">
-        <v>11.96271063704186</v>
+        <v>19.29669792982711</v>
       </c>
       <c r="L17">
-        <v>17.34547637697813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.96301500829857</v>
+      </c>
+      <c r="M17">
+        <v>17.34544630924206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53417143720829</v>
+        <v>21.53383318848267</v>
       </c>
       <c r="C18">
-        <v>15.05276999726996</v>
+        <v>15.04864240900039</v>
       </c>
       <c r="D18">
-        <v>3.052859294378403</v>
+        <v>3.055579954563973</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.95056119167823</v>
+        <v>32.92870272345134</v>
       </c>
       <c r="G18">
-        <v>24.3048298559312</v>
+        <v>23.28492532577883</v>
       </c>
       <c r="H18">
-        <v>20.10580410073788</v>
+        <v>24.34363995188144</v>
       </c>
       <c r="I18">
-        <v>7.596035342359212</v>
+        <v>20.0906249329358</v>
       </c>
       <c r="J18">
-        <v>19.05759133395285</v>
+        <v>7.595191834018794</v>
       </c>
       <c r="K18">
-        <v>11.83410503085308</v>
+        <v>19.05598955915177</v>
       </c>
       <c r="L18">
-        <v>17.12298041985464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.8344122270471</v>
+      </c>
+      <c r="M18">
+        <v>17.12296915974975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.43828029139605</v>
+        <v>21.43795400551714</v>
       </c>
       <c r="C19">
-        <v>14.98689890221895</v>
+        <v>14.98280175218916</v>
       </c>
       <c r="D19">
-        <v>3.051010822003265</v>
+        <v>3.053698969121391</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.84132831559378</v>
+        <v>32.81956419751613</v>
       </c>
       <c r="G19">
-        <v>24.23559815403774</v>
+        <v>23.19897466766028</v>
       </c>
       <c r="H19">
-        <v>20.06867262198681</v>
+        <v>24.27430455394838</v>
       </c>
       <c r="I19">
-        <v>7.588742342204932</v>
+        <v>20.05357060295719</v>
       </c>
       <c r="J19">
-        <v>18.97554512601513</v>
+        <v>7.587906535354549</v>
       </c>
       <c r="K19">
-        <v>11.79046003003075</v>
+        <v>18.97396183464784</v>
       </c>
       <c r="L19">
-        <v>17.04717344791369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.7907681265606</v>
+      </c>
+      <c r="M19">
+        <v>17.04716848296584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.86725183859184</v>
+        <v>21.86687137650769</v>
       </c>
       <c r="C20">
-        <v>15.28170165187021</v>
+        <v>15.27746787439295</v>
       </c>
       <c r="D20">
-        <v>3.05930453371466</v>
+        <v>3.062138529819888</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.33319901433845</v>
+        <v>33.31101183574285</v>
       </c>
       <c r="G20">
-        <v>24.54798228690861</v>
+        <v>23.58572811578892</v>
       </c>
       <c r="H20">
-        <v>20.23719308831001</v>
+        <v>24.58715820953253</v>
       </c>
       <c r="I20">
-        <v>7.622051865906469</v>
+        <v>20.22174511541542</v>
       </c>
       <c r="J20">
-        <v>19.34266420170707</v>
+        <v>7.621181719253347</v>
       </c>
       <c r="K20">
-        <v>11.9864643484237</v>
+        <v>19.34099771608438</v>
       </c>
       <c r="L20">
-        <v>17.38643131420379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.98676816962515</v>
+      </c>
+      <c r="M20">
+        <v>17.38639773003937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26458684636884</v>
+        <v>23.26401754122815</v>
       </c>
       <c r="C21">
-        <v>16.24426435215062</v>
+        <v>16.23957655770556</v>
       </c>
       <c r="D21">
-        <v>3.086737335122468</v>
+        <v>3.090053124893633</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.99111760207301</v>
+        <v>34.96753439421808</v>
       </c>
       <c r="G21">
-        <v>25.61219310081099</v>
+        <v>24.88454441022393</v>
       </c>
       <c r="H21">
-        <v>20.82888943123569</v>
+        <v>25.65299612728936</v>
       </c>
       <c r="I21">
-        <v>7.742838290339805</v>
+        <v>20.8123012627286</v>
       </c>
       <c r="J21">
-        <v>20.53995408224728</v>
+        <v>7.741858459869071</v>
       </c>
       <c r="K21">
-        <v>12.67799261169079</v>
+        <v>20.53800685449805</v>
       </c>
       <c r="L21">
-        <v>18.49391734567531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.67826048148553</v>
+      </c>
+      <c r="M21">
+        <v>18.49378191989026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.14591319115115</v>
+        <v>24.14521429867514</v>
       </c>
       <c r="C22">
-        <v>16.85317662690349</v>
+        <v>16.84819451412341</v>
       </c>
       <c r="D22">
-        <v>3.104342735515968</v>
+        <v>3.107967112480829</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.07866024056386</v>
+        <v>36.05418168911503</v>
       </c>
       <c r="G22">
-        <v>26.31881127337098</v>
+        <v>25.73307652911927</v>
       </c>
       <c r="H22">
-        <v>21.23530629993026</v>
+        <v>26.36071373706003</v>
       </c>
       <c r="I22">
-        <v>7.828755928484061</v>
+        <v>21.21799010393689</v>
       </c>
       <c r="J22">
-        <v>21.29618122496878</v>
+        <v>7.827708788328291</v>
       </c>
       <c r="K22">
-        <v>13.19084772339203</v>
+        <v>21.29404841963792</v>
       </c>
       <c r="L22">
-        <v>19.19431630820231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>13.19109886852946</v>
+      </c>
+      <c r="M22">
+        <v>19.19410929252257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.67839607428803</v>
+        <v>23.67776698375365</v>
       </c>
       <c r="C23">
-        <v>16.52999134210493</v>
+        <v>16.52516618236378</v>
       </c>
       <c r="D23">
-        <v>3.094975961403669</v>
+        <v>3.098436224967516</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.49783763642451</v>
+        <v>35.47383552579181</v>
       </c>
       <c r="G23">
-        <v>25.94064207615647</v>
+        <v>25.28020906982536</v>
       </c>
       <c r="H23">
-        <v>21.01654268566355</v>
+        <v>25.98195450728976</v>
       </c>
       <c r="I23">
-        <v>7.782237564473665</v>
+        <v>20.9996134556797</v>
       </c>
       <c r="J23">
-        <v>20.894925118986</v>
+        <v>7.781225941707282</v>
       </c>
       <c r="K23">
-        <v>12.91853329537041</v>
+        <v>20.89289163183522</v>
       </c>
       <c r="L23">
-        <v>18.82259313342567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.91879374875283</v>
+      </c>
+      <c r="M23">
+        <v>18.82242484157043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84386216895433</v>
+        <v>21.84348470503011</v>
       </c>
       <c r="C24">
-        <v>15.26561912169619</v>
+        <v>15.26139282493311</v>
       </c>
       <c r="D24">
-        <v>3.05885070544779</v>
+        <v>3.061676722822368</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.30616753044818</v>
+        <v>33.28400348466107</v>
       </c>
       <c r="G24">
-        <v>24.53077274945649</v>
+        <v>23.56449177801963</v>
       </c>
       <c r="H24">
-        <v>20.22784458482791</v>
+        <v>24.56992269916345</v>
       </c>
       <c r="I24">
-        <v>7.620190197870095</v>
+        <v>20.2124155288977</v>
       </c>
       <c r="J24">
-        <v>19.32264155057067</v>
+        <v>7.619321915977485</v>
       </c>
       <c r="K24">
-        <v>11.97572732377495</v>
+        <v>19.32097963529241</v>
       </c>
       <c r="L24">
-        <v>17.36792442582843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.97603139470694</v>
+      </c>
+      <c r="M24">
+        <v>17.36789243279944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72269923787453</v>
+        <v>19.72257345181364</v>
       </c>
       <c r="C25">
-        <v>13.81116618263778</v>
+        <v>13.8076046748176</v>
       </c>
       <c r="D25">
-        <v>3.018506986698346</v>
+        <v>3.020622852121489</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.9598161524812</v>
+        <v>30.93971886932169</v>
       </c>
       <c r="G25">
-        <v>23.05692698900134</v>
+        <v>21.7122349397254</v>
       </c>
       <c r="H25">
-        <v>19.45723190730291</v>
+        <v>23.09390519608944</v>
       </c>
       <c r="I25">
-        <v>7.473023985211731</v>
+        <v>19.44348952249787</v>
       </c>
       <c r="J25">
-        <v>17.50957221429125</v>
+        <v>7.472328137267348</v>
       </c>
       <c r="K25">
-        <v>11.02702847945142</v>
+        <v>17.50830955589647</v>
       </c>
       <c r="L25">
-        <v>15.69382601470933</v>
+        <v>11.02734767665961</v>
+      </c>
+      <c r="M25">
+        <v>15.69392434972037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03298397115637</v>
+        <v>20.84666375619578</v>
       </c>
       <c r="C2">
-        <v>12.65528030846956</v>
+        <v>10.60712999309558</v>
       </c>
       <c r="D2">
-        <v>2.989221094315897</v>
+        <v>2.882174239623186</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.23228705862683</v>
+        <v>35.13217226933617</v>
       </c>
       <c r="G2">
-        <v>20.34924244788137</v>
+        <v>2.129937174358758</v>
       </c>
       <c r="H2">
-        <v>22.04815228571681</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>18.94143619480655</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.385391826028417</v>
+        <v>6.169265419721528</v>
       </c>
       <c r="K2">
-        <v>16.06861321202672</v>
+        <v>16.39568012749492</v>
       </c>
       <c r="L2">
-        <v>10.3109396248222</v>
+        <v>6.74419116469008</v>
       </c>
       <c r="M2">
-        <v>14.36648471559372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.26168212938806</v>
+      </c>
+      <c r="N2">
+        <v>14.90340257414948</v>
+      </c>
+      <c r="O2">
+        <v>26.49679598665168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.80560343724038</v>
+        <v>19.68379586894013</v>
       </c>
       <c r="C3">
-        <v>11.82158217959235</v>
+        <v>9.924013873285073</v>
       </c>
       <c r="D3">
-        <v>2.96723741255629</v>
+        <v>2.848407888240366</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.0902277522908</v>
+        <v>34.46112744779011</v>
       </c>
       <c r="G3">
-        <v>19.42876005537319</v>
+        <v>2.138617062247566</v>
       </c>
       <c r="H3">
-        <v>21.36604859771118</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>18.63871921536308</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.338554313202541</v>
+        <v>6.211077513494274</v>
       </c>
       <c r="K3">
-        <v>15.02561973489152</v>
+        <v>15.4679523815099</v>
       </c>
       <c r="L3">
-        <v>9.815804994258585</v>
+        <v>6.684982409689261</v>
       </c>
       <c r="M3">
-        <v>13.40569354027064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.84090199219061</v>
+      </c>
+      <c r="N3">
+        <v>15.13938504851072</v>
+      </c>
+      <c r="O3">
+        <v>26.06288488373454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01062040646127</v>
+        <v>18.94753139949053</v>
       </c>
       <c r="C4">
-        <v>11.2832116057364</v>
+        <v>9.483230768415298</v>
       </c>
       <c r="D4">
-        <v>2.953406493893216</v>
+        <v>2.828051735182031</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.39803399510209</v>
+        <v>34.07216682891507</v>
       </c>
       <c r="G4">
-        <v>18.86653214718431</v>
+        <v>2.144092217031003</v>
       </c>
       <c r="H4">
-        <v>20.96083755070006</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>18.47049748776898</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.315361689604876</v>
+        <v>6.237493252775247</v>
       </c>
       <c r="K4">
-        <v>14.35155246300922</v>
+        <v>14.87999082255838</v>
       </c>
       <c r="L4">
-        <v>9.507821780413803</v>
+        <v>6.65118956118837</v>
       </c>
       <c r="M4">
-        <v>12.78502941592779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.58330899445112</v>
+      </c>
+      <c r="N4">
+        <v>15.28773803326404</v>
+      </c>
+      <c r="O4">
+        <v>25.81525698964488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67615263942383</v>
+        <v>18.64219897330407</v>
       </c>
       <c r="C5">
-        <v>11.05710828512043</v>
+        <v>9.298213539996617</v>
       </c>
       <c r="D5">
-        <v>2.947689039203058</v>
+        <v>2.819839720219725</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.11851315981737</v>
+        <v>33.91942229969295</v>
       </c>
       <c r="G5">
-        <v>18.638412408536</v>
+        <v>2.146361526301472</v>
       </c>
       <c r="H5">
-        <v>20.79921213576118</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.40624846356508</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.307252368642589</v>
+        <v>6.248449648111071</v>
       </c>
       <c r="K5">
-        <v>14.06834478591424</v>
+        <v>14.63601049937171</v>
       </c>
       <c r="L5">
-        <v>9.381464551330973</v>
+        <v>6.638059220686682</v>
       </c>
       <c r="M5">
-        <v>12.52430358001138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.47865935365314</v>
+      </c>
+      <c r="N5">
+        <v>15.34908195808557</v>
+      </c>
+      <c r="O5">
+        <v>25.71899220510659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61997708504062</v>
+        <v>18.59118881653457</v>
       </c>
       <c r="C6">
-        <v>11.01915715020682</v>
+        <v>9.267165191097584</v>
       </c>
       <c r="D6">
-        <v>2.94673483082784</v>
+        <v>2.818480837392149</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.07226193735704</v>
+        <v>33.89440569743946</v>
       </c>
       <c r="G6">
-        <v>18.60060125792687</v>
+        <v>2.14674068932074</v>
       </c>
       <c r="H6">
-        <v>20.7725881760713</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>18.39583570648266</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.305985183963247</v>
+        <v>6.250280671558385</v>
       </c>
       <c r="K6">
-        <v>14.0208024678939</v>
+        <v>14.59524091104833</v>
       </c>
       <c r="L6">
-        <v>9.360436386446652</v>
+        <v>6.635917506727969</v>
       </c>
       <c r="M6">
-        <v>12.48053723406815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.46130571729243</v>
+      </c>
+      <c r="N6">
+        <v>15.3593223151152</v>
+      </c>
+      <c r="O6">
+        <v>25.70328555766341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00615232756942</v>
+        <v>18.94343458847914</v>
       </c>
       <c r="C7">
-        <v>11.28018954312084</v>
+        <v>9.480757430955698</v>
       </c>
       <c r="D7">
-        <v>2.953329711791405</v>
+        <v>2.827940662197054</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.39425354666702</v>
+        <v>34.07008360095235</v>
       </c>
       <c r="G7">
-        <v>18.86345126818159</v>
+        <v>2.14412266537358</v>
       </c>
       <c r="H7">
-        <v>20.95864353041635</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>18.46961376659072</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.315246967395749</v>
+        <v>6.237640231723546</v>
       </c>
       <c r="K7">
-        <v>14.34776758381491</v>
+        <v>14.87671781515697</v>
       </c>
       <c r="L7">
-        <v>9.506120917901868</v>
+        <v>6.651009892554002</v>
       </c>
       <c r="M7">
-        <v>12.78154484671493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.5818961740422</v>
+      </c>
+      <c r="N7">
+        <v>15.28856171453013</v>
+      </c>
+      <c r="O7">
+        <v>25.81394003235278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61830424296967</v>
+        <v>20.45048483172564</v>
       </c>
       <c r="C8">
-        <v>12.37327984458869</v>
+        <v>10.37600268321169</v>
       </c>
       <c r="D8">
-        <v>2.981711578698891</v>
+        <v>2.870446259355919</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.83678906986237</v>
+        <v>34.89598839596009</v>
       </c>
       <c r="G8">
-        <v>20.03138587059202</v>
+        <v>2.132900705082829</v>
       </c>
       <c r="H8">
-        <v>21.81018723338964</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18.83331808270157</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.368052263131619</v>
+        <v>6.183531092334834</v>
       </c>
       <c r="K8">
-        <v>15.71593923742471</v>
+        <v>16.07972514050001</v>
       </c>
       <c r="L8">
-        <v>10.14112042476405</v>
+        <v>6.723242298166408</v>
       </c>
       <c r="M8">
-        <v>14.04153661614357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.11651184559948</v>
+      </c>
+      <c r="N8">
+        <v>14.98406300811636</v>
+      </c>
+      <c r="O8">
+        <v>26.34323642626977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45653325622207</v>
+        <v>23.2194536762219</v>
       </c>
       <c r="C9">
-        <v>14.30979409046345</v>
+        <v>11.96396513772974</v>
       </c>
       <c r="D9">
-        <v>3.034637347121262</v>
+        <v>2.957362814892492</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.72683671057228</v>
+        <v>36.70004850524657</v>
       </c>
       <c r="G9">
-        <v>22.33629221681012</v>
+        <v>2.111976783582935</v>
       </c>
       <c r="H9">
-        <v>23.58482085544419</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.69222511524579</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.518372875406707</v>
+        <v>6.083079958302927</v>
       </c>
       <c r="K9">
-        <v>18.13496247857078</v>
+        <v>18.28598790737944</v>
       </c>
       <c r="L9">
-        <v>11.34983808747134</v>
+        <v>6.885366310433365</v>
       </c>
       <c r="M9">
-        <v>16.27226058289767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.16591039478362</v>
+      </c>
+      <c r="N9">
+        <v>14.41351933190036</v>
+      </c>
+      <c r="O9">
+        <v>27.53362417254444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.35227536915596</v>
+        <v>25.13141759506752</v>
       </c>
       <c r="C10">
-        <v>15.61133422240158</v>
+        <v>13.0316491281723</v>
       </c>
       <c r="D10">
-        <v>3.071765217264879</v>
+        <v>3.024299479172008</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.8770230275191</v>
+        <v>38.14002938126392</v>
       </c>
       <c r="G10">
-        <v>24.03030900735025</v>
+        <v>2.097152526475216</v>
       </c>
       <c r="H10">
-        <v>24.94944785487719</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20.41953380709035</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.660970760239849</v>
+        <v>6.012371764059397</v>
       </c>
       <c r="K10">
-        <v>19.75662481577461</v>
+        <v>20.02702961186105</v>
       </c>
       <c r="L10">
-        <v>12.21088662522657</v>
+        <v>7.017179157931605</v>
       </c>
       <c r="M10">
-        <v>17.77071676213153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.9317127817056</v>
+      </c>
+      <c r="N10">
+        <v>14.00936002104135</v>
+      </c>
+      <c r="O10">
+        <v>28.50554425253648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.17536291765133</v>
+        <v>25.97384737506379</v>
       </c>
       <c r="C11">
-        <v>16.1784230829374</v>
+        <v>13.49675777283592</v>
       </c>
       <c r="D11">
-        <v>3.088263524522413</v>
+        <v>3.055653925619567</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.85996398145615</v>
+        <v>38.8205608131792</v>
       </c>
       <c r="G11">
-        <v>24.80040700427728</v>
+        <v>2.090500357207749</v>
       </c>
       <c r="H11">
-        <v>25.58328802332379</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>20.77289961635504</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.733639633318878</v>
+        <v>5.980791419154104</v>
       </c>
       <c r="K11">
-        <v>20.46198869667081</v>
+        <v>20.78785946061872</v>
       </c>
       <c r="L11">
-        <v>12.62678046792363</v>
+        <v>7.079954531825057</v>
       </c>
       <c r="M11">
-        <v>18.42340511746702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.27804819652583</v>
+      </c>
+      <c r="N11">
+        <v>13.8285190795044</v>
+      </c>
+      <c r="O11">
+        <v>28.96981695890384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.48155765046667</v>
+        <v>26.28891546598531</v>
       </c>
       <c r="C12">
-        <v>16.38969455590006</v>
+        <v>13.67000732386179</v>
       </c>
       <c r="D12">
-        <v>3.094454448365841</v>
+        <v>3.067679636866531</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.23286321642436</v>
+        <v>39.08198757506438</v>
       </c>
       <c r="G12">
-        <v>25.09196346637326</v>
+        <v>2.087991992575057</v>
       </c>
       <c r="H12">
-        <v>25.82521220484437</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20.91008348938305</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.76234938842469</v>
+        <v>5.968909327541136</v>
       </c>
       <c r="K12">
-        <v>20.72457488016212</v>
+        <v>21.07104192373542</v>
       </c>
       <c r="L12">
-        <v>12.80467037324599</v>
+        <v>7.104135339025065</v>
       </c>
       <c r="M12">
-        <v>18.66653471662225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.40884923133981</v>
+      </c>
+      <c r="N12">
+        <v>13.76045544827104</v>
+      </c>
+      <c r="O12">
+        <v>29.14889786227767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.41585463655868</v>
+        <v>26.22123496957351</v>
       </c>
       <c r="C13">
-        <v>16.34434584687146</v>
+        <v>13.63282144834922</v>
       </c>
       <c r="D13">
-        <v>3.093123640236017</v>
+        <v>3.065082516300408</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.15252184145307</v>
+        <v>39.0255177937721</v>
       </c>
       <c r="G13">
-        <v>25.02917355612611</v>
+        <v>2.088531781548828</v>
       </c>
       <c r="H13">
-        <v>25.77302407396466</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20.88038624420073</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.756112076769428</v>
+        <v>5.971465062280003</v>
       </c>
       <c r="K13">
-        <v>20.66822102543239</v>
+        <v>21.0102703541468</v>
       </c>
       <c r="L13">
-        <v>12.76647785593951</v>
+        <v>7.09890928709638</v>
       </c>
       <c r="M13">
-        <v>18.61434929172696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.3806951058135</v>
+      </c>
+      <c r="N13">
+        <v>13.77509586638207</v>
+      </c>
+      <c r="O13">
+        <v>29.1101825790261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.20066281731527</v>
+        <v>25.99984713412359</v>
       </c>
       <c r="C14">
-        <v>16.19587337339336</v>
+        <v>13.5110682620758</v>
       </c>
       <c r="D14">
-        <v>3.08877399046021</v>
+        <v>3.056640093973505</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.89062879517066</v>
+        <v>38.841993481403</v>
       </c>
       <c r="G14">
-        <v>24.82439451683637</v>
+        <v>2.090293793856115</v>
       </c>
       <c r="H14">
-        <v>25.60315286026864</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>20.78411742307708</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.735977306154769</v>
+        <v>5.979812379919487</v>
       </c>
       <c r="K14">
-        <v>20.48368160196063</v>
+        <v>20.81125497842773</v>
       </c>
       <c r="L14">
-        <v>12.64146950153853</v>
+        <v>7.081935671133441</v>
       </c>
       <c r="M14">
-        <v>18.44348745898988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.2888165248024</v>
+      </c>
+      <c r="N14">
+        <v>13.8229111749054</v>
+      </c>
+      <c r="O14">
+        <v>28.9844839522044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.06814155441868</v>
+        <v>25.86372772417873</v>
       </c>
       <c r="C15">
-        <v>16.10448125433814</v>
+        <v>13.43611890268506</v>
       </c>
       <c r="D15">
-        <v>3.086102328962951</v>
+        <v>3.051489435327268</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.73030127088466</v>
+        <v>38.73006673714389</v>
       </c>
       <c r="G15">
-        <v>24.69895458651166</v>
+        <v>2.091374388573055</v>
       </c>
       <c r="H15">
-        <v>25.49935100610629</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>20.72559331532063</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.723801502083971</v>
+        <v>5.984935110456889</v>
       </c>
       <c r="K15">
-        <v>20.37006139619251</v>
+        <v>20.68871488663555</v>
       </c>
       <c r="L15">
-        <v>12.5645469213538</v>
+        <v>7.071592279284666</v>
       </c>
       <c r="M15">
-        <v>18.33830919892018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.23249145918852</v>
+      </c>
+      <c r="N15">
+        <v>13.85225327298084</v>
+      </c>
+      <c r="O15">
+        <v>28.90791869193501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.29770730254416</v>
+        <v>25.0758109022957</v>
       </c>
       <c r="C16">
-        <v>15.57378079166653</v>
+        <v>13.00084581588353</v>
       </c>
       <c r="D16">
-        <v>3.070679096581928</v>
+        <v>3.022270444094387</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.81287981927168</v>
+        <v>38.09607241367133</v>
       </c>
       <c r="G16">
-        <v>23.97997053050899</v>
+        <v>2.097588894904343</v>
       </c>
       <c r="H16">
-        <v>24.90828897248398</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20.39690477355661</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.656384540378748</v>
+        <v>6.014446765600823</v>
       </c>
       <c r="K16">
-        <v>19.70988769898862</v>
+        <v>19.97661040713495</v>
       </c>
       <c r="L16">
-        <v>12.18557209801194</v>
+        <v>7.013133615938952</v>
       </c>
       <c r="M16">
-        <v>17.72749046930837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.90903283145137</v>
+      </c>
+      <c r="N16">
+        <v>14.02123759174364</v>
+      </c>
+      <c r="O16">
+        <v>28.47565562969969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81511595245583</v>
+        <v>24.5854275471412</v>
       </c>
       <c r="C17">
-        <v>15.24189459775958</v>
+        <v>12.72860320467258</v>
       </c>
       <c r="D17">
-        <v>3.061116787983849</v>
+        <v>3.004592277242997</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.25127415578196</v>
+        <v>37.71369933938373</v>
       </c>
       <c r="G17">
-        <v>23.53875430282795</v>
+        <v>2.101423025499331</v>
       </c>
       <c r="H17">
-        <v>24.54904278400461</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>20.20112316772136</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.617072966593795</v>
+        <v>6.032695968096936</v>
       </c>
       <c r="K17">
-        <v>19.29669792982711</v>
+        <v>19.53083210401268</v>
       </c>
       <c r="L17">
-        <v>11.96301500829857</v>
+        <v>6.977994571337397</v>
       </c>
       <c r="M17">
-        <v>17.34544630924206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.71003529326217</v>
+      </c>
+      <c r="N17">
+        <v>14.12566352084468</v>
+      </c>
+      <c r="O17">
+        <v>28.21620527286368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53383318848267</v>
+        <v>24.30079731485151</v>
       </c>
       <c r="C18">
-        <v>15.04864240900039</v>
+        <v>12.57007317417036</v>
       </c>
       <c r="D18">
-        <v>3.055579954563973</v>
+        <v>2.994507911413829</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.92870272345134</v>
+        <v>37.49616175600538</v>
       </c>
       <c r="G18">
-        <v>23.28492532577883</v>
+        <v>2.103637086927302</v>
       </c>
       <c r="H18">
-        <v>24.34363995188144</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>20.0906249329358</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.595191834018794</v>
+        <v>6.043247984313522</v>
       </c>
       <c r="K18">
-        <v>19.05598955915177</v>
+        <v>19.27110936228135</v>
       </c>
       <c r="L18">
-        <v>11.8344122270471</v>
+        <v>6.9580479711536</v>
       </c>
       <c r="M18">
-        <v>17.12296915974975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.59538821741882</v>
+      </c>
+      <c r="N18">
+        <v>14.18601105313637</v>
+      </c>
+      <c r="O18">
+        <v>28.06905454567092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.43795400551714</v>
+        <v>24.20398523601473</v>
       </c>
       <c r="C19">
-        <v>14.98280175218916</v>
+        <v>12.51606150334857</v>
       </c>
       <c r="D19">
-        <v>3.053698969121391</v>
+        <v>2.991107248912924</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.81956419751613</v>
+        <v>37.42291681183281</v>
       </c>
       <c r="G19">
-        <v>23.19897466766028</v>
+        <v>2.104388308307329</v>
       </c>
       <c r="H19">
-        <v>24.27430455394838</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>20.05357060295719</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.587906535354549</v>
+        <v>6.046830475274656</v>
       </c>
       <c r="K19">
-        <v>18.97396183464784</v>
+        <v>19.18259708052032</v>
       </c>
       <c r="L19">
-        <v>11.7907681265606</v>
+        <v>6.951339690680442</v>
       </c>
       <c r="M19">
-        <v>17.04716848296584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.55654024146546</v>
+      </c>
+      <c r="N19">
+        <v>14.20649308241507</v>
+      </c>
+      <c r="O19">
+        <v>28.0195863298931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.86687137650769</v>
+        <v>24.63789637866806</v>
       </c>
       <c r="C20">
-        <v>15.27746787439295</v>
+        <v>12.75778444785929</v>
       </c>
       <c r="D20">
-        <v>3.062138529819888</v>
+        <v>3.00646533794793</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.31101183574285</v>
+        <v>37.75415553811995</v>
       </c>
       <c r="G20">
-        <v>23.58572811578892</v>
+        <v>2.101013985223787</v>
       </c>
       <c r="H20">
-        <v>24.58715820953253</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>20.22174511541542</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.621181719253347</v>
+        <v>6.030747611428301</v>
       </c>
       <c r="K20">
-        <v>19.34099771608438</v>
+        <v>19.57862892693187</v>
       </c>
       <c r="L20">
-        <v>11.98676816962515</v>
+        <v>6.981707783152038</v>
       </c>
       <c r="M20">
-        <v>17.38639773003937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.73123894204741</v>
+      </c>
+      <c r="N20">
+        <v>14.11451788237633</v>
+      </c>
+      <c r="O20">
+        <v>28.24360852521538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26401754122815</v>
+        <v>26.06498097272195</v>
       </c>
       <c r="C21">
-        <v>16.23957655770556</v>
+        <v>13.54690748854581</v>
       </c>
       <c r="D21">
-        <v>3.090053124893633</v>
+        <v>3.059115507435163</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.96753439421808</v>
+        <v>38.89579734804096</v>
       </c>
       <c r="G21">
-        <v>24.88454441022393</v>
+        <v>2.08977597964177</v>
       </c>
       <c r="H21">
-        <v>25.65299612728936</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>20.8123012627286</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>7.741858459869071</v>
+        <v>5.977358551077242</v>
       </c>
       <c r="K21">
-        <v>20.53800685449805</v>
+        <v>20.86984319691448</v>
       </c>
       <c r="L21">
-        <v>12.67826048148553</v>
+        <v>7.086910087226762</v>
       </c>
       <c r="M21">
-        <v>18.49378191989026</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.31581331633383</v>
+      </c>
+      <c r="N21">
+        <v>13.80885546566654</v>
+      </c>
+      <c r="O21">
+        <v>29.02131515382146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.14521429867514</v>
+        <v>26.97471107889368</v>
       </c>
       <c r="C22">
-        <v>16.84819451412341</v>
+        <v>14.04592207599379</v>
       </c>
       <c r="D22">
-        <v>3.107967112480829</v>
+        <v>3.094426668135699</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.05418168911503</v>
+        <v>39.66368008082345</v>
       </c>
       <c r="G22">
-        <v>25.73307652911927</v>
+        <v>2.082492135106873</v>
       </c>
       <c r="H22">
-        <v>26.36071373706003</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>21.21799010393689</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.827708788328291</v>
+        <v>5.94290888321778</v>
       </c>
       <c r="K22">
-        <v>21.29404841963792</v>
+        <v>21.68507903727739</v>
       </c>
       <c r="L22">
-        <v>13.19109886852946</v>
+        <v>7.158053682100451</v>
       </c>
       <c r="M22">
-        <v>19.19410929252257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.69582066118629</v>
+      </c>
+      <c r="N22">
+        <v>13.61151143466793</v>
+      </c>
+      <c r="O22">
+        <v>29.54870789623242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.67776698375365</v>
+        <v>26.49126427835887</v>
       </c>
       <c r="C23">
-        <v>16.52516618236378</v>
+        <v>13.78108842309614</v>
       </c>
       <c r="D23">
-        <v>3.098436224967516</v>
+        <v>3.075489799669835</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.47383552579181</v>
+        <v>39.2518298320972</v>
       </c>
       <c r="G23">
-        <v>25.28020906982536</v>
+        <v>2.086374979794692</v>
       </c>
       <c r="H23">
-        <v>25.98195450728976</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>20.9996134556797</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.781225941707282</v>
+        <v>5.961257387708809</v>
       </c>
       <c r="K23">
-        <v>20.89289163183522</v>
+        <v>21.25254523159871</v>
       </c>
       <c r="L23">
-        <v>12.91879374875283</v>
+        <v>7.119862675992569</v>
       </c>
       <c r="M23">
-        <v>18.82242484157043</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.49320481526816</v>
+      </c>
+      <c r="N23">
+        <v>13.71662072058333</v>
+      </c>
+      <c r="O23">
+        <v>29.26544677992725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84348470503011</v>
+        <v>24.61418363566666</v>
       </c>
       <c r="C24">
-        <v>15.26139282493311</v>
+        <v>12.74459788753314</v>
       </c>
       <c r="D24">
-        <v>3.061676722822368</v>
+        <v>3.005618282639973</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.28400348466107</v>
+        <v>37.7358581502799</v>
       </c>
       <c r="G24">
-        <v>23.56449177801963</v>
+        <v>2.101198881720555</v>
       </c>
       <c r="H24">
-        <v>24.56992269916345</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>20.2124155288977</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.619321915977485</v>
+        <v>6.031628275080834</v>
       </c>
       <c r="K24">
-        <v>19.32097963529241</v>
+        <v>19.55703070465391</v>
       </c>
       <c r="L24">
-        <v>11.97603139470694</v>
+        <v>6.980028245205465</v>
       </c>
       <c r="M24">
-        <v>17.36789243279944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.72165351777801</v>
+      </c>
+      <c r="N24">
+        <v>14.1195558534648</v>
+      </c>
+      <c r="O24">
+        <v>28.23121325819938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72257345181364</v>
+        <v>22.49143915919078</v>
       </c>
       <c r="C25">
-        <v>13.8076046748176</v>
+        <v>11.55203035030852</v>
       </c>
       <c r="D25">
-        <v>3.020622852121489</v>
+        <v>2.933380901348482</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.93971886932169</v>
+        <v>36.19204470485727</v>
       </c>
       <c r="G25">
-        <v>21.7122349397254</v>
+        <v>2.117532317417431</v>
       </c>
       <c r="H25">
-        <v>23.09390519608944</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>19.44348952249787</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.472328137267348</v>
+        <v>6.1096843131571</v>
       </c>
       <c r="K25">
-        <v>17.50830955589647</v>
+        <v>17.70633165875918</v>
       </c>
       <c r="L25">
-        <v>11.02734767665961</v>
+        <v>6.839292952731865</v>
       </c>
       <c r="M25">
-        <v>15.69392434972037</v>
+        <v>13.8825654358998</v>
+      </c>
+      <c r="N25">
+        <v>14.56514525545165</v>
+      </c>
+      <c r="O25">
+        <v>27.19481279644274</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.84666375619578</v>
+        <v>20.97207779480548</v>
       </c>
       <c r="C2">
-        <v>10.60712999309558</v>
+        <v>14.37736286737179</v>
       </c>
       <c r="D2">
-        <v>2.882174239623186</v>
+        <v>5.768996313375582</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.13217226933617</v>
+        <v>28.89494862965145</v>
       </c>
       <c r="G2">
-        <v>2.129937174358758</v>
+        <v>37.18517460658497</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.38726733327882</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.169265419721528</v>
+        <v>6.419112646346825</v>
       </c>
       <c r="K2">
-        <v>16.39568012749492</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.74419116469008</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.26168212938806</v>
+        <v>15.76655926967269</v>
       </c>
       <c r="N2">
-        <v>14.90340257414948</v>
+        <v>11.8205882280271</v>
       </c>
       <c r="O2">
-        <v>26.49679598665168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68379586894013</v>
+        <v>19.515360468073</v>
       </c>
       <c r="C3">
-        <v>9.924013873285073</v>
+        <v>13.41186767048968</v>
       </c>
       <c r="D3">
-        <v>2.848407888240366</v>
+        <v>5.643815305218737</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.46112744779011</v>
+        <v>27.9132396043023</v>
       </c>
       <c r="G3">
-        <v>2.138617062247566</v>
+        <v>35.52496234160484</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.20885359828837</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.211077513494274</v>
+        <v>6.420500192541362</v>
       </c>
       <c r="K3">
-        <v>15.4679523815099</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.684982409689261</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.84090199219061</v>
+        <v>14.95187837124022</v>
       </c>
       <c r="N3">
-        <v>15.13938504851072</v>
+        <v>12.08022997507784</v>
       </c>
       <c r="O3">
-        <v>26.06288488373454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94753139949053</v>
+        <v>18.5711529936686</v>
       </c>
       <c r="C4">
-        <v>9.483230768415298</v>
+        <v>12.78638816458731</v>
       </c>
       <c r="D4">
-        <v>2.828051735182031</v>
+        <v>5.567623480725378</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.07216682891507</v>
+        <v>27.32492966094191</v>
       </c>
       <c r="G4">
-        <v>2.144092217031003</v>
+        <v>34.51417244935766</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.10912476532252</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.237493252775247</v>
+        <v>6.424785332982679</v>
       </c>
       <c r="K4">
-        <v>14.87999082255838</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.65118956118837</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.58330899445112</v>
+        <v>14.43755829951291</v>
       </c>
       <c r="N4">
-        <v>15.28773803326404</v>
+        <v>12.24219233415502</v>
       </c>
       <c r="O4">
-        <v>25.81525698964488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64219897330407</v>
+        <v>18.17374625844912</v>
       </c>
       <c r="C5">
-        <v>9.298213539996617</v>
+        <v>12.52322251914229</v>
       </c>
       <c r="D5">
-        <v>2.819839720219725</v>
+        <v>5.536773628857908</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.91942229969295</v>
+        <v>27.08904217395769</v>
       </c>
       <c r="G5">
-        <v>2.146361526301472</v>
+        <v>34.10492424933565</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.07089644066841</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.248449648111071</v>
+        <v>6.427366326290733</v>
       </c>
       <c r="K5">
-        <v>14.63601049937171</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.638059220686682</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.47865935365314</v>
+        <v>14.2246562654297</v>
       </c>
       <c r="N5">
-        <v>15.34908195808557</v>
+        <v>12.30887946905696</v>
       </c>
       <c r="O5">
-        <v>25.71899220510659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59118881653457</v>
+        <v>18.10699072512491</v>
       </c>
       <c r="C6">
-        <v>9.267165191097584</v>
+        <v>12.47902235155609</v>
       </c>
       <c r="D6">
-        <v>2.818480837392149</v>
+        <v>5.531663958098865</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.89440569743946</v>
+        <v>27.0501124475515</v>
       </c>
       <c r="G6">
-        <v>2.14674068932074</v>
+        <v>34.03714501823062</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.06469256346159</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.250280671558385</v>
+        <v>6.42784449730838</v>
       </c>
       <c r="K6">
-        <v>14.59524091104833</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.635917506727969</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.46130571729243</v>
+        <v>14.18911173041901</v>
       </c>
       <c r="N6">
-        <v>15.3593223151152</v>
+        <v>12.31999558153359</v>
       </c>
       <c r="O6">
-        <v>25.70328555766341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94343458847914</v>
+        <v>18.56584473684061</v>
       </c>
       <c r="C7">
-        <v>9.480757430955698</v>
+        <v>12.78287261755625</v>
       </c>
       <c r="D7">
-        <v>2.827940662197054</v>
+        <v>5.567206582381901</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.07008360095235</v>
+        <v>27.32173250491746</v>
       </c>
       <c r="G7">
-        <v>2.14412266537358</v>
+        <v>34.50864172727223</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.10859951787925</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.237640231723546</v>
+        <v>6.424816798326257</v>
       </c>
       <c r="K7">
-        <v>14.87671781515697</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.651009892554002</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.5818961740422</v>
+        <v>14.43470009697228</v>
       </c>
       <c r="N7">
-        <v>15.28856171453013</v>
+        <v>12.24308886175093</v>
       </c>
       <c r="O7">
-        <v>25.81394003235278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.45048483172564</v>
+        <v>20.48006052255769</v>
       </c>
       <c r="C8">
-        <v>10.37600268321169</v>
+        <v>14.05119800213066</v>
       </c>
       <c r="D8">
-        <v>2.870446259355919</v>
+        <v>5.725712845104815</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.89598839596009</v>
+        <v>28.55358011495183</v>
       </c>
       <c r="G8">
-        <v>2.132900705082829</v>
+        <v>36.61123030249377</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.32368001157513</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.183531092334834</v>
+        <v>6.418861077623999</v>
       </c>
       <c r="K8">
-        <v>16.07972514050001</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.723242298166408</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.11651184559948</v>
+        <v>15.48871037333881</v>
       </c>
       <c r="N8">
-        <v>14.98406300811636</v>
+        <v>11.90961461772977</v>
       </c>
       <c r="O8">
-        <v>26.34323642626977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.2194536762219</v>
+        <v>23.84444602912932</v>
       </c>
       <c r="C9">
-        <v>11.96396513772974</v>
+        <v>16.28249310279483</v>
       </c>
       <c r="D9">
-        <v>2.957362814892492</v>
+        <v>6.040589599640249</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.70004850524657</v>
+        <v>31.07532712225975</v>
       </c>
       <c r="G9">
-        <v>2.111976783582935</v>
+        <v>40.78427963304868</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.82566348585881</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.083079958302927</v>
+        <v>6.435750472104225</v>
       </c>
       <c r="K9">
-        <v>18.28598790737944</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.885366310433365</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.16591039478362</v>
+        <v>17.4813435057483</v>
       </c>
       <c r="N9">
-        <v>14.41351933190036</v>
+        <v>11.27353144064458</v>
       </c>
       <c r="O9">
-        <v>27.53362417254444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.13141759506752</v>
+        <v>26.08705832553837</v>
       </c>
       <c r="C10">
-        <v>13.0316491281723</v>
+        <v>17.77086112195903</v>
       </c>
       <c r="D10">
-        <v>3.024299479172008</v>
+        <v>6.272843541894741</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.14002938126392</v>
+        <v>32.98316379278073</v>
       </c>
       <c r="G10">
-        <v>2.097152526475216</v>
+        <v>43.86216733216096</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.24633603772952</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.012371764059397</v>
+        <v>6.467483495260498</v>
       </c>
       <c r="K10">
-        <v>20.02702961186105</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>7.017179157931605</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.9317127817056</v>
+        <v>19.11890939294528</v>
       </c>
       <c r="N10">
-        <v>14.00936002104135</v>
+        <v>10.81358598154226</v>
       </c>
       <c r="O10">
-        <v>28.50554425253648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.97384737506379</v>
+        <v>27.0594391311227</v>
       </c>
       <c r="C11">
-        <v>13.49675777283592</v>
+        <v>18.4164171084773</v>
       </c>
       <c r="D11">
-        <v>3.055653925619567</v>
+        <v>6.378422204418724</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.8205608131792</v>
+        <v>33.8617667720095</v>
       </c>
       <c r="G11">
-        <v>2.090500357207749</v>
+        <v>45.26289021830863</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.44958726603851</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.980791419154104</v>
+        <v>6.48655505326875</v>
       </c>
       <c r="K11">
-        <v>20.78785946061872</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.079954531825057</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.27804819652583</v>
+        <v>19.82952644010775</v>
       </c>
       <c r="N11">
-        <v>13.8285190795044</v>
+        <v>10.60508546698008</v>
       </c>
       <c r="O11">
-        <v>28.96981695890384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.28891546598531</v>
+        <v>27.42095204541669</v>
       </c>
       <c r="C12">
-        <v>13.67000732386179</v>
+        <v>18.65645355407394</v>
       </c>
       <c r="D12">
-        <v>3.067679636866531</v>
+        <v>6.418372041806126</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.08198757506438</v>
+        <v>34.19596256762777</v>
       </c>
       <c r="G12">
-        <v>2.087991992575057</v>
+        <v>45.79333966188671</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.52831418583568</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.968909327541136</v>
+        <v>6.494482083058687</v>
       </c>
       <c r="K12">
-        <v>21.07104192373542</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.104135339025065</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.40884923133981</v>
+        <v>20.09381293169142</v>
       </c>
       <c r="N12">
-        <v>13.76045544827104</v>
+        <v>10.52615755018055</v>
       </c>
       <c r="O12">
-        <v>29.14889786227767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.22123496957351</v>
+        <v>27.34338926715877</v>
       </c>
       <c r="C13">
-        <v>13.63282144834922</v>
+        <v>18.6049522110396</v>
       </c>
       <c r="D13">
-        <v>3.065082516300408</v>
+        <v>6.409769763473805</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.0255177937721</v>
+        <v>34.12392164406568</v>
       </c>
       <c r="G13">
-        <v>2.088531781548828</v>
+        <v>45.67909658048381</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.51127979143135</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.971465062280003</v>
+        <v>6.492742864123784</v>
       </c>
       <c r="K13">
-        <v>21.0102703541468</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.09890928709638</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.3806951058135</v>
+        <v>20.0371058623409</v>
       </c>
       <c r="N13">
-        <v>13.77509586638207</v>
+        <v>10.5431562342436</v>
       </c>
       <c r="O13">
-        <v>29.1101825790261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.99984713412359</v>
+        <v>27.08931442959916</v>
       </c>
       <c r="C14">
-        <v>13.5110682620758</v>
+        <v>18.4362530037532</v>
       </c>
       <c r="D14">
-        <v>3.056640093973505</v>
+        <v>6.381709613716653</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.841993481403</v>
+        <v>33.88923156275636</v>
       </c>
       <c r="G14">
-        <v>2.090293793856115</v>
+        <v>45.30653006665336</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.45602859348726</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.979812379919487</v>
+        <v>6.487192857146155</v>
       </c>
       <c r="K14">
-        <v>20.81125497842773</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.081935671133441</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.2888165248024</v>
+        <v>19.85136506548183</v>
       </c>
       <c r="N14">
-        <v>13.8229111749054</v>
+        <v>10.59859196160039</v>
       </c>
       <c r="O14">
-        <v>28.9844839522044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.86372772417873</v>
+        <v>26.93281800434388</v>
       </c>
       <c r="C15">
-        <v>13.43611890268506</v>
+        <v>18.33234746593748</v>
       </c>
       <c r="D15">
-        <v>3.051489435327268</v>
+        <v>6.364517461767422</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.73006673714389</v>
+        <v>33.74567017768461</v>
       </c>
       <c r="G15">
-        <v>2.091374388573055</v>
+        <v>45.07832570379784</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.42241644694384</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.984935110456889</v>
+        <v>6.483886310799379</v>
       </c>
       <c r="K15">
-        <v>20.68871488663555</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.071592279284666</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.23249145918852</v>
+        <v>19.7369711350694</v>
       </c>
       <c r="N15">
-        <v>13.85225327298084</v>
+        <v>10.6325489630124</v>
       </c>
       <c r="O15">
-        <v>28.90791869193501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.0758109022957</v>
+        <v>26.0225631329218</v>
       </c>
       <c r="C16">
-        <v>13.00084581588353</v>
+        <v>17.7280475947323</v>
       </c>
       <c r="D16">
-        <v>3.022270444094387</v>
+        <v>6.265940455354404</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.09607241367133</v>
+        <v>32.92595498185419</v>
       </c>
       <c r="G16">
-        <v>2.097588894904343</v>
+        <v>43.77063131466655</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.23329651756958</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.014446765600823</v>
+        <v>6.46633364719736</v>
       </c>
       <c r="K16">
-        <v>19.97661040713495</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>7.013133615938952</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.90903283145137</v>
+        <v>19.07178888578771</v>
       </c>
       <c r="N16">
-        <v>14.02123759174364</v>
+        <v>10.82722016091449</v>
       </c>
       <c r="O16">
-        <v>28.47565562969969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.5854275471412</v>
+        <v>25.45202435983519</v>
       </c>
       <c r="C17">
-        <v>12.72860320467258</v>
+        <v>17.34933356982971</v>
       </c>
       <c r="D17">
-        <v>3.004592277242997</v>
+        <v>6.205432358684597</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.71369933938373</v>
+        <v>32.42577763436208</v>
       </c>
       <c r="G17">
-        <v>2.101423025499331</v>
+        <v>42.968479580184</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.12035671013092</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.032695968096936</v>
+        <v>6.456779725352026</v>
       </c>
       <c r="K17">
-        <v>19.53083210401268</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.977994571337397</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.71003529326217</v>
+        <v>18.65501800630523</v>
       </c>
       <c r="N17">
-        <v>14.12566352084468</v>
+        <v>10.94677844198921</v>
       </c>
       <c r="O17">
-        <v>28.21620527286368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.30079731485151</v>
+        <v>25.11935624203987</v>
       </c>
       <c r="C18">
-        <v>12.57007317417036</v>
+        <v>17.12853427938808</v>
       </c>
       <c r="D18">
-        <v>2.994507911413829</v>
+        <v>6.170623636626481</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.49616175600538</v>
+        <v>32.1390979313358</v>
       </c>
       <c r="G18">
-        <v>2.103637086927302</v>
+        <v>42.50715472517221</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.05651219447922</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.043247984313522</v>
+        <v>6.451718515159737</v>
       </c>
       <c r="K18">
-        <v>19.27110936228135</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.9580479711536</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.59538821741882</v>
+        <v>18.4120639788934</v>
       </c>
       <c r="N18">
-        <v>14.18601105313637</v>
+        <v>11.01561913247615</v>
       </c>
       <c r="O18">
-        <v>28.06905454567092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.20398523601473</v>
+        <v>25.00594118735975</v>
       </c>
       <c r="C19">
-        <v>12.51606150334857</v>
+        <v>17.05326163970876</v>
       </c>
       <c r="D19">
-        <v>2.991107248912924</v>
+        <v>6.158837617541607</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.42291681183281</v>
+        <v>32.04220887216928</v>
       </c>
       <c r="G19">
-        <v>2.104388308307329</v>
+        <v>42.35097024115437</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.03508563334607</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.046830475274656</v>
+        <v>6.450078272115524</v>
       </c>
       <c r="K19">
-        <v>19.18259708052032</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.951339690680442</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.55654024146546</v>
+        <v>18.32924401399233</v>
       </c>
       <c r="N19">
-        <v>14.20649308241507</v>
+        <v>11.0389423707535</v>
       </c>
       <c r="O19">
-        <v>28.0195863298931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.63789637866806</v>
+        <v>25.51322471674556</v>
       </c>
       <c r="C20">
-        <v>12.75778444785929</v>
+        <v>17.38995525632019</v>
       </c>
       <c r="D20">
-        <v>3.00646533794793</v>
+        <v>6.211874330667833</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.75415553811995</v>
+        <v>32.47891848010222</v>
       </c>
       <c r="G20">
-        <v>2.101013985223787</v>
+        <v>43.05386538207727</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.13226354213977</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.030747611428301</v>
+        <v>6.457751572737854</v>
       </c>
       <c r="K20">
-        <v>19.57862892693187</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.981707783152038</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.73123894204741</v>
+        <v>18.69971825831434</v>
       </c>
       <c r="N20">
-        <v>14.11451788237633</v>
+        <v>10.93404415111211</v>
       </c>
       <c r="O20">
-        <v>28.24360852521538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.06498097272195</v>
+        <v>27.16412299633866</v>
       </c>
       <c r="C21">
-        <v>13.54690748854581</v>
+        <v>18.48592312857441</v>
       </c>
       <c r="D21">
-        <v>3.059115507435163</v>
+        <v>6.389952527943142</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.89579734804096</v>
+        <v>33.95812551553719</v>
       </c>
       <c r="G21">
-        <v>2.08977597964177</v>
+        <v>45.41596114065928</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.4722090116033</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.977358551077242</v>
+        <v>6.488803577481855</v>
       </c>
       <c r="K21">
-        <v>20.86984319691448</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.086910087226762</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.31581331633383</v>
+        <v>19.90605109342387</v>
       </c>
       <c r="N21">
-        <v>13.80885546566654</v>
+        <v>10.58230908375597</v>
       </c>
       <c r="O21">
-        <v>29.02131515382146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.97471107889368</v>
+        <v>28.20407575145281</v>
       </c>
       <c r="C22">
-        <v>14.04592207599379</v>
+        <v>19.17648725773109</v>
       </c>
       <c r="D22">
-        <v>3.094426668135699</v>
+        <v>6.506152483565532</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.66368008082345</v>
+        <v>34.93355867373162</v>
       </c>
       <c r="G22">
-        <v>2.082492135106873</v>
+        <v>46.95992326896567</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.70466974412326</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.94290888321778</v>
+        <v>6.513226804327423</v>
       </c>
       <c r="K22">
-        <v>21.68507903727739</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.158053682100451</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.69582066118629</v>
+        <v>20.66649598694325</v>
       </c>
       <c r="N22">
-        <v>13.61151143466793</v>
+        <v>10.35254332464711</v>
       </c>
       <c r="O22">
-        <v>29.54870789623242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.49126427835887</v>
+        <v>27.65254406021334</v>
       </c>
       <c r="C23">
-        <v>13.78108842309614</v>
+        <v>18.81023419182467</v>
       </c>
       <c r="D23">
-        <v>3.075489799669835</v>
+        <v>6.44415685618836</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.2518298320972</v>
+        <v>34.4121608366807</v>
       </c>
       <c r="G23">
-        <v>2.086374979794692</v>
+        <v>46.13585685314116</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.57964164713235</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.961257387708809</v>
+        <v>6.49980061452317</v>
       </c>
       <c r="K23">
-        <v>21.25254523159871</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.119862675992569</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.49320481526816</v>
+        <v>20.26314655986652</v>
       </c>
       <c r="N23">
-        <v>13.71662072058333</v>
+        <v>10.47519125231626</v>
       </c>
       <c r="O23">
-        <v>29.26544677992725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.61418363566666</v>
+        <v>25.48557055573707</v>
       </c>
       <c r="C24">
-        <v>12.74459788753314</v>
+        <v>17.37159976721443</v>
       </c>
       <c r="D24">
-        <v>3.005618282639973</v>
+        <v>6.208961981527248</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.7358581502799</v>
+        <v>32.45489076137258</v>
       </c>
       <c r="G24">
-        <v>2.101198881720555</v>
+        <v>43.01526294493537</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.12687708426289</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.031628275080834</v>
+        <v>6.457310859489959</v>
       </c>
       <c r="K24">
-        <v>19.55703070465391</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.980028245205465</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.72165351777801</v>
+        <v>18.67951970865562</v>
       </c>
       <c r="N24">
-        <v>14.1195558534648</v>
+        <v>10.93980099100705</v>
       </c>
       <c r="O24">
-        <v>28.23121325819938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.49143915919078</v>
+        <v>22.97516058938261</v>
       </c>
       <c r="C25">
-        <v>11.55203035030852</v>
+        <v>15.70577100144304</v>
       </c>
       <c r="D25">
-        <v>2.933380901348482</v>
+        <v>5.955142614377381</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.19204470485727</v>
+        <v>30.38287383014951</v>
       </c>
       <c r="G25">
-        <v>2.117532317417431</v>
+        <v>39.65224492811063</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.680960920027</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.1096843131571</v>
+        <v>6.427930832538042</v>
       </c>
       <c r="K25">
-        <v>17.70633165875918</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.839292952731865</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.8825654358998</v>
+        <v>16.92280318238973</v>
       </c>
       <c r="N25">
-        <v>14.56514525545165</v>
+        <v>11.4440405259599</v>
       </c>
       <c r="O25">
-        <v>27.19481279644274</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97207779480548</v>
+        <v>15.19667366061813</v>
       </c>
       <c r="C2">
-        <v>14.37736286737179</v>
+        <v>8.35966439233923</v>
       </c>
       <c r="D2">
-        <v>5.768996313375582</v>
+        <v>9.420009377179049</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.89494862965145</v>
+        <v>35.59575027298209</v>
       </c>
       <c r="G2">
-        <v>37.18517460658497</v>
+        <v>39.04177226840294</v>
       </c>
       <c r="H2">
-        <v>11.38726733327882</v>
+        <v>16.5200001671281</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.419112646346825</v>
+        <v>10.92683161462506</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.76655926967269</v>
+        <v>18.16309274868948</v>
       </c>
       <c r="N2">
-        <v>11.8205882280271</v>
+        <v>18.29741856072221</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.515360468073</v>
+        <v>14.71976926512402</v>
       </c>
       <c r="C3">
-        <v>13.41186767048968</v>
+        <v>7.916798218922285</v>
       </c>
       <c r="D3">
-        <v>5.643815305218737</v>
+        <v>9.417146225209748</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.9132396043023</v>
+        <v>35.53489286404012</v>
       </c>
       <c r="G3">
-        <v>35.52496234160484</v>
+        <v>38.81737476030996</v>
       </c>
       <c r="H3">
-        <v>11.20885359828837</v>
+        <v>16.54545636646835</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.420500192541362</v>
+        <v>10.95170149816921</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.95187837124022</v>
+        <v>18.02749359007558</v>
       </c>
       <c r="N3">
-        <v>12.08022997507784</v>
+        <v>18.36915314031053</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.5711529936686</v>
+        <v>14.42253728063235</v>
       </c>
       <c r="C4">
-        <v>12.78638816458731</v>
+        <v>7.633067536066225</v>
       </c>
       <c r="D4">
-        <v>5.567623480725378</v>
+        <v>9.4164360498602</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.32492966094191</v>
+        <v>35.50791891676248</v>
       </c>
       <c r="G4">
-        <v>34.51417244935766</v>
+        <v>38.69356945837765</v>
       </c>
       <c r="H4">
-        <v>11.10912476532252</v>
+        <v>16.56488238752863</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.424785332982679</v>
+        <v>10.96839731360714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.43755829951291</v>
+        <v>17.94749226624987</v>
       </c>
       <c r="N4">
-        <v>12.24219233415502</v>
+        <v>18.41513602071812</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.17374625844912</v>
+        <v>14.30050635823942</v>
       </c>
       <c r="C5">
-        <v>12.52322251914229</v>
+        <v>7.514607895658941</v>
       </c>
       <c r="D5">
-        <v>5.536773628857908</v>
+        <v>9.41641116639007</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.08904217395769</v>
+        <v>35.4995436465108</v>
       </c>
       <c r="G5">
-        <v>34.10492424933565</v>
+        <v>38.64667154836192</v>
       </c>
       <c r="H5">
-        <v>11.07089644066841</v>
+        <v>16.5737504877862</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.427366326290733</v>
+        <v>10.97555951393209</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.2246562654297</v>
+        <v>17.91573913644444</v>
       </c>
       <c r="N5">
-        <v>12.30887946905696</v>
+        <v>18.43436335972076</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.10699072512491</v>
+        <v>14.28019466399305</v>
       </c>
       <c r="C6">
-        <v>12.47902235155609</v>
+        <v>7.494770754708786</v>
       </c>
       <c r="D6">
-        <v>5.531663958098865</v>
+        <v>9.416423039672758</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.0501124475515</v>
+        <v>35.49831103854073</v>
       </c>
       <c r="G6">
-        <v>34.03714501823062</v>
+        <v>38.63909984055984</v>
       </c>
       <c r="H6">
-        <v>11.06469256346159</v>
+        <v>16.57528043472299</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.42784449730838</v>
+        <v>10.97677044663457</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.18911173041901</v>
+        <v>17.91051859343004</v>
       </c>
       <c r="N6">
-        <v>12.31999558153359</v>
+        <v>18.43758562631598</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.56584473684061</v>
+        <v>14.42089492116144</v>
       </c>
       <c r="C7">
-        <v>12.78287261755625</v>
+        <v>7.631481242550177</v>
       </c>
       <c r="D7">
-        <v>5.567206582381901</v>
+        <v>9.416434641924416</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.32173250491746</v>
+        <v>35.50779536698776</v>
       </c>
       <c r="G7">
-        <v>34.50864172727223</v>
+        <v>38.69292254090673</v>
       </c>
       <c r="H7">
-        <v>11.10859951787925</v>
+        <v>16.56499813564169</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.424816798326257</v>
+        <v>10.96849245386837</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.43470009697228</v>
+        <v>17.94706056144567</v>
       </c>
       <c r="N7">
-        <v>12.24308886175093</v>
+        <v>18.41539334537183</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.48006052255769</v>
+        <v>15.03326964708102</v>
       </c>
       <c r="C8">
-        <v>14.05119800213066</v>
+        <v>8.209487385395796</v>
       </c>
       <c r="D8">
-        <v>5.725712845104815</v>
+        <v>9.418805331450981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.55358011495183</v>
+        <v>35.57261252028404</v>
       </c>
       <c r="G8">
-        <v>36.61123030249377</v>
+        <v>38.96152513993984</v>
       </c>
       <c r="H8">
-        <v>11.32368001157513</v>
+        <v>16.52798813394136</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.418861077623999</v>
+        <v>10.9351108914562</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.48871037333881</v>
+        <v>18.11568000214562</v>
       </c>
       <c r="N8">
-        <v>11.90961461772977</v>
+        <v>18.32175154854459</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84444602912932</v>
+        <v>16.19097119276024</v>
       </c>
       <c r="C9">
-        <v>16.28249310279483</v>
+        <v>9.244549669876264</v>
       </c>
       <c r="D9">
-        <v>6.040589599640249</v>
+        <v>9.431720642148997</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.07532712225975</v>
+        <v>35.7819076529858</v>
       </c>
       <c r="G9">
-        <v>40.78427963304868</v>
+        <v>39.59708061383115</v>
       </c>
       <c r="H9">
-        <v>11.82566348585881</v>
+        <v>16.48563705128067</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.435750472104225</v>
+        <v>10.88095964468478</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.4813435057483</v>
+        <v>18.47084485801577</v>
       </c>
       <c r="N9">
-        <v>11.27353144064458</v>
+        <v>18.15341369537461</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08705832553837</v>
+        <v>17.0053498906668</v>
       </c>
       <c r="C10">
-        <v>17.77086112195903</v>
+        <v>9.940016236098085</v>
       </c>
       <c r="D10">
-        <v>6.272843541894741</v>
+        <v>9.446182342305946</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.98316379278073</v>
+        <v>35.9852423891647</v>
       </c>
       <c r="G10">
-        <v>43.86216733216096</v>
+        <v>40.12715428272708</v>
       </c>
       <c r="H10">
-        <v>12.24633603772952</v>
+        <v>16.47307811007994</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.467483495260498</v>
+        <v>10.84806743170252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.11890939294528</v>
+        <v>18.74484426842238</v>
       </c>
       <c r="N10">
-        <v>10.81358598154226</v>
+        <v>18.03894480612465</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.0594391311227</v>
+        <v>17.36619142497605</v>
       </c>
       <c r="C11">
-        <v>18.4164171084773</v>
+        <v>10.24153779162444</v>
       </c>
       <c r="D11">
-        <v>6.378422204418724</v>
+        <v>9.453825441684263</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.8617667720095</v>
+        <v>36.08833566326475</v>
       </c>
       <c r="G11">
-        <v>45.26289021830863</v>
+        <v>40.38119980267168</v>
       </c>
       <c r="H11">
-        <v>12.44958726603851</v>
+        <v>16.471415308326</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.48655505326875</v>
+        <v>10.83460008807804</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.82952644010775</v>
+        <v>18.87191032456503</v>
       </c>
       <c r="N11">
-        <v>10.60508546698008</v>
+        <v>17.9888450584778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42095204541669</v>
+        <v>17.50132014298477</v>
       </c>
       <c r="C12">
-        <v>18.65645355407394</v>
+        <v>10.35353373150059</v>
       </c>
       <c r="D12">
-        <v>6.418372041806126</v>
+        <v>9.456871254017685</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.19596256762777</v>
+        <v>36.12887915967967</v>
       </c>
       <c r="G12">
-        <v>45.79333966188671</v>
+        <v>40.47918162166923</v>
       </c>
       <c r="H12">
-        <v>12.52831418583568</v>
+        <v>16.47136919630642</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.494482083058687</v>
+        <v>10.82971536304241</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.09381293169142</v>
+        <v>18.92033904623554</v>
       </c>
       <c r="N12">
-        <v>10.52615755018055</v>
+        <v>17.97015543184076</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34338926715877</v>
+        <v>17.4722870245294</v>
       </c>
       <c r="C13">
-        <v>18.6049522110396</v>
+        <v>10.32951119156154</v>
       </c>
       <c r="D13">
-        <v>6.409769763473805</v>
+        <v>9.456208569311912</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.12392164406568</v>
+        <v>36.12008082220719</v>
       </c>
       <c r="G13">
-        <v>45.67909658048381</v>
+        <v>40.45800156825986</v>
       </c>
       <c r="H13">
-        <v>12.51127979143135</v>
+        <v>16.47135315959082</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.492742864123784</v>
+        <v>10.83075781070503</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.0371058623409</v>
+        <v>18.90989578694044</v>
       </c>
       <c r="N13">
-        <v>10.5431562342436</v>
+        <v>17.97416805823238</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08931442959916</v>
+        <v>17.3773395884078</v>
       </c>
       <c r="C14">
-        <v>18.4362530037532</v>
+        <v>10.25079577276911</v>
       </c>
       <c r="D14">
-        <v>6.381709613716653</v>
+        <v>9.454072994488136</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.88923156275636</v>
+        <v>36.09164117214301</v>
       </c>
       <c r="G14">
-        <v>45.30653006665336</v>
+        <v>40.38922559958945</v>
       </c>
       <c r="H14">
-        <v>12.45602859348726</v>
+        <v>16.47139981422291</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.487192857146155</v>
+        <v>10.83419390851027</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.85136506548183</v>
+        <v>18.87588855235876</v>
       </c>
       <c r="N14">
-        <v>10.59859196160039</v>
+        <v>17.98730180795408</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.93281800434388</v>
+        <v>17.31898072755625</v>
       </c>
       <c r="C15">
-        <v>18.33234746593748</v>
+        <v>10.20229465098297</v>
       </c>
       <c r="D15">
-        <v>6.364517461767422</v>
+        <v>9.452784581204551</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.74567017768461</v>
+        <v>36.07441635442339</v>
       </c>
       <c r="G15">
-        <v>45.07832570379784</v>
+        <v>40.3473278356195</v>
       </c>
       <c r="H15">
-        <v>12.42241644694384</v>
+        <v>16.47150441469599</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.483886310799379</v>
+        <v>10.83632662587031</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.7369711350694</v>
+        <v>18.85509761635944</v>
       </c>
       <c r="N15">
-        <v>10.6325489630124</v>
+        <v>17.99538329370983</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.0225631329218</v>
+        <v>16.98156294039891</v>
       </c>
       <c r="C16">
-        <v>17.7280475947323</v>
+        <v>9.920007918230267</v>
       </c>
       <c r="D16">
-        <v>6.265940455354404</v>
+        <v>9.445704137881494</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.92595498185419</v>
+        <v>35.97871661724837</v>
       </c>
       <c r="G16">
-        <v>43.77063131466655</v>
+        <v>40.11080520298466</v>
       </c>
       <c r="H16">
-        <v>12.23329651756958</v>
+        <v>16.47326838530094</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.46633364719736</v>
+        <v>10.84897764892281</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.07178888578771</v>
+        <v>18.73658581309251</v>
       </c>
       <c r="N16">
-        <v>10.82722016091449</v>
+        <v>18.04225850046291</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.45202435983519</v>
+        <v>16.77200607099881</v>
       </c>
       <c r="C17">
-        <v>17.34933356982971</v>
+        <v>9.742993163709999</v>
       </c>
       <c r="D17">
-        <v>6.205432358684597</v>
+        <v>9.441632075496166</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.42577763436208</v>
+        <v>35.92270875221491</v>
       </c>
       <c r="G17">
-        <v>42.968479580184</v>
+        <v>39.96896040164992</v>
       </c>
       <c r="H17">
-        <v>12.12035671013092</v>
+        <v>16.47538882383608</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.456779725352026</v>
+        <v>10.85712168660071</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.65501800630523</v>
+        <v>18.6644770599682</v>
       </c>
       <c r="N17">
-        <v>10.94677844198921</v>
+        <v>18.07151903160343</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11935624203987</v>
+        <v>16.65057557147543</v>
       </c>
       <c r="C18">
-        <v>17.12853427938808</v>
+        <v>9.63978343197879</v>
       </c>
       <c r="D18">
-        <v>6.170623636626481</v>
+        <v>9.439390215478403</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.1390979313358</v>
+        <v>35.89149311116563</v>
       </c>
       <c r="G18">
-        <v>42.50715472517221</v>
+        <v>39.88859527656238</v>
       </c>
       <c r="H18">
-        <v>12.05651219447922</v>
+        <v>16.47698963546441</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.451718515159737</v>
+        <v>10.86194668377133</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.4120639788934</v>
+        <v>18.62323224842499</v>
       </c>
       <c r="N18">
-        <v>11.01561913247615</v>
+        <v>18.08853469337453</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00594118735975</v>
+        <v>16.60931109982331</v>
       </c>
       <c r="C19">
-        <v>17.05326163970876</v>
+        <v>9.604600345334195</v>
       </c>
       <c r="D19">
-        <v>6.158837617541607</v>
+        <v>9.438648428901633</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.04220887216928</v>
+        <v>35.88109608654859</v>
       </c>
       <c r="G19">
-        <v>42.35097024115437</v>
+        <v>39.86159686278594</v>
       </c>
       <c r="H19">
-        <v>12.03508563334607</v>
+        <v>16.47759707253159</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.450078272115524</v>
+        <v>10.86360452028751</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.32924401399233</v>
+        <v>18.60930812052117</v>
       </c>
       <c r="N19">
-        <v>11.0389423707535</v>
+        <v>18.0943278609795</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.51322471674556</v>
+        <v>16.79440778186057</v>
       </c>
       <c r="C20">
-        <v>17.38995525632019</v>
+        <v>9.761981499817789</v>
       </c>
       <c r="D20">
-        <v>6.211874330667833</v>
+        <v>9.442055185402113</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.47891848010222</v>
+        <v>35.92856766519151</v>
       </c>
       <c r="G20">
-        <v>43.05386538207727</v>
+        <v>39.9839342716931</v>
       </c>
       <c r="H20">
-        <v>12.13226354213977</v>
+        <v>16.4751236384989</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.457751572737854</v>
+        <v>10.85624017142775</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.69971825831434</v>
+        <v>18.67212959639937</v>
       </c>
       <c r="N20">
-        <v>10.93404415111211</v>
+        <v>18.06838498258659</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16412299633866</v>
+        <v>17.40527001467636</v>
       </c>
       <c r="C21">
-        <v>18.48592312857441</v>
+        <v>10.27397600253451</v>
       </c>
       <c r="D21">
-        <v>6.389952527943142</v>
+        <v>9.454696164458642</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.95812551553719</v>
+        <v>36.09995392669598</v>
       </c>
       <c r="G21">
-        <v>45.41596114065928</v>
+        <v>40.40937908301471</v>
       </c>
       <c r="H21">
-        <v>12.4722090116033</v>
+        <v>16.47137026597358</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.488803577481855</v>
+        <v>10.83317880638411</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.90605109342387</v>
+        <v>18.88586914060608</v>
       </c>
       <c r="N21">
-        <v>10.58230908375597</v>
+        <v>17.98343646507712</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20407575145281</v>
+        <v>17.79562745072377</v>
       </c>
       <c r="C22">
-        <v>19.17648725773109</v>
+        <v>10.59584964567958</v>
       </c>
       <c r="D22">
-        <v>6.506152483565532</v>
+        <v>9.463840282820998</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.93355867373162</v>
+        <v>36.22072227742987</v>
       </c>
       <c r="G22">
-        <v>46.95992326896567</v>
+        <v>40.69777038936682</v>
       </c>
       <c r="H22">
-        <v>12.70466974412326</v>
+        <v>16.47231888591872</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.513226804327423</v>
+        <v>10.81936044015566</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.66649598694325</v>
+        <v>19.02735904586238</v>
       </c>
       <c r="N22">
-        <v>10.35254332464711</v>
+        <v>17.92956101948286</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.65254406021334</v>
+        <v>17.58813801269841</v>
       </c>
       <c r="C23">
-        <v>18.81023419182467</v>
+        <v>10.42523927712529</v>
       </c>
       <c r="D23">
-        <v>6.44415685618836</v>
+        <v>9.458879668973454</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.4121608366807</v>
+        <v>36.15547165712722</v>
       </c>
       <c r="G23">
-        <v>46.13585685314116</v>
+        <v>40.54293089877603</v>
       </c>
       <c r="H23">
-        <v>12.57964164713235</v>
+        <v>16.47150106084229</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.49980061452317</v>
+        <v>10.82662085751509</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.26314655986652</v>
+        <v>18.95169086760206</v>
       </c>
       <c r="N23">
-        <v>10.47519125231626</v>
+        <v>17.95816552603734</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48557055573707</v>
+        <v>16.78428292815181</v>
       </c>
       <c r="C24">
-        <v>17.37159976721443</v>
+        <v>9.753401359565537</v>
       </c>
       <c r="D24">
-        <v>6.208961981527248</v>
+        <v>9.441863588242088</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.45489076137258</v>
+        <v>35.92591578405492</v>
       </c>
       <c r="G24">
-        <v>43.01526294493537</v>
+        <v>39.97716089331391</v>
       </c>
       <c r="H24">
-        <v>12.12687708426289</v>
+        <v>16.47524233976932</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.457310859489959</v>
+        <v>10.85663825938192</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.67951970865562</v>
+        <v>18.66866922318114</v>
       </c>
       <c r="N24">
-        <v>10.93980099100705</v>
+        <v>18.0698012836081</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.97516058938261</v>
+        <v>15.88348159461778</v>
       </c>
       <c r="C25">
-        <v>15.70577100144304</v>
+        <v>8.975652734474664</v>
       </c>
       <c r="D25">
-        <v>5.955142614377381</v>
+        <v>9.427348291375788</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.38287383014951</v>
+        <v>35.71653362335272</v>
       </c>
       <c r="G25">
-        <v>39.65224492811063</v>
+        <v>39.41380296611813</v>
       </c>
       <c r="H25">
-        <v>11.680960920027</v>
+        <v>16.49384356895927</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.427930832538042</v>
+        <v>10.89439838148963</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.92280318238973</v>
+        <v>18.37232993137215</v>
       </c>
       <c r="N25">
-        <v>11.4440405259599</v>
+        <v>18.19732813272803</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.19667366061813</v>
+        <v>20.97207779480551</v>
       </c>
       <c r="C2">
-        <v>8.35966439233923</v>
+        <v>14.37736286737172</v>
       </c>
       <c r="D2">
-        <v>9.420009377179049</v>
+        <v>5.768996313375623</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.59575027298209</v>
+        <v>28.89494862965142</v>
       </c>
       <c r="G2">
-        <v>39.04177226840294</v>
+        <v>37.18517460658492</v>
       </c>
       <c r="H2">
-        <v>16.5200001671281</v>
+        <v>11.38726733327879</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.92683161462506</v>
+        <v>6.419112646346774</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.16309274868948</v>
+        <v>15.76655926967267</v>
       </c>
       <c r="N2">
-        <v>18.29741856072221</v>
+        <v>11.82058822802707</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.71976926512402</v>
+        <v>19.51536046807308</v>
       </c>
       <c r="C3">
-        <v>7.916798218922285</v>
+        <v>13.41186767048964</v>
       </c>
       <c r="D3">
-        <v>9.417146225209748</v>
+        <v>5.643815305218613</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.53489286404012</v>
+        <v>27.91323960430228</v>
       </c>
       <c r="G3">
-        <v>38.81737476030996</v>
+        <v>35.5249623416048</v>
       </c>
       <c r="H3">
-        <v>16.54545636646835</v>
+        <v>11.20885359828839</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.95170149816921</v>
+        <v>6.420500192541328</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.02749359007558</v>
+        <v>14.95187837124019</v>
       </c>
       <c r="N3">
-        <v>18.36915314031053</v>
+        <v>12.08022997507784</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.42253728063235</v>
+        <v>18.57115299366871</v>
       </c>
       <c r="C4">
-        <v>7.633067536066225</v>
+        <v>12.78638816458722</v>
       </c>
       <c r="D4">
-        <v>9.4164360498602</v>
+        <v>5.567623480725429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.50791891676248</v>
+        <v>27.32492966094181</v>
       </c>
       <c r="G4">
-        <v>38.69356945837765</v>
+        <v>34.51417244935772</v>
       </c>
       <c r="H4">
-        <v>16.56488238752863</v>
+        <v>11.10912476532241</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.96839731360714</v>
+        <v>6.424785332982657</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.94749226624987</v>
+        <v>14.43755829951289</v>
       </c>
       <c r="N4">
-        <v>18.41513602071812</v>
+        <v>12.24219233415488</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.30050635823942</v>
+        <v>18.17374625844907</v>
       </c>
       <c r="C5">
-        <v>7.514607895658941</v>
+        <v>12.52322251914222</v>
       </c>
       <c r="D5">
-        <v>9.41641116639007</v>
+        <v>5.53677362885777</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.4995436465108</v>
+        <v>27.08904217395777</v>
       </c>
       <c r="G5">
-        <v>38.64667154836192</v>
+        <v>34.10492424933584</v>
       </c>
       <c r="H5">
-        <v>16.5737504877862</v>
+        <v>11.07089644066846</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.97555951393209</v>
+        <v>6.427366326290787</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.91573913644444</v>
+        <v>14.22465626542973</v>
       </c>
       <c r="N5">
-        <v>18.43436335972076</v>
+        <v>12.308879469057</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.28019466399305</v>
+        <v>18.1069907251249</v>
       </c>
       <c r="C6">
-        <v>7.494770754708786</v>
+        <v>12.47902235155605</v>
       </c>
       <c r="D6">
-        <v>9.416423039672758</v>
+        <v>5.531663958098523</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.49831103854073</v>
+        <v>27.05011244755137</v>
       </c>
       <c r="G6">
-        <v>38.63909984055984</v>
+        <v>34.03714501823065</v>
       </c>
       <c r="H6">
-        <v>16.57528043472299</v>
+        <v>11.06469256346157</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.97677044663457</v>
+        <v>6.427844497308348</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.91051859343004</v>
+        <v>14.18911173041899</v>
       </c>
       <c r="N6">
-        <v>18.43758562631598</v>
+        <v>12.31999558153359</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.42089492116144</v>
+        <v>18.56584473684063</v>
       </c>
       <c r="C7">
-        <v>7.631481242550177</v>
+        <v>12.78287261755624</v>
       </c>
       <c r="D7">
-        <v>9.416434641924416</v>
+        <v>5.567206582382007</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.50779536698776</v>
+        <v>27.32173250491743</v>
       </c>
       <c r="G7">
-        <v>38.69292254090673</v>
+        <v>34.50864172727204</v>
       </c>
       <c r="H7">
-        <v>16.56499813564169</v>
+        <v>11.10859951787929</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.96849245386837</v>
+        <v>6.424816798326259</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.94706056144567</v>
+        <v>14.4347000969723</v>
       </c>
       <c r="N7">
-        <v>18.41539334537183</v>
+        <v>12.24308886175086</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.03326964708102</v>
+        <v>20.48006052255767</v>
       </c>
       <c r="C8">
-        <v>8.209487385395796</v>
+        <v>14.05119800213066</v>
       </c>
       <c r="D8">
-        <v>9.418805331450981</v>
+        <v>5.725712845104862</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.57261252028404</v>
+        <v>28.55358011495187</v>
       </c>
       <c r="G8">
-        <v>38.96152513993984</v>
+        <v>36.61123030249377</v>
       </c>
       <c r="H8">
-        <v>16.52798813394136</v>
+        <v>11.32368001157513</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.9351108914562</v>
+        <v>6.418861077623967</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.11568000214562</v>
+        <v>15.48871037333881</v>
       </c>
       <c r="N8">
-        <v>18.32175154854459</v>
+        <v>11.9096146177298</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.19097119276024</v>
+        <v>23.84444602912941</v>
       </c>
       <c r="C9">
-        <v>9.244549669876264</v>
+        <v>16.28249310279495</v>
       </c>
       <c r="D9">
-        <v>9.431720642148997</v>
+        <v>6.040589599640278</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.7819076529858</v>
+        <v>31.07532712225967</v>
       </c>
       <c r="G9">
-        <v>39.59708061383115</v>
+        <v>40.78427963304863</v>
       </c>
       <c r="H9">
-        <v>16.48563705128067</v>
+        <v>11.82566348585873</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.88095964468478</v>
+        <v>6.435750472104236</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.47084485801577</v>
+        <v>17.48134350574836</v>
       </c>
       <c r="N9">
-        <v>18.15341369537461</v>
+        <v>11.27353144064451</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.0053498906668</v>
+        <v>26.08705832553841</v>
       </c>
       <c r="C10">
-        <v>9.940016236098085</v>
+        <v>17.77086112195908</v>
       </c>
       <c r="D10">
-        <v>9.446182342305946</v>
+        <v>6.272843541894828</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.9852423891647</v>
+        <v>32.98316379278069</v>
       </c>
       <c r="G10">
-        <v>40.12715428272708</v>
+        <v>43.86216733216094</v>
       </c>
       <c r="H10">
-        <v>16.47307811007994</v>
+        <v>12.24633603772951</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.84806743170252</v>
+        <v>6.467483495260495</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.74484426842238</v>
+        <v>19.11890939294529</v>
       </c>
       <c r="N10">
-        <v>18.03894480612465</v>
+        <v>10.81358598154222</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.36619142497605</v>
+        <v>27.05943913112279</v>
       </c>
       <c r="C11">
-        <v>10.24153779162444</v>
+        <v>18.41641710847753</v>
       </c>
       <c r="D11">
-        <v>9.453825441684263</v>
+        <v>6.378422204418717</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.08833566326475</v>
+        <v>33.86176677200942</v>
       </c>
       <c r="G11">
-        <v>40.38119980267168</v>
+        <v>45.2628902183086</v>
       </c>
       <c r="H11">
-        <v>16.471415308326</v>
+        <v>12.44958726603844</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.83460008807804</v>
+        <v>6.486555053268805</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.87191032456503</v>
+        <v>19.82952644010781</v>
       </c>
       <c r="N11">
-        <v>17.9888450584778</v>
+        <v>10.60508546697998</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50132014298477</v>
+        <v>27.42095204541675</v>
       </c>
       <c r="C12">
-        <v>10.35353373150059</v>
+        <v>18.65645355407394</v>
       </c>
       <c r="D12">
-        <v>9.456871254017685</v>
+        <v>6.41837204180619</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.12887915967967</v>
+        <v>34.19596256762775</v>
       </c>
       <c r="G12">
-        <v>40.47918162166923</v>
+        <v>45.79333966188677</v>
       </c>
       <c r="H12">
-        <v>16.47136919630642</v>
+        <v>12.52831418583562</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.82971536304241</v>
+        <v>6.494482083058751</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.92033904623554</v>
+        <v>20.09381293169139</v>
       </c>
       <c r="N12">
-        <v>17.97015543184076</v>
+        <v>10.52615755018038</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.4722870245294</v>
+        <v>27.34338926715881</v>
       </c>
       <c r="C13">
-        <v>10.32951119156154</v>
+        <v>18.60495221103967</v>
       </c>
       <c r="D13">
-        <v>9.456208569311912</v>
+        <v>6.409769763473817</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.12008082220719</v>
+        <v>34.12392164406567</v>
       </c>
       <c r="G13">
-        <v>40.45800156825986</v>
+        <v>45.67909658048378</v>
       </c>
       <c r="H13">
-        <v>16.47135315959082</v>
+        <v>12.51127979143134</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.83075781070503</v>
+        <v>6.492742864123743</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.90989578694044</v>
+        <v>20.03710586234093</v>
       </c>
       <c r="N13">
-        <v>17.97416805823238</v>
+        <v>10.5431562342436</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.3773395884078</v>
+        <v>27.08931442959915</v>
       </c>
       <c r="C14">
-        <v>10.25079577276911</v>
+        <v>18.43625300375321</v>
       </c>
       <c r="D14">
-        <v>9.454072994488136</v>
+        <v>6.381709613716574</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.09164117214301</v>
+        <v>33.88923156275634</v>
       </c>
       <c r="G14">
-        <v>40.38922559958945</v>
+        <v>45.30653006665334</v>
       </c>
       <c r="H14">
-        <v>16.47139981422291</v>
+        <v>12.45602859348725</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.83419390851027</v>
+        <v>6.487192857146153</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.87588855235876</v>
+        <v>19.85136506548184</v>
       </c>
       <c r="N14">
-        <v>17.98730180795408</v>
+        <v>10.59859196160039</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.31898072755625</v>
+        <v>26.93281800434388</v>
       </c>
       <c r="C15">
-        <v>10.20229465098297</v>
+        <v>18.33234746593742</v>
       </c>
       <c r="D15">
-        <v>9.452784581204551</v>
+        <v>6.364517461767359</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.07441635442339</v>
+        <v>33.74567017768458</v>
       </c>
       <c r="G15">
-        <v>40.3473278356195</v>
+        <v>45.07832570379783</v>
       </c>
       <c r="H15">
-        <v>16.47150441469599</v>
+        <v>12.42241644694379</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.83632662587031</v>
+        <v>6.483886310799384</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.85509761635944</v>
+        <v>19.73697113506942</v>
       </c>
       <c r="N15">
-        <v>17.99538329370983</v>
+        <v>10.63254896301236</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.98156294039891</v>
+        <v>26.0225631329217</v>
       </c>
       <c r="C16">
-        <v>9.920007918230267</v>
+        <v>17.72804759473227</v>
       </c>
       <c r="D16">
-        <v>9.445704137881494</v>
+        <v>6.265940455354273</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.97871661724837</v>
+        <v>32.92595498185418</v>
       </c>
       <c r="G16">
-        <v>40.11080520298466</v>
+        <v>43.77063131466649</v>
       </c>
       <c r="H16">
-        <v>16.47326838530094</v>
+        <v>12.23329651756962</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.84897764892281</v>
+        <v>6.46633364719741</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.73658581309251</v>
+        <v>19.07178888578767</v>
       </c>
       <c r="N16">
-        <v>18.04225850046291</v>
+        <v>10.8272201609146</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.77200607099881</v>
+        <v>25.45202435983524</v>
       </c>
       <c r="C17">
-        <v>9.742993163709999</v>
+        <v>17.34933356982972</v>
       </c>
       <c r="D17">
-        <v>9.441632075496166</v>
+        <v>6.205432358684596</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.92270875221491</v>
+        <v>32.425777634362</v>
       </c>
       <c r="G17">
-        <v>39.96896040164992</v>
+        <v>42.96847958018393</v>
       </c>
       <c r="H17">
-        <v>16.47538882383608</v>
+        <v>12.12035671013092</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.85712168660071</v>
+        <v>6.456779725352005</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.6644770599682</v>
+        <v>18.65501800630528</v>
       </c>
       <c r="N17">
-        <v>18.07151903160343</v>
+        <v>10.94677844198918</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.65057557147543</v>
+        <v>25.11935624203991</v>
       </c>
       <c r="C18">
-        <v>9.63978343197879</v>
+        <v>17.128534279388</v>
       </c>
       <c r="D18">
-        <v>9.439390215478403</v>
+        <v>6.170623636626461</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.89149311116563</v>
+        <v>32.13909793133584</v>
       </c>
       <c r="G18">
-        <v>39.88859527656238</v>
+        <v>42.50715472517224</v>
       </c>
       <c r="H18">
-        <v>16.47698963546441</v>
+        <v>12.05651219447923</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.86194668377133</v>
+        <v>6.451718515159713</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.62323224842499</v>
+        <v>18.41206397889342</v>
       </c>
       <c r="N18">
-        <v>18.08853469337453</v>
+        <v>11.01561913247625</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.60931109982331</v>
+        <v>25.00594118735982</v>
       </c>
       <c r="C19">
-        <v>9.604600345334195</v>
+        <v>17.0532616397088</v>
       </c>
       <c r="D19">
-        <v>9.438648428901633</v>
+        <v>6.158837617541498</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.88109608654859</v>
+        <v>32.04220887216916</v>
       </c>
       <c r="G19">
-        <v>39.86159686278594</v>
+        <v>42.35097024115433</v>
       </c>
       <c r="H19">
-        <v>16.47759707253159</v>
+        <v>12.03508563334597</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.86360452028751</v>
+        <v>6.450078272115581</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.60930812052117</v>
+        <v>18.32924401399238</v>
       </c>
       <c r="N19">
-        <v>18.0943278609795</v>
+        <v>11.03894237075344</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.79440778186057</v>
+        <v>25.51322471674552</v>
       </c>
       <c r="C20">
-        <v>9.761981499817789</v>
+        <v>17.38995525632018</v>
       </c>
       <c r="D20">
-        <v>9.442055185402113</v>
+        <v>6.211874330667913</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.92856766519151</v>
+        <v>32.47891848010224</v>
       </c>
       <c r="G20">
-        <v>39.9839342716931</v>
+        <v>43.05386538207726</v>
       </c>
       <c r="H20">
-        <v>16.4751236384989</v>
+        <v>12.1322635421398</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.85624017142775</v>
+        <v>6.457751572737857</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.67212959639937</v>
+        <v>18.69971825831431</v>
       </c>
       <c r="N20">
-        <v>18.06838498258659</v>
+        <v>10.93404415111218</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.40527001467636</v>
+        <v>27.16412299633861</v>
       </c>
       <c r="C21">
-        <v>10.27397600253451</v>
+        <v>18.48592312857443</v>
       </c>
       <c r="D21">
-        <v>9.454696164458642</v>
+        <v>6.389952527943072</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.09995392669598</v>
+        <v>33.95812551553718</v>
       </c>
       <c r="G21">
-        <v>40.40937908301471</v>
+        <v>45.41596114065926</v>
       </c>
       <c r="H21">
-        <v>16.47137026597358</v>
+        <v>12.4722090116033</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.83317880638411</v>
+        <v>6.488803577481812</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.88586914060608</v>
+        <v>19.9060510934239</v>
       </c>
       <c r="N21">
-        <v>17.98343646507712</v>
+        <v>10.58230908375601</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.79562745072377</v>
+        <v>28.20407575145281</v>
       </c>
       <c r="C22">
-        <v>10.59584964567958</v>
+        <v>19.17648725773113</v>
       </c>
       <c r="D22">
-        <v>9.463840282820998</v>
+        <v>6.506152483565511</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.22072227742987</v>
+        <v>34.93355867373166</v>
       </c>
       <c r="G22">
-        <v>40.69777038936682</v>
+        <v>46.95992326896573</v>
       </c>
       <c r="H22">
-        <v>16.47231888591872</v>
+        <v>12.70466974412328</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.81936044015566</v>
+        <v>6.513226804327449</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.02735904586238</v>
+        <v>20.66649598694324</v>
       </c>
       <c r="N22">
-        <v>17.92956101948286</v>
+        <v>10.35254332464714</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.58813801269841</v>
+        <v>27.65254406021343</v>
       </c>
       <c r="C23">
-        <v>10.42523927712529</v>
+        <v>18.81023419182467</v>
       </c>
       <c r="D23">
-        <v>9.458879668973454</v>
+        <v>6.444156856188353</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.15547165712722</v>
+        <v>34.41216083668074</v>
       </c>
       <c r="G23">
-        <v>40.54293089877603</v>
+        <v>46.13585685314122</v>
       </c>
       <c r="H23">
-        <v>16.47150106084229</v>
+        <v>12.57964164713236</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.82662085751509</v>
+        <v>6.4998006145231</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.95169086760206</v>
+        <v>20.26314655986657</v>
       </c>
       <c r="N23">
-        <v>17.95816552603734</v>
+        <v>10.47519125231626</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.78428292815181</v>
+        <v>25.485570555737</v>
       </c>
       <c r="C24">
-        <v>9.753401359565537</v>
+        <v>17.37159976721443</v>
       </c>
       <c r="D24">
-        <v>9.441863588242088</v>
+        <v>6.20896198152728</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.92591578405492</v>
+        <v>32.45489076137255</v>
       </c>
       <c r="G24">
-        <v>39.97716089331391</v>
+        <v>43.0152629449353</v>
       </c>
       <c r="H24">
-        <v>16.47524233976932</v>
+        <v>12.12687708426288</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.85663825938192</v>
+        <v>6.45731085948999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.66866922318114</v>
+        <v>18.67951970865557</v>
       </c>
       <c r="N24">
-        <v>18.0698012836081</v>
+        <v>10.93980099100702</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.88348159461778</v>
+        <v>22.97516058938258</v>
       </c>
       <c r="C25">
-        <v>8.975652734474664</v>
+        <v>15.70577100144313</v>
       </c>
       <c r="D25">
-        <v>9.427348291375788</v>
+        <v>5.955142614377293</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.71653362335272</v>
+        <v>30.38287383014953</v>
       </c>
       <c r="G25">
-        <v>39.41380296611813</v>
+        <v>39.65224492811071</v>
       </c>
       <c r="H25">
-        <v>16.49384356895927</v>
+        <v>11.680960920027</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.89439838148963</v>
+        <v>6.427930832538068</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.37232993137215</v>
+        <v>16.92280318238973</v>
       </c>
       <c r="N25">
-        <v>18.19732813272803</v>
+        <v>11.4440405259599</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97207779480551</v>
+        <v>12.33309261642918</v>
       </c>
       <c r="C2">
-        <v>14.37736286737172</v>
+        <v>7.949249010186031</v>
       </c>
       <c r="D2">
-        <v>5.768996313375623</v>
+        <v>6.374685697102819</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.89494862965142</v>
+        <v>21.5077359201769</v>
       </c>
       <c r="G2">
-        <v>37.18517460658492</v>
+        <v>23.44805675587739</v>
       </c>
       <c r="H2">
-        <v>11.38726733327879</v>
+        <v>2.988029340657213</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.396226921101487</v>
       </c>
       <c r="J2">
-        <v>6.419112646346774</v>
+        <v>9.571019967135742</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.89021070771734</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.476091011457578</v>
       </c>
       <c r="M2">
-        <v>15.76655926967267</v>
+        <v>10.34700058984975</v>
       </c>
       <c r="N2">
-        <v>11.82058822802707</v>
+        <v>7.010793975969613</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.975973698225785</v>
+      </c>
+      <c r="P2">
+        <v>13.35633420254977</v>
+      </c>
+      <c r="Q2">
+        <v>15.58862972329004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51536046807308</v>
+        <v>11.57031341112127</v>
       </c>
       <c r="C3">
-        <v>13.41186767048964</v>
+        <v>7.810015093576121</v>
       </c>
       <c r="D3">
-        <v>5.643815305218613</v>
+        <v>6.191667830146579</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.91323960430228</v>
+        <v>21.35789041745961</v>
       </c>
       <c r="G3">
-        <v>35.5249623416048</v>
+        <v>23.2821761982937</v>
       </c>
       <c r="H3">
-        <v>11.20885359828839</v>
+        <v>3.149999252232297</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.518171129399696</v>
       </c>
       <c r="J3">
-        <v>6.420500192541328</v>
+        <v>9.606588051539994</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.95292983317992</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.446581012037117</v>
       </c>
       <c r="M3">
-        <v>14.95187837124019</v>
+        <v>9.794098630816892</v>
       </c>
       <c r="N3">
-        <v>12.08022997507784</v>
+        <v>6.871009780660696</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.631226594165888</v>
+      </c>
+      <c r="P3">
+        <v>13.47500143723134</v>
+      </c>
+      <c r="Q3">
+        <v>15.59895444166913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.57115299366871</v>
+        <v>11.07383964365694</v>
       </c>
       <c r="C4">
-        <v>12.78638816458722</v>
+        <v>7.723102872328218</v>
       </c>
       <c r="D4">
-        <v>5.567623480725429</v>
+        <v>6.077533198461808</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.32492966094181</v>
+        <v>21.27190251330823</v>
       </c>
       <c r="G4">
-        <v>34.51417244935772</v>
+        <v>23.18904717877868</v>
       </c>
       <c r="H4">
-        <v>11.10912476532241</v>
+        <v>3.253378701605167</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.596762536880963</v>
       </c>
       <c r="J4">
-        <v>6.424785332982657</v>
+        <v>9.630776002279735</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.99475359655941</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.427656756982588</v>
       </c>
       <c r="M4">
-        <v>14.43755829951289</v>
+        <v>9.437143448197045</v>
       </c>
       <c r="N4">
-        <v>12.24219233415488</v>
+        <v>6.784438524828886</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.413569572530294</v>
+      </c>
+      <c r="P4">
+        <v>13.54960355274894</v>
+      </c>
+      <c r="Q4">
+        <v>15.61017355774274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.17374625844907</v>
+        <v>10.86006146131847</v>
       </c>
       <c r="C5">
-        <v>12.52322251914222</v>
+        <v>7.689795622078258</v>
       </c>
       <c r="D5">
-        <v>5.53677362885777</v>
+        <v>6.030853194009947</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.08904217395777</v>
+        <v>21.23377808071352</v>
       </c>
       <c r="G5">
-        <v>34.10492424933584</v>
+        <v>23.14567193628246</v>
       </c>
       <c r="H5">
-        <v>11.07089644066846</v>
+        <v>3.296762669856817</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.632277058388953</v>
       </c>
       <c r="J5">
-        <v>6.427366326290787</v>
+        <v>9.640009669535607</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.00924740360929</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.419349578348718</v>
       </c>
       <c r="M5">
-        <v>14.22465626542973</v>
+        <v>9.287402810121209</v>
       </c>
       <c r="N5">
-        <v>12.308879469057</v>
+        <v>6.74998080281296</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.322854819938668</v>
+      </c>
+      <c r="P5">
+        <v>13.58028883910646</v>
+      </c>
+      <c r="Q5">
+        <v>15.61289461394305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1069907251249</v>
+        <v>10.8187008871669</v>
       </c>
       <c r="C6">
-        <v>12.47902235155605</v>
+        <v>7.687282922215442</v>
       </c>
       <c r="D6">
-        <v>5.531663958098523</v>
+        <v>6.023341243147725</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.05011244755137</v>
+        <v>21.22191358201198</v>
       </c>
       <c r="G6">
-        <v>34.03714501823065</v>
+        <v>23.1293080487217</v>
       </c>
       <c r="H6">
-        <v>11.06469256346157</v>
+        <v>3.304342110165648</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.64149911643597</v>
       </c>
       <c r="J6">
-        <v>6.427844497308348</v>
+        <v>9.64010419032954</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.0075838673139</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.417479758207194</v>
       </c>
       <c r="M6">
-        <v>14.18911173041899</v>
+        <v>9.262327954239916</v>
       </c>
       <c r="N6">
-        <v>12.31999558153359</v>
+        <v>6.745447384293534</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.30694353065161</v>
+      </c>
+      <c r="P6">
+        <v>13.58522158596435</v>
+      </c>
+      <c r="Q6">
+        <v>15.60968427855776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.56584473684063</v>
+        <v>11.0564612962399</v>
       </c>
       <c r="C7">
-        <v>12.78287261755624</v>
+        <v>7.730951030033012</v>
       </c>
       <c r="D7">
-        <v>5.567206582382007</v>
+        <v>6.077611205168651</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.32173250491743</v>
+        <v>21.25607644046601</v>
       </c>
       <c r="G7">
-        <v>34.50864172727204</v>
+        <v>23.16315857171896</v>
       </c>
       <c r="H7">
-        <v>11.10859951787929</v>
+        <v>3.254803709820605</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.605866866902121</v>
       </c>
       <c r="J7">
-        <v>6.424816798326259</v>
+        <v>9.626883010211346</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.98371188249</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.426255843007526</v>
       </c>
       <c r="M7">
-        <v>14.4347000969723</v>
+        <v>9.435271884425916</v>
       </c>
       <c r="N7">
-        <v>12.24308886175086</v>
+        <v>6.787223099086829</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.410277892797927</v>
+      </c>
+      <c r="P7">
+        <v>13.54954473185476</v>
+      </c>
+      <c r="Q7">
+        <v>15.60002824948868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.48006052255767</v>
+        <v>12.05815761221963</v>
       </c>
       <c r="C8">
-        <v>14.05119800213066</v>
+        <v>7.912530550225178</v>
       </c>
       <c r="D8">
-        <v>5.725712845104862</v>
+        <v>6.31289118915037</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.55358011495187</v>
+        <v>21.43485397857508</v>
       </c>
       <c r="G8">
-        <v>36.61123030249377</v>
+        <v>23.3560020545097</v>
       </c>
       <c r="H8">
-        <v>11.32368001157513</v>
+        <v>3.044113062233395</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.448432298574246</v>
       </c>
       <c r="J8">
-        <v>6.418861077623967</v>
+        <v>9.577518177431449</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.89636071301982</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.46444383523632</v>
       </c>
       <c r="M8">
-        <v>15.48871037333881</v>
+        <v>10.16019900056978</v>
       </c>
       <c r="N8">
-        <v>11.9096146177298</v>
+        <v>6.966977644957921</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.855772085856598</v>
+      </c>
+      <c r="P8">
+        <v>13.39647078017473</v>
+      </c>
+      <c r="Q8">
+        <v>15.57779662746401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84444602912941</v>
+        <v>13.82078859641953</v>
       </c>
       <c r="C9">
-        <v>16.28249310279495</v>
+        <v>8.242514840566479</v>
       </c>
       <c r="D9">
-        <v>6.040589599640278</v>
+        <v>6.756615892591777</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.07532712225967</v>
+        <v>21.85989427020708</v>
       </c>
       <c r="G9">
-        <v>40.78427963304863</v>
+        <v>23.84863998911896</v>
       </c>
       <c r="H9">
-        <v>11.82566348585873</v>
+        <v>2.660297836084695</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.154854012239574</v>
       </c>
       <c r="J9">
-        <v>6.435750472104236</v>
+        <v>9.506882798198037</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.77191615120168</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.535200502425593</v>
       </c>
       <c r="M9">
-        <v>17.48134350574836</v>
+        <v>11.4403711846768</v>
       </c>
       <c r="N9">
-        <v>11.27353144064451</v>
+        <v>7.306634413120881</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.68101999036163</v>
+      </c>
+      <c r="P9">
+        <v>13.11037426367434</v>
+      </c>
+      <c r="Q9">
+        <v>15.59207301228535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08705832553841</v>
+        <v>14.9421572292853</v>
       </c>
       <c r="C10">
-        <v>17.77086112195908</v>
+        <v>8.500832815706893</v>
       </c>
       <c r="D10">
-        <v>6.272843541894828</v>
+        <v>7.023546947578027</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.98316379278069</v>
+        <v>22.10064550903438</v>
       </c>
       <c r="G10">
-        <v>43.86216733216094</v>
+        <v>24.13006727141985</v>
       </c>
       <c r="H10">
-        <v>12.24633603772951</v>
+        <v>2.422714035350284</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.96584527818411</v>
       </c>
       <c r="J10">
-        <v>6.467483495260495</v>
+        <v>9.447249518065359</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.64967766407141</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.565870054984154</v>
       </c>
       <c r="M10">
-        <v>19.11890939294529</v>
+        <v>12.28939723551188</v>
       </c>
       <c r="N10">
-        <v>10.81358598154222</v>
+        <v>7.47902404600779</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.18537633795665</v>
+      </c>
+      <c r="P10">
+        <v>12.90931859910651</v>
+      </c>
+      <c r="Q10">
+        <v>15.57756144672924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.05943913112279</v>
+        <v>15.1659899481272</v>
       </c>
       <c r="C11">
-        <v>18.41641710847753</v>
+        <v>8.80637969393009</v>
       </c>
       <c r="D11">
-        <v>6.378422204418717</v>
+        <v>6.744203187035613</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.86176677200942</v>
+        <v>21.38807750115262</v>
       </c>
       <c r="G11">
-        <v>45.2628902183086</v>
+        <v>23.25839274788406</v>
       </c>
       <c r="H11">
-        <v>12.44958726603844</v>
+        <v>3.23690621705894</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.932206523369531</v>
       </c>
       <c r="J11">
-        <v>6.486555053268805</v>
+        <v>9.25995853610754</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.21512846061632</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.476025100783413</v>
       </c>
       <c r="M11">
-        <v>19.82952644010781</v>
+        <v>12.63119470302589</v>
       </c>
       <c r="N11">
-        <v>10.60508546697998</v>
+        <v>6.954407704465165</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.84974919093974</v>
+      </c>
+      <c r="P11">
+        <v>12.8394779763753</v>
+      </c>
+      <c r="Q11">
+        <v>15.16222965740089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42095204541675</v>
+        <v>15.13347256394747</v>
       </c>
       <c r="C12">
-        <v>18.65645355407394</v>
+        <v>9.014856762569487</v>
       </c>
       <c r="D12">
-        <v>6.41837204180619</v>
+        <v>6.449664202554438</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.19596256762775</v>
+        <v>20.74884636789387</v>
       </c>
       <c r="G12">
-        <v>45.79333966188677</v>
+        <v>22.48598564044136</v>
       </c>
       <c r="H12">
-        <v>12.52831418583562</v>
+        <v>4.484667814562123</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.924520900804121</v>
       </c>
       <c r="J12">
-        <v>6.494482083058751</v>
+        <v>9.118231147833477</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.89359582924631</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.457040311795895</v>
       </c>
       <c r="M12">
-        <v>20.09381293169139</v>
+        <v>12.74690305759444</v>
       </c>
       <c r="N12">
-        <v>10.52615755018038</v>
+        <v>6.500287110757379</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.45847838779926</v>
+      </c>
+      <c r="P12">
+        <v>12.83278707847718</v>
+      </c>
+      <c r="Q12">
+        <v>14.82460790833617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34338926715881</v>
+        <v>14.88419073931625</v>
       </c>
       <c r="C13">
-        <v>18.60495221103967</v>
+        <v>9.173147567050636</v>
       </c>
       <c r="D13">
-        <v>6.409769763473817</v>
+        <v>6.122348169651842</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.12392164406567</v>
+        <v>20.10177868936123</v>
       </c>
       <c r="G13">
-        <v>45.67909658048378</v>
+        <v>21.70011020592258</v>
       </c>
       <c r="H13">
-        <v>12.51127979143134</v>
+        <v>5.834565917697374</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.95065596216842</v>
       </c>
       <c r="J13">
-        <v>6.492742864123743</v>
+        <v>8.99688907059392</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.62359842112418</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.487512486937059</v>
       </c>
       <c r="M13">
-        <v>20.03710586234093</v>
+        <v>12.69929770926573</v>
       </c>
       <c r="N13">
-        <v>10.5431562342436</v>
+        <v>6.081939329350077</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.990731802467662</v>
+      </c>
+      <c r="P13">
+        <v>12.87133377741161</v>
+      </c>
+      <c r="Q13">
+        <v>14.51044405854294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08931442959915</v>
+        <v>14.60460227733424</v>
       </c>
       <c r="C14">
-        <v>18.43625300375321</v>
+        <v>9.266313610622207</v>
       </c>
       <c r="D14">
-        <v>6.381709613716574</v>
+        <v>5.877633444318209</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.88923156275634</v>
+        <v>19.64322275596251</v>
       </c>
       <c r="G14">
-        <v>45.30653006665334</v>
+        <v>21.13873227710086</v>
       </c>
       <c r="H14">
-        <v>12.45602859348725</v>
+        <v>6.809325733156396</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.987073115926626</v>
       </c>
       <c r="J14">
-        <v>6.487192857146153</v>
+        <v>8.920786710016532</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.45799828473368</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.537801682736974</v>
       </c>
       <c r="M14">
-        <v>19.85136506548184</v>
+        <v>12.59157161580479</v>
       </c>
       <c r="N14">
-        <v>10.59859196160039</v>
+        <v>5.816978504351701</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.624879836939487</v>
+      </c>
+      <c r="P14">
+        <v>12.91909761302842</v>
+      </c>
+      <c r="Q14">
+        <v>14.30006046250113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.93281800434388</v>
+        <v>14.48451473424052</v>
       </c>
       <c r="C15">
-        <v>18.33234746593742</v>
+        <v>9.280835000919858</v>
       </c>
       <c r="D15">
-        <v>6.364517461767359</v>
+        <v>5.811329560229065</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.74567017768458</v>
+        <v>19.52669652184321</v>
       </c>
       <c r="G15">
-        <v>45.07832570379783</v>
+        <v>20.99310601109471</v>
       </c>
       <c r="H15">
-        <v>12.42241644694379</v>
+        <v>7.038111465200878</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.007723325262302</v>
       </c>
       <c r="J15">
-        <v>6.483886310799384</v>
+        <v>8.90573329886845</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.42542591841944</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.552186118143463</v>
       </c>
       <c r="M15">
-        <v>19.73697113506942</v>
+        <v>12.52996744250068</v>
       </c>
       <c r="N15">
-        <v>10.63254896301236</v>
+        <v>5.757267323186482</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.51892837523005</v>
+      </c>
+      <c r="P15">
+        <v>12.93918786824861</v>
+      </c>
+      <c r="Q15">
+        <v>14.25154965359534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.0225631329217</v>
+        <v>14.03090069170148</v>
       </c>
       <c r="C16">
-        <v>17.72804759473227</v>
+        <v>9.145737260928623</v>
       </c>
       <c r="D16">
-        <v>6.265940455354273</v>
+        <v>5.754178616171724</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.92595498185418</v>
+        <v>19.53976198034915</v>
       </c>
       <c r="G16">
-        <v>43.77063131466649</v>
+        <v>21.00490119661558</v>
       </c>
       <c r="H16">
-        <v>12.23329651756962</v>
+        <v>6.85005789802061</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.088550659365594</v>
       </c>
       <c r="J16">
-        <v>6.46633364719741</v>
+        <v>8.953312195325594</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.52814342787913</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.527440422210757</v>
       </c>
       <c r="M16">
-        <v>19.07178888578767</v>
+        <v>12.1889222908698</v>
       </c>
       <c r="N16">
-        <v>10.8272201609146</v>
+        <v>5.764321692470211</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.381201352021652</v>
+      </c>
+      <c r="P16">
+        <v>13.00944188665875</v>
+      </c>
+      <c r="Q16">
+        <v>14.31432862687183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.45202435983524</v>
+        <v>13.84197676295185</v>
       </c>
       <c r="C17">
-        <v>17.34933356982972</v>
+        <v>8.990078714455663</v>
       </c>
       <c r="D17">
-        <v>6.205432358684596</v>
+        <v>5.842743290017922</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.425777634362</v>
+        <v>19.79440904458984</v>
       </c>
       <c r="G17">
-        <v>42.96847958018393</v>
+        <v>21.31452549141965</v>
       </c>
       <c r="H17">
-        <v>12.12035671013092</v>
+        <v>6.159151559667777</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.131959958846876</v>
       </c>
       <c r="J17">
-        <v>6.456779725352005</v>
+        <v>9.030210925959405</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.69329100758018</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.477218470309333</v>
       </c>
       <c r="M17">
-        <v>18.65501800630528</v>
+        <v>11.98179714854695</v>
       </c>
       <c r="N17">
-        <v>10.94677844198918</v>
+        <v>5.905610215645361</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.474632829206255</v>
+      </c>
+      <c r="P17">
+        <v>13.03904362139312</v>
+      </c>
+      <c r="Q17">
+        <v>14.47420912478766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11935624203991</v>
+        <v>13.86497237722445</v>
       </c>
       <c r="C18">
-        <v>17.128534279388</v>
+        <v>8.797014956471214</v>
       </c>
       <c r="D18">
-        <v>6.170623636626461</v>
+        <v>6.068128741232753</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.13909793133584</v>
+        <v>20.29601878358368</v>
       </c>
       <c r="G18">
-        <v>42.50715472517224</v>
+        <v>21.93086638626138</v>
       </c>
       <c r="H18">
-        <v>12.05651219447923</v>
+        <v>5.000628432478045</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.13684418468169</v>
       </c>
       <c r="J18">
-        <v>6.451718515159713</v>
+        <v>9.143496056242801</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.94192228421016</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.428815110061108</v>
       </c>
       <c r="M18">
-        <v>18.41206397889342</v>
+        <v>11.87117089230543</v>
       </c>
       <c r="N18">
-        <v>11.01561913247625</v>
+        <v>6.204864743931814</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.779914604614975</v>
+      </c>
+      <c r="P18">
+        <v>13.04056275347253</v>
+      </c>
+      <c r="Q18">
+        <v>14.74223277958072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00594118735982</v>
+        <v>14.03105865766101</v>
       </c>
       <c r="C19">
-        <v>17.0532616397088</v>
+        <v>8.621040780783582</v>
       </c>
       <c r="D19">
-        <v>6.158837617541498</v>
+        <v>6.389211421026237</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.04220887216916</v>
+        <v>20.9370063036485</v>
       </c>
       <c r="G19">
-        <v>42.35097024115433</v>
+        <v>22.70710498828344</v>
       </c>
       <c r="H19">
-        <v>12.03508563334597</v>
+        <v>3.69295710961968</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.127035818530329</v>
       </c>
       <c r="J19">
-        <v>6.450078272115581</v>
+        <v>9.271599956430769</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.22908367009682</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.429348198011012</v>
       </c>
       <c r="M19">
-        <v>18.32924401399238</v>
+        <v>11.84858619076967</v>
       </c>
       <c r="N19">
-        <v>11.03894237075344</v>
+        <v>6.648569462955145</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.22726709836184</v>
+      </c>
+      <c r="P19">
+        <v>13.02686575598942</v>
+      </c>
+      <c r="Q19">
+        <v>15.06211125341589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.51322471674552</v>
+        <v>14.61971845730806</v>
       </c>
       <c r="C20">
-        <v>17.38995525632018</v>
+        <v>8.460466743322618</v>
       </c>
       <c r="D20">
-        <v>6.211874330667913</v>
+        <v>6.954153501880052</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.47891848010224</v>
+        <v>21.98633964392358</v>
       </c>
       <c r="G20">
-        <v>43.05386538207726</v>
+        <v>23.97363360711367</v>
       </c>
       <c r="H20">
-        <v>12.1322635421398</v>
+        <v>2.485779931752918</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.043519698343984</v>
       </c>
       <c r="J20">
-        <v>6.457751572737857</v>
+        <v>9.44909350752568</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.64454883061422</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.553790833174614</v>
       </c>
       <c r="M20">
-        <v>18.69971825831431</v>
+        <v>12.07274190201138</v>
       </c>
       <c r="N20">
-        <v>10.93404415111218</v>
+        <v>7.440062944964526</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.04679496569089</v>
+      </c>
+      <c r="P20">
+        <v>12.96164374941233</v>
+      </c>
+      <c r="Q20">
+        <v>15.54680756103597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16412299633861</v>
+        <v>15.5144316816619</v>
       </c>
       <c r="C21">
-        <v>18.48592312857443</v>
+        <v>8.621981392727138</v>
       </c>
       <c r="D21">
-        <v>6.389952527943072</v>
+        <v>7.225652110274167</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.95812551553718</v>
+        <v>22.33428576737937</v>
       </c>
       <c r="G21">
-        <v>45.41596114065926</v>
+        <v>24.39419336070231</v>
       </c>
       <c r="H21">
-        <v>12.4722090116033</v>
+        <v>2.269615618105573</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.892406339450283</v>
       </c>
       <c r="J21">
-        <v>6.488803577481812</v>
+        <v>9.437933414383934</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.62986797790472</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.603392138825271</v>
       </c>
       <c r="M21">
-        <v>19.9060510934239</v>
+        <v>12.70033705156123</v>
       </c>
       <c r="N21">
-        <v>10.58230908375601</v>
+        <v>7.680573958588938</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.52219891686265</v>
+      </c>
+      <c r="P21">
+        <v>12.80840476895009</v>
+      </c>
+      <c r="Q21">
+        <v>15.62219181418394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20407575145281</v>
+        <v>16.07612149494086</v>
       </c>
       <c r="C22">
-        <v>19.17648725773113</v>
+        <v>8.725419841640957</v>
       </c>
       <c r="D22">
-        <v>6.506152483565511</v>
+        <v>7.375392066631384</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.93355867373166</v>
+        <v>22.53743146170871</v>
       </c>
       <c r="G22">
-        <v>46.95992326896573</v>
+        <v>24.64983688535206</v>
       </c>
       <c r="H22">
-        <v>12.70466974412328</v>
+        <v>2.142970882056281</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.786699889279566</v>
       </c>
       <c r="J22">
-        <v>6.513226804327449</v>
+        <v>9.428924143936626</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.61622913202175</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.6278727212831</v>
       </c>
       <c r="M22">
-        <v>20.66649598694324</v>
+        <v>13.09232655270412</v>
       </c>
       <c r="N22">
-        <v>10.35254332464714</v>
+        <v>7.795202955874338</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.79418655249181</v>
+      </c>
+      <c r="P22">
+        <v>12.70997556896756</v>
+      </c>
+      <c r="Q22">
+        <v>15.66583893917675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.65254406021343</v>
+        <v>15.79124038978687</v>
       </c>
       <c r="C23">
-        <v>18.81023419182467</v>
+        <v>8.660607775479514</v>
       </c>
       <c r="D23">
-        <v>6.444156856188353</v>
+        <v>7.29504435944104</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.41216083668074</v>
+        <v>22.44530093501033</v>
       </c>
       <c r="G23">
-        <v>46.13585685314122</v>
+        <v>24.54033814262279</v>
       </c>
       <c r="H23">
-        <v>12.57964164713236</v>
+        <v>2.209520253223717</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.831340643090206</v>
       </c>
       <c r="J23">
-        <v>6.4998006145231</v>
+        <v>9.438106109971258</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.6361221412889</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.616158597481152</v>
       </c>
       <c r="M23">
-        <v>20.26314655986657</v>
+        <v>12.88449069561235</v>
       </c>
       <c r="N23">
-        <v>10.47519125231626</v>
+        <v>7.730722345398822</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.65179795762484</v>
+      </c>
+      <c r="P23">
+        <v>12.762248966728</v>
+      </c>
+      <c r="Q23">
+        <v>15.6536193344652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.485570555737</v>
+        <v>14.64965774624786</v>
       </c>
       <c r="C24">
-        <v>17.37159976721443</v>
+        <v>8.427745070205185</v>
       </c>
       <c r="D24">
-        <v>6.20896198152728</v>
+        <v>6.985609886117238</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.45489076137255</v>
+        <v>22.08076701101405</v>
       </c>
       <c r="G24">
-        <v>43.0152629449353</v>
+        <v>24.09925352276029</v>
       </c>
       <c r="H24">
-        <v>12.12687708426288</v>
+        <v>2.468919843721385</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.025018845392453</v>
       </c>
       <c r="J24">
-        <v>6.45731085948999</v>
+        <v>9.470669356444809</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.69844158519365</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.568529761768029</v>
       </c>
       <c r="M24">
-        <v>18.67951970865557</v>
+        <v>12.06441400131643</v>
       </c>
       <c r="N24">
-        <v>10.93980099100702</v>
+        <v>7.488704811388682</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.09361020781228</v>
+      </c>
+      <c r="P24">
+        <v>12.96326309448018</v>
+      </c>
+      <c r="Q24">
+        <v>15.59994307513729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.97516058938258</v>
+        <v>13.34621085291599</v>
       </c>
       <c r="C25">
-        <v>15.70577100144313</v>
+        <v>8.169504600824633</v>
       </c>
       <c r="D25">
-        <v>5.955142614377293</v>
+        <v>6.639854692544292</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.38287383014953</v>
+        <v>21.71315041707128</v>
       </c>
       <c r="G25">
-        <v>39.65224492811071</v>
+        <v>23.66359976331555</v>
       </c>
       <c r="H25">
-        <v>11.680960920027</v>
+        <v>2.762219159270844</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.246863905562992</v>
       </c>
       <c r="J25">
-        <v>6.427930832538068</v>
+        <v>9.516752466384167</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.78257953672025</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.514598124131414</v>
       </c>
       <c r="M25">
-        <v>16.92280318238973</v>
+        <v>11.10969344968654</v>
       </c>
       <c r="N25">
-        <v>11.4440405259599</v>
+        <v>7.221270153678951</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.46048436563725</v>
+      </c>
+      <c r="P25">
+        <v>13.18611100809544</v>
+      </c>
+      <c r="Q25">
+        <v>15.56572626570843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.33309261642918</v>
+        <v>12.06346015897536</v>
       </c>
       <c r="C2">
-        <v>7.949249010186031</v>
+        <v>7.631630428240399</v>
       </c>
       <c r="D2">
-        <v>6.374685697102819</v>
+        <v>6.40327712063301</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.5077359201769</v>
+        <v>21.04654874264424</v>
       </c>
       <c r="G2">
-        <v>23.44805675587739</v>
+        <v>22.2713360314016</v>
       </c>
       <c r="H2">
-        <v>2.988029340657213</v>
+        <v>2.888880187161817</v>
       </c>
       <c r="I2">
-        <v>3.396226921101487</v>
+        <v>3.260381044030852</v>
       </c>
       <c r="J2">
-        <v>9.571019967135742</v>
+        <v>9.680140182963596</v>
       </c>
       <c r="K2">
-        <v>15.89021070771734</v>
+        <v>15.37943888707047</v>
       </c>
       <c r="L2">
-        <v>6.476091011457578</v>
+        <v>12.47989192631753</v>
       </c>
       <c r="M2">
-        <v>10.34700058984975</v>
+        <v>10.24172887847675</v>
       </c>
       <c r="N2">
-        <v>7.010793975969613</v>
+        <v>6.414863698321861</v>
       </c>
       <c r="O2">
-        <v>9.975973698225785</v>
+        <v>10.37477025043063</v>
       </c>
       <c r="P2">
-        <v>13.35633420254977</v>
+        <v>7.182148879207788</v>
       </c>
       <c r="Q2">
-        <v>15.58862972329004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.918359647690485</v>
+      </c>
+      <c r="R2">
+        <v>13.22763498236804</v>
+      </c>
+      <c r="S2">
+        <v>15.23365584055415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57031341112127</v>
+        <v>11.32735112095799</v>
       </c>
       <c r="C3">
-        <v>7.810015093576121</v>
+        <v>7.437558014060647</v>
       </c>
       <c r="D3">
-        <v>6.191667830146579</v>
+        <v>6.221189070603623</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.35789041745961</v>
+        <v>20.92523813120436</v>
       </c>
       <c r="G3">
-        <v>23.2821761982937</v>
+        <v>22.18836326737642</v>
       </c>
       <c r="H3">
-        <v>3.149999252232297</v>
+        <v>3.041738003466104</v>
       </c>
       <c r="I3">
-        <v>3.518171129399696</v>
+        <v>3.370160863008068</v>
       </c>
       <c r="J3">
-        <v>9.606588051539994</v>
+        <v>9.692058320535127</v>
       </c>
       <c r="K3">
-        <v>15.95292983317992</v>
+        <v>15.45758829166502</v>
       </c>
       <c r="L3">
-        <v>6.446581012037117</v>
+        <v>12.6141203608428</v>
       </c>
       <c r="M3">
-        <v>9.794098630816892</v>
+        <v>10.26163470237577</v>
       </c>
       <c r="N3">
-        <v>6.871009780660696</v>
+        <v>6.388263334385711</v>
       </c>
       <c r="O3">
-        <v>9.631226594165888</v>
+        <v>9.824782199100673</v>
       </c>
       <c r="P3">
-        <v>13.47500143723134</v>
+        <v>7.040633531767495</v>
       </c>
       <c r="Q3">
-        <v>15.59895444166913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.576275621063255</v>
+      </c>
+      <c r="R3">
+        <v>13.33737346398934</v>
+      </c>
+      <c r="S3">
+        <v>15.26016540446133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.07383964365694</v>
+        <v>10.84732513521412</v>
       </c>
       <c r="C4">
-        <v>7.723102872328218</v>
+        <v>7.316811608627615</v>
       </c>
       <c r="D4">
-        <v>6.077533198461808</v>
+        <v>6.107780183823694</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.27190251330823</v>
+        <v>20.85584641631599</v>
       </c>
       <c r="G4">
-        <v>23.18904717877868</v>
+        <v>22.14731163621569</v>
       </c>
       <c r="H4">
-        <v>3.253378701605167</v>
+        <v>3.139329080257814</v>
       </c>
       <c r="I4">
-        <v>3.596762536880963</v>
+        <v>3.441198317274382</v>
       </c>
       <c r="J4">
-        <v>9.630776002279735</v>
+        <v>9.700375349059872</v>
       </c>
       <c r="K4">
-        <v>15.99475359655941</v>
+        <v>15.50801416953106</v>
       </c>
       <c r="L4">
-        <v>6.427656756982588</v>
+        <v>12.69879487869401</v>
       </c>
       <c r="M4">
-        <v>9.437143448197045</v>
+        <v>10.28949547262506</v>
       </c>
       <c r="N4">
-        <v>6.784438524828886</v>
+        <v>6.371152077760243</v>
       </c>
       <c r="O4">
-        <v>9.413569572530294</v>
+        <v>9.469810841173434</v>
       </c>
       <c r="P4">
-        <v>13.54960355274894</v>
+        <v>6.95332230065751</v>
       </c>
       <c r="Q4">
-        <v>15.61017355774274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.360090052168065</v>
+      </c>
+      <c r="R4">
+        <v>13.40664045236772</v>
+      </c>
+      <c r="S4">
+        <v>15.28051473241332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86006146131847</v>
+        <v>10.64015930246395</v>
       </c>
       <c r="C5">
-        <v>7.689795622078258</v>
+        <v>7.270341983125474</v>
       </c>
       <c r="D5">
-        <v>6.030853194009947</v>
+        <v>6.06144228703767</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.23377808071352</v>
+        <v>20.82419489276466</v>
       </c>
       <c r="G5">
-        <v>23.14567193628246</v>
+        <v>22.12532781128468</v>
       </c>
       <c r="H5">
-        <v>3.296762669856817</v>
+        <v>3.18030122823473</v>
       </c>
       <c r="I5">
-        <v>3.632277058388953</v>
+        <v>3.474055911825999</v>
       </c>
       <c r="J5">
-        <v>9.640009669535607</v>
+        <v>9.70275488233734</v>
       </c>
       <c r="K5">
-        <v>16.00924740360929</v>
+        <v>15.52581390164472</v>
       </c>
       <c r="L5">
-        <v>6.419349578348718</v>
+        <v>12.73047649601955</v>
       </c>
       <c r="M5">
-        <v>9.287402810121209</v>
+        <v>10.30311103211575</v>
       </c>
       <c r="N5">
-        <v>6.74998080281296</v>
+        <v>6.363599191576316</v>
       </c>
       <c r="O5">
-        <v>9.322854819938668</v>
+        <v>9.32093678795473</v>
       </c>
       <c r="P5">
-        <v>13.58028883910646</v>
+        <v>6.918653929839325</v>
       </c>
       <c r="Q5">
-        <v>15.61289461394305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.269920914606896</v>
+      </c>
+      <c r="R5">
+        <v>13.43523269182727</v>
+      </c>
+      <c r="S5">
+        <v>15.28673245978081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.8187008871669</v>
+        <v>10.59979437332545</v>
       </c>
       <c r="C6">
-        <v>7.687282922215442</v>
+        <v>7.266433126087918</v>
       </c>
       <c r="D6">
-        <v>6.023341243147725</v>
+        <v>6.053996902525581</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.22191358201198</v>
+        <v>20.8133299528423</v>
       </c>
       <c r="G6">
-        <v>23.1293080487217</v>
+        <v>22.11243235794252</v>
       </c>
       <c r="H6">
-        <v>3.304342110165648</v>
+        <v>3.187472870754297</v>
       </c>
       <c r="I6">
-        <v>3.64149911643597</v>
+        <v>3.483418970145062</v>
       </c>
       <c r="J6">
-        <v>9.64010419032954</v>
+        <v>9.701625419042873</v>
       </c>
       <c r="K6">
-        <v>16.0075838673139</v>
+        <v>15.52470747064191</v>
       </c>
       <c r="L6">
-        <v>6.417479758207194</v>
+        <v>12.73163102843918</v>
       </c>
       <c r="M6">
-        <v>9.262327954239916</v>
+        <v>10.30358301535658</v>
       </c>
       <c r="N6">
-        <v>6.745447384293534</v>
+        <v>6.361866181176554</v>
       </c>
       <c r="O6">
-        <v>9.30694353065161</v>
+        <v>9.296014854729021</v>
       </c>
       <c r="P6">
-        <v>13.58522158596435</v>
+        <v>6.9140987450888</v>
       </c>
       <c r="Q6">
-        <v>15.60968427855776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.254085125379991</v>
+      </c>
+      <c r="R6">
+        <v>13.43987770159492</v>
+      </c>
+      <c r="S6">
+        <v>15.28406392933207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.0564612962399</v>
+        <v>10.82725627240546</v>
       </c>
       <c r="C7">
-        <v>7.730951030033012</v>
+        <v>7.323673362800321</v>
       </c>
       <c r="D7">
-        <v>6.077611205168651</v>
+        <v>6.110708408112311</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.25607644046601</v>
+        <v>20.83126619035676</v>
       </c>
       <c r="G7">
-        <v>23.16315857171896</v>
+        <v>22.18947365367861</v>
       </c>
       <c r="H7">
-        <v>3.254803709820605</v>
+        <v>3.141132135315395</v>
       </c>
       <c r="I7">
-        <v>3.605866866902121</v>
+        <v>3.45221438203489</v>
       </c>
       <c r="J7">
-        <v>9.626883010211346</v>
+        <v>9.667673806773221</v>
       </c>
       <c r="K7">
-        <v>15.98371188249</v>
+        <v>15.49305349381617</v>
       </c>
       <c r="L7">
-        <v>6.426255843007526</v>
+        <v>12.68422123391191</v>
       </c>
       <c r="M7">
-        <v>9.435271884425916</v>
+        <v>10.2817209692867</v>
       </c>
       <c r="N7">
-        <v>6.787223099086829</v>
+        <v>6.369615723824665</v>
       </c>
       <c r="O7">
-        <v>9.410277892797927</v>
+        <v>9.464493926608844</v>
       </c>
       <c r="P7">
-        <v>13.54954473185476</v>
+        <v>6.955991397355481</v>
       </c>
       <c r="Q7">
-        <v>15.60002824948868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.355919421896667</v>
+      </c>
+      <c r="R7">
+        <v>13.40664660671221</v>
+      </c>
+      <c r="S7">
+        <v>15.26392913210381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.05815761221963</v>
+        <v>11.78964959870014</v>
       </c>
       <c r="C8">
-        <v>7.912530550225178</v>
+        <v>7.569255272353677</v>
       </c>
       <c r="D8">
-        <v>6.31289118915037</v>
+        <v>6.350920079022448</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.43485397857508</v>
+        <v>20.95505790867885</v>
       </c>
       <c r="G8">
-        <v>23.3560020545097</v>
+        <v>22.43343574085858</v>
       </c>
       <c r="H8">
-        <v>3.044113062233395</v>
+        <v>2.943143715385268</v>
       </c>
       <c r="I8">
-        <v>3.448432298574246</v>
+        <v>3.311638896605313</v>
       </c>
       <c r="J8">
-        <v>9.577518177431449</v>
+        <v>9.585731355693015</v>
       </c>
       <c r="K8">
-        <v>15.89636071301982</v>
+        <v>15.37805502507022</v>
       </c>
       <c r="L8">
-        <v>6.46444383523632</v>
+        <v>12.50049332538356</v>
       </c>
       <c r="M8">
-        <v>10.16019900056978</v>
+        <v>10.22814594002299</v>
       </c>
       <c r="N8">
-        <v>6.966977644957921</v>
+        <v>6.403732527993817</v>
       </c>
       <c r="O8">
-        <v>9.855772085856598</v>
+        <v>10.17813997985943</v>
       </c>
       <c r="P8">
-        <v>13.39647078017473</v>
+        <v>7.137292413811315</v>
       </c>
       <c r="Q8">
-        <v>15.57779662746401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.796336983116168</v>
+      </c>
+      <c r="R8">
+        <v>13.26496187648816</v>
+      </c>
+      <c r="S8">
+        <v>15.20733890732897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.82078859641953</v>
+        <v>13.53257171811641</v>
       </c>
       <c r="C9">
-        <v>8.242514840566479</v>
+        <v>8.029369883466986</v>
       </c>
       <c r="D9">
-        <v>6.756615892591777</v>
+        <v>6.794961735213721</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.85989427020708</v>
+        <v>21.29731653797691</v>
       </c>
       <c r="G9">
-        <v>23.84863998911896</v>
+        <v>22.78615882082053</v>
       </c>
       <c r="H9">
-        <v>2.660297836084695</v>
+        <v>2.581239011653649</v>
       </c>
       <c r="I9">
-        <v>3.154854012239574</v>
+        <v>3.046511574540391</v>
       </c>
       <c r="J9">
-        <v>9.506882798198037</v>
+        <v>9.54137596716542</v>
       </c>
       <c r="K9">
-        <v>15.77191615120168</v>
+        <v>15.20661978436964</v>
       </c>
       <c r="L9">
-        <v>6.535200502425593</v>
+        <v>12.18981644386461</v>
       </c>
       <c r="M9">
-        <v>11.4403711846768</v>
+        <v>10.2678169954246</v>
       </c>
       <c r="N9">
-        <v>7.306634413120881</v>
+        <v>6.467288871053039</v>
       </c>
       <c r="O9">
-        <v>10.68101999036163</v>
+        <v>11.45030534509911</v>
       </c>
       <c r="P9">
-        <v>13.11037426367434</v>
+        <v>7.482828032849614</v>
       </c>
       <c r="Q9">
-        <v>15.59207301228535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.61364849349216</v>
+      </c>
+      <c r="R9">
+        <v>13.00241280209208</v>
+      </c>
+      <c r="S9">
+        <v>15.17118656807459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.9421572292853</v>
+        <v>14.63266021810275</v>
       </c>
       <c r="C10">
-        <v>8.500832815706893</v>
+        <v>8.36720378249572</v>
       </c>
       <c r="D10">
-        <v>7.023546947578027</v>
+        <v>7.076983513581125</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.10064550903438</v>
+        <v>21.43138644760599</v>
       </c>
       <c r="G10">
-        <v>24.13006727141985</v>
+        <v>23.37217451314717</v>
       </c>
       <c r="H10">
-        <v>2.422714035350284</v>
+        <v>2.360700506615317</v>
       </c>
       <c r="I10">
-        <v>2.96584527818411</v>
+        <v>2.880531832039583</v>
       </c>
       <c r="J10">
-        <v>9.447249518065359</v>
+        <v>9.342797650657589</v>
       </c>
       <c r="K10">
-        <v>15.64967766407141</v>
+        <v>15.02831343152115</v>
       </c>
       <c r="L10">
-        <v>6.565870054984154</v>
+        <v>11.92511629105828</v>
       </c>
       <c r="M10">
-        <v>12.28939723551188</v>
+        <v>10.31903860920557</v>
       </c>
       <c r="N10">
-        <v>7.47902404600779</v>
+        <v>6.493954358193439</v>
       </c>
       <c r="O10">
-        <v>11.18537633795665</v>
+        <v>12.27805859314759</v>
       </c>
       <c r="P10">
-        <v>12.90931859910651</v>
+        <v>7.65901294662705</v>
       </c>
       <c r="Q10">
-        <v>15.57756144672924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.10780587643421</v>
+      </c>
+      <c r="R10">
+        <v>12.82244025907093</v>
+      </c>
+      <c r="S10">
+        <v>15.08323878085641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.1659899481272</v>
+        <v>14.83906527923271</v>
       </c>
       <c r="C11">
-        <v>8.80637969393009</v>
+        <v>8.690367075540312</v>
       </c>
       <c r="D11">
-        <v>6.744203187035613</v>
+        <v>6.825816789404095</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.38807750115262</v>
+        <v>20.64153867051383</v>
       </c>
       <c r="G11">
-        <v>23.25839274788406</v>
+        <v>23.37186817720505</v>
       </c>
       <c r="H11">
-        <v>3.23690621705894</v>
+        <v>3.196261924196873</v>
       </c>
       <c r="I11">
-        <v>2.932206523369531</v>
+        <v>2.85974598306034</v>
       </c>
       <c r="J11">
-        <v>9.25995853610754</v>
+        <v>8.903716082615212</v>
       </c>
       <c r="K11">
-        <v>15.21512846061632</v>
+        <v>14.58172010896188</v>
       </c>
       <c r="L11">
-        <v>6.476025100783413</v>
+        <v>11.55460908847413</v>
       </c>
       <c r="M11">
-        <v>12.63119470302589</v>
+        <v>10.04438151087395</v>
       </c>
       <c r="N11">
-        <v>6.954407704465165</v>
+        <v>6.417020987213649</v>
       </c>
       <c r="O11">
-        <v>10.84974919093974</v>
+        <v>12.58330417339413</v>
       </c>
       <c r="P11">
-        <v>12.8394779763753</v>
+        <v>7.12422627732913</v>
       </c>
       <c r="Q11">
-        <v>15.16222965740089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.76494588991635</v>
+      </c>
+      <c r="R11">
+        <v>12.77996610563558</v>
+      </c>
+      <c r="S11">
+        <v>14.61093972230118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.13347256394747</v>
+        <v>14.81314857430493</v>
       </c>
       <c r="C12">
-        <v>9.014856762569487</v>
+        <v>8.897226872814759</v>
       </c>
       <c r="D12">
-        <v>6.449664202554438</v>
+        <v>6.54197091604638</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.74884636789387</v>
+        <v>19.99286122949688</v>
       </c>
       <c r="G12">
-        <v>22.48598564044136</v>
+        <v>23.01886055690253</v>
       </c>
       <c r="H12">
-        <v>4.484667814562123</v>
+        <v>4.4561902205242</v>
       </c>
       <c r="I12">
-        <v>2.924520900804121</v>
+        <v>2.854338302748749</v>
       </c>
       <c r="J12">
-        <v>9.118231147833477</v>
+        <v>8.695053498497336</v>
       </c>
       <c r="K12">
-        <v>14.89359582924631</v>
+        <v>14.27861782540671</v>
       </c>
       <c r="L12">
-        <v>6.457040311795895</v>
+        <v>11.33221794765173</v>
       </c>
       <c r="M12">
-        <v>12.74690305759444</v>
+        <v>9.819126144196611</v>
       </c>
       <c r="N12">
-        <v>6.500287110757379</v>
+        <v>6.409407330977188</v>
       </c>
       <c r="O12">
-        <v>10.45847838779926</v>
+        <v>12.68207481289999</v>
       </c>
       <c r="P12">
-        <v>12.83278707847718</v>
+        <v>6.659983628377613</v>
       </c>
       <c r="Q12">
-        <v>14.82460790833617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.37264715613087</v>
+      </c>
+      <c r="R12">
+        <v>12.79136508157717</v>
+      </c>
+      <c r="S12">
+        <v>14.26633544050306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.88419073931625</v>
+        <v>14.59445369917157</v>
       </c>
       <c r="C13">
-        <v>9.173147567050636</v>
+        <v>9.053279485818122</v>
       </c>
       <c r="D13">
-        <v>6.122348169651842</v>
+        <v>6.207021474603162</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.10177868936123</v>
+        <v>19.40565880737145</v>
       </c>
       <c r="G13">
-        <v>21.70011020592258</v>
+        <v>22.14867831533556</v>
       </c>
       <c r="H13">
-        <v>5.834565917697374</v>
+        <v>5.811117286865345</v>
       </c>
       <c r="I13">
-        <v>2.95065596216842</v>
+        <v>2.876808366170903</v>
       </c>
       <c r="J13">
-        <v>8.99688907059392</v>
+        <v>8.647554574040752</v>
       </c>
       <c r="K13">
-        <v>14.62359842112418</v>
+        <v>14.0572977604616</v>
       </c>
       <c r="L13">
-        <v>6.487512486937059</v>
+        <v>11.18995021698997</v>
       </c>
       <c r="M13">
-        <v>12.69929770926573</v>
+        <v>9.6171755890871</v>
       </c>
       <c r="N13">
-        <v>6.081939329350077</v>
+        <v>6.450637652223739</v>
       </c>
       <c r="O13">
-        <v>9.990731802467662</v>
+        <v>12.63821990731939</v>
       </c>
       <c r="P13">
-        <v>12.87133377741161</v>
+        <v>6.231531085001839</v>
       </c>
       <c r="Q13">
-        <v>14.51044405854294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.910161697292706</v>
+      </c>
+      <c r="R13">
+        <v>12.83768829199083</v>
+      </c>
+      <c r="S13">
+        <v>13.99626212865095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.60460227733424</v>
+        <v>14.34740887630169</v>
       </c>
       <c r="C14">
-        <v>9.266313610622207</v>
+        <v>9.145610640751208</v>
       </c>
       <c r="D14">
-        <v>5.877633444318209</v>
+        <v>5.949476930216458</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.64322275596251</v>
+        <v>19.0171165567107</v>
       </c>
       <c r="G14">
-        <v>21.13873227710086</v>
+        <v>21.31689325723517</v>
       </c>
       <c r="H14">
-        <v>6.809325733156396</v>
+        <v>6.787425751365015</v>
       </c>
       <c r="I14">
-        <v>2.987073115926626</v>
+        <v>2.908554075104762</v>
       </c>
       <c r="J14">
-        <v>8.920786710016532</v>
+        <v>8.673624240095329</v>
       </c>
       <c r="K14">
-        <v>14.45799828473368</v>
+        <v>13.93641619777205</v>
       </c>
       <c r="L14">
-        <v>6.537801682736974</v>
+        <v>11.12039879226804</v>
       </c>
       <c r="M14">
-        <v>12.59157161580479</v>
+        <v>9.4878328079733</v>
       </c>
       <c r="N14">
-        <v>5.816978504351701</v>
+        <v>6.507863071990723</v>
       </c>
       <c r="O14">
-        <v>9.624879836939487</v>
+        <v>12.54227476989208</v>
       </c>
       <c r="P14">
-        <v>12.91909761302842</v>
+        <v>5.959668634121368</v>
       </c>
       <c r="Q14">
-        <v>14.30006046250113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.550602395372801</v>
+      </c>
+      <c r="R14">
+        <v>12.88495987646986</v>
+      </c>
+      <c r="S14">
+        <v>13.83699636127663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.48451473424052</v>
+        <v>14.24011712881768</v>
       </c>
       <c r="C15">
-        <v>9.280835000919858</v>
+        <v>9.161004622392168</v>
       </c>
       <c r="D15">
-        <v>5.811329560229065</v>
+        <v>5.877014777135618</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.52669652184321</v>
+        <v>18.92938028044237</v>
       </c>
       <c r="G15">
-        <v>20.99310601109471</v>
+        <v>21.0185391309857</v>
       </c>
       <c r="H15">
-        <v>7.038111465200878</v>
+        <v>7.016047506101598</v>
       </c>
       <c r="I15">
-        <v>3.007723325262302</v>
+        <v>2.927573637349995</v>
       </c>
       <c r="J15">
-        <v>8.90573329886845</v>
+        <v>8.70591968305645</v>
       </c>
       <c r="K15">
-        <v>14.42542591841944</v>
+        <v>13.91928974975072</v>
       </c>
       <c r="L15">
-        <v>6.552186118143463</v>
+        <v>11.11434187363811</v>
       </c>
       <c r="M15">
-        <v>12.52996744250068</v>
+        <v>9.459797885421102</v>
       </c>
       <c r="N15">
-        <v>5.757267323186482</v>
+        <v>6.523905622339727</v>
       </c>
       <c r="O15">
-        <v>9.51892837523005</v>
+        <v>12.48751918830957</v>
       </c>
       <c r="P15">
-        <v>12.93918786824861</v>
+        <v>5.898554858266154</v>
       </c>
       <c r="Q15">
-        <v>14.25154965359534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.447278006341715</v>
+      </c>
+      <c r="R15">
+        <v>12.90252239754134</v>
+      </c>
+      <c r="S15">
+        <v>13.809417169538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.03090069170148</v>
+        <v>13.82868048223276</v>
       </c>
       <c r="C16">
-        <v>9.145737260928623</v>
+        <v>9.02667991456849</v>
       </c>
       <c r="D16">
-        <v>5.754178616171724</v>
+        <v>5.794906490139838</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.53976198034915</v>
+        <v>19.04062366379046</v>
       </c>
       <c r="G16">
-        <v>21.00490119661558</v>
+        <v>20.33623056081406</v>
       </c>
       <c r="H16">
-        <v>6.85005789802061</v>
+        <v>6.822883787281842</v>
       </c>
       <c r="I16">
-        <v>3.088550659365594</v>
+        <v>2.997613309380379</v>
       </c>
       <c r="J16">
-        <v>8.953312195325594</v>
+        <v>8.956650986991797</v>
       </c>
       <c r="K16">
-        <v>14.52814342787913</v>
+        <v>14.05968553500005</v>
       </c>
       <c r="L16">
-        <v>6.527440422210757</v>
+        <v>11.23748781567087</v>
       </c>
       <c r="M16">
-        <v>12.1889222908698</v>
+        <v>9.512861118533323</v>
       </c>
       <c r="N16">
-        <v>5.764321692470211</v>
+        <v>6.499214486491049</v>
       </c>
       <c r="O16">
-        <v>9.381201352021652</v>
+        <v>12.17972146713267</v>
       </c>
       <c r="P16">
-        <v>13.00944188665875</v>
+        <v>5.908466620776878</v>
       </c>
       <c r="Q16">
-        <v>14.31432862687183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.31880150085577</v>
+      </c>
+      <c r="R16">
+        <v>12.95249612965791</v>
+      </c>
+      <c r="S16">
+        <v>13.94273793649404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.84197676295185</v>
+        <v>13.64054291387824</v>
       </c>
       <c r="C17">
-        <v>8.990078714455663</v>
+        <v>8.865541678057721</v>
       </c>
       <c r="D17">
-        <v>5.842743290017922</v>
+        <v>5.874044695387266</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.79440904458984</v>
+        <v>19.32416179012536</v>
       </c>
       <c r="G17">
-        <v>21.31452549141965</v>
+        <v>20.35388480562402</v>
       </c>
       <c r="H17">
-        <v>6.159151559667777</v>
+        <v>6.126249050044652</v>
       </c>
       <c r="I17">
-        <v>3.131959958846876</v>
+        <v>3.035765469123676</v>
       </c>
       <c r="J17">
-        <v>9.030210925959405</v>
+        <v>9.122302349233436</v>
       </c>
       <c r="K17">
-        <v>14.69329100758018</v>
+        <v>14.22817300964594</v>
       </c>
       <c r="L17">
-        <v>6.477218470309333</v>
+        <v>11.37436355139341</v>
       </c>
       <c r="M17">
-        <v>11.98179714854695</v>
+        <v>9.615003661482799</v>
       </c>
       <c r="N17">
-        <v>5.905610215645361</v>
+        <v>6.4452731905317</v>
       </c>
       <c r="O17">
-        <v>9.474632829206255</v>
+        <v>11.98752063895042</v>
       </c>
       <c r="P17">
-        <v>13.03904362139312</v>
+        <v>6.055123341095819</v>
       </c>
       <c r="Q17">
-        <v>14.47420912478766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.41506782642448</v>
+      </c>
+      <c r="R17">
+        <v>12.96994933238439</v>
+      </c>
+      <c r="S17">
+        <v>14.12296306505111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.86497237722445</v>
+        <v>13.64461683216818</v>
       </c>
       <c r="C18">
-        <v>8.797014956471214</v>
+        <v>8.664762694699316</v>
       </c>
       <c r="D18">
-        <v>6.068128741232753</v>
+        <v>6.096752326282078</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.29601878358368</v>
+        <v>19.81646118451848</v>
       </c>
       <c r="G18">
-        <v>21.93086638626138</v>
+        <v>20.82458366578469</v>
       </c>
       <c r="H18">
-        <v>5.000628432478045</v>
+        <v>4.959122658577851</v>
       </c>
       <c r="I18">
-        <v>3.13684418468169</v>
+        <v>3.037366999765696</v>
       </c>
       <c r="J18">
-        <v>9.143496056242801</v>
+        <v>9.267218580259168</v>
       </c>
       <c r="K18">
-        <v>14.94192228421016</v>
+        <v>14.45825081028241</v>
       </c>
       <c r="L18">
-        <v>6.428815110061108</v>
+        <v>11.55424389908271</v>
       </c>
       <c r="M18">
-        <v>11.87117089230543</v>
+        <v>9.77910681572469</v>
       </c>
       <c r="N18">
-        <v>6.204864743931814</v>
+        <v>6.389198772001141</v>
       </c>
       <c r="O18">
-        <v>9.779914604614975</v>
+        <v>11.88344966159138</v>
       </c>
       <c r="P18">
-        <v>13.04056275347253</v>
+        <v>6.362059036843376</v>
       </c>
       <c r="Q18">
-        <v>14.74223277958072</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.719653025303389</v>
+      </c>
+      <c r="R18">
+        <v>12.96223678948949</v>
+      </c>
+      <c r="S18">
+        <v>14.38413165717867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.03105865766101</v>
+        <v>13.78336571417721</v>
       </c>
       <c r="C19">
-        <v>8.621040780783582</v>
+        <v>8.483635961132716</v>
       </c>
       <c r="D19">
-        <v>6.389211421026237</v>
+        <v>6.418737249508585</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.9370063036485</v>
+        <v>20.42455938102047</v>
       </c>
       <c r="G19">
-        <v>22.70710498828344</v>
+        <v>21.52124480678912</v>
       </c>
       <c r="H19">
-        <v>3.69295710961968</v>
+        <v>3.638344902337591</v>
       </c>
       <c r="I19">
-        <v>3.127035818530329</v>
+        <v>3.029708194715383</v>
       </c>
       <c r="J19">
-        <v>9.271599956430769</v>
+        <v>9.39548816471255</v>
       </c>
       <c r="K19">
-        <v>15.22908367009682</v>
+        <v>14.71302579613154</v>
       </c>
       <c r="L19">
-        <v>6.429348198011012</v>
+        <v>11.74921985172434</v>
       </c>
       <c r="M19">
-        <v>11.84858619076967</v>
+        <v>9.97327616499917</v>
       </c>
       <c r="N19">
-        <v>6.648569462955145</v>
+        <v>6.378818149205266</v>
       </c>
       <c r="O19">
-        <v>10.22726709836184</v>
+        <v>11.86270379148683</v>
       </c>
       <c r="P19">
-        <v>13.02686575598942</v>
+        <v>6.814654559691998</v>
       </c>
       <c r="Q19">
-        <v>15.06211125341589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.16407859670585</v>
+      </c>
+      <c r="R19">
+        <v>12.94095481963036</v>
+      </c>
+      <c r="S19">
+        <v>14.68069808130774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.61971845730806</v>
+        <v>14.32399420467161</v>
       </c>
       <c r="C20">
-        <v>8.460466743322618</v>
+        <v>8.323440267366006</v>
       </c>
       <c r="D20">
-        <v>6.954153501880052</v>
+        <v>6.994627305323613</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.98633964392358</v>
+        <v>21.37519970959097</v>
       </c>
       <c r="G20">
-        <v>23.97363360711367</v>
+        <v>22.89164024889441</v>
       </c>
       <c r="H20">
-        <v>2.485779931752918</v>
+        <v>2.418095028520519</v>
       </c>
       <c r="I20">
-        <v>3.043519698343984</v>
+        <v>2.9564935947783</v>
       </c>
       <c r="J20">
-        <v>9.44909350752568</v>
+        <v>9.476244982124788</v>
       </c>
       <c r="K20">
-        <v>15.64454883061422</v>
+        <v>15.05365838394063</v>
       </c>
       <c r="L20">
-        <v>6.553790833174614</v>
+        <v>11.97795667226539</v>
       </c>
       <c r="M20">
-        <v>12.07274190201138</v>
+        <v>10.28491393836799</v>
       </c>
       <c r="N20">
-        <v>7.440062944964526</v>
+        <v>6.483620366430509</v>
       </c>
       <c r="O20">
-        <v>11.04679496569089</v>
+        <v>12.07690788052339</v>
       </c>
       <c r="P20">
-        <v>12.96164374941233</v>
+        <v>7.619483025273581</v>
       </c>
       <c r="Q20">
-        <v>15.54680756103597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.97454243527047</v>
+      </c>
+      <c r="R20">
+        <v>12.86936019281954</v>
+      </c>
+      <c r="S20">
+        <v>15.0951344494382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.5144316816619</v>
+        <v>15.13754374049228</v>
       </c>
       <c r="C21">
-        <v>8.621981392727138</v>
+        <v>8.488924465464997</v>
       </c>
       <c r="D21">
-        <v>7.225652110274167</v>
+        <v>7.325695782254578</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.33428576737937</v>
+        <v>21.47497842773643</v>
       </c>
       <c r="G21">
-        <v>24.39419336070231</v>
+        <v>24.84456541928556</v>
       </c>
       <c r="H21">
-        <v>2.269615618105573</v>
+        <v>2.220590694970094</v>
       </c>
       <c r="I21">
-        <v>2.892406339450283</v>
+        <v>2.828210685221058</v>
       </c>
       <c r="J21">
-        <v>9.437933414383934</v>
+        <v>8.91011310620625</v>
       </c>
       <c r="K21">
-        <v>15.62986797790472</v>
+        <v>14.91175653575516</v>
       </c>
       <c r="L21">
-        <v>6.603392138825271</v>
+        <v>11.77737767009562</v>
       </c>
       <c r="M21">
-        <v>12.70033705156123</v>
+        <v>10.33448234908181</v>
       </c>
       <c r="N21">
-        <v>7.680573958588938</v>
+        <v>6.525274823118298</v>
       </c>
       <c r="O21">
-        <v>11.52219891686265</v>
+        <v>12.63772847973245</v>
       </c>
       <c r="P21">
-        <v>12.80840476895009</v>
+        <v>7.863180779541855</v>
       </c>
       <c r="Q21">
-        <v>15.62219181418394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.42733560443144</v>
+      </c>
+      <c r="R21">
+        <v>12.73542373588618</v>
+      </c>
+      <c r="S21">
+        <v>14.98656956117145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.07612149494086</v>
+        <v>15.64123382495453</v>
       </c>
       <c r="C22">
-        <v>8.725419841640957</v>
+        <v>8.590729183630845</v>
       </c>
       <c r="D22">
-        <v>7.375392066631384</v>
+        <v>7.517581539329235</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.53743146170871</v>
+        <v>21.50515584653381</v>
       </c>
       <c r="G22">
-        <v>24.64983688535206</v>
+        <v>26.24661054309077</v>
       </c>
       <c r="H22">
-        <v>2.142970882056281</v>
+        <v>2.105778672708477</v>
       </c>
       <c r="I22">
-        <v>2.786699889279566</v>
+        <v>2.734720501950338</v>
       </c>
       <c r="J22">
-        <v>9.428924143936626</v>
+        <v>8.579198175509841</v>
       </c>
       <c r="K22">
-        <v>15.61622913202175</v>
+        <v>14.8089625623276</v>
       </c>
       <c r="L22">
-        <v>6.6278727212831</v>
+        <v>11.64253415532864</v>
       </c>
       <c r="M22">
-        <v>13.09232655270412</v>
+        <v>10.36685782091916</v>
       </c>
       <c r="N22">
-        <v>7.795202955874338</v>
+        <v>6.545692921915272</v>
       </c>
       <c r="O22">
-        <v>11.79418655249181</v>
+        <v>12.98443703816994</v>
       </c>
       <c r="P22">
-        <v>12.70997556896756</v>
+        <v>7.97941402151011</v>
       </c>
       <c r="Q22">
-        <v>15.66583893917675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.68391529902108</v>
+      </c>
+      <c r="R22">
+        <v>12.65156211547113</v>
+      </c>
+      <c r="S22">
+        <v>14.8997923425516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.79124038978687</v>
+        <v>15.39206460833541</v>
       </c>
       <c r="C23">
-        <v>8.660607775479514</v>
+        <v>8.531288736366733</v>
       </c>
       <c r="D23">
-        <v>7.29504435944104</v>
+        <v>7.408049930075432</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.44530093501033</v>
+        <v>21.52731423988561</v>
       </c>
       <c r="G23">
-        <v>24.54033814262279</v>
+        <v>25.33598769131618</v>
       </c>
       <c r="H23">
-        <v>2.209520253223717</v>
+        <v>2.165375483720471</v>
       </c>
       <c r="I23">
-        <v>2.831340643090206</v>
+        <v>2.770035407276376</v>
       </c>
       <c r="J23">
-        <v>9.438106109971258</v>
+        <v>8.80089369443369</v>
       </c>
       <c r="K23">
-        <v>15.6361221412889</v>
+        <v>14.88630473112983</v>
       </c>
       <c r="L23">
-        <v>6.616158597481152</v>
+        <v>11.72925157573275</v>
       </c>
       <c r="M23">
-        <v>12.88449069561235</v>
+        <v>10.36815967146878</v>
       </c>
       <c r="N23">
-        <v>7.730722345398822</v>
+        <v>6.536279005357339</v>
       </c>
       <c r="O23">
-        <v>11.65179795762484</v>
+        <v>12.80755556088198</v>
       </c>
       <c r="P23">
-        <v>12.762248966728</v>
+        <v>7.914236097482506</v>
       </c>
       <c r="Q23">
-        <v>15.6536193344652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.55170057886392</v>
+      </c>
+      <c r="R23">
+        <v>12.69466919137386</v>
+      </c>
+      <c r="S23">
+        <v>14.97396808498474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.64965774624786</v>
+        <v>14.35175623996718</v>
       </c>
       <c r="C24">
-        <v>8.427745070205185</v>
+        <v>8.284743579240757</v>
       </c>
       <c r="D24">
-        <v>6.985609886117238</v>
+        <v>7.025783123589266</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.08076701101405</v>
+        <v>21.46756729695701</v>
       </c>
       <c r="G24">
-        <v>24.09925352276029</v>
+        <v>23.00070112362263</v>
       </c>
       <c r="H24">
-        <v>2.468919843721385</v>
+        <v>2.40110922242279</v>
       </c>
       <c r="I24">
-        <v>3.025018845392453</v>
+        <v>2.934614927118312</v>
       </c>
       <c r="J24">
-        <v>9.470669356444809</v>
+        <v>9.500978864706578</v>
       </c>
       <c r="K24">
-        <v>15.69844158519365</v>
+        <v>15.10383714122879</v>
       </c>
       <c r="L24">
-        <v>6.568529761768029</v>
+        <v>12.01677853060982</v>
       </c>
       <c r="M24">
-        <v>12.06441400131643</v>
+        <v>10.3224578782158</v>
       </c>
       <c r="N24">
-        <v>7.488704811388682</v>
+        <v>6.496914837454169</v>
       </c>
       <c r="O24">
-        <v>11.09361020781228</v>
+        <v>12.06915284140339</v>
       </c>
       <c r="P24">
-        <v>12.96326309448018</v>
+        <v>7.668901698264877</v>
       </c>
       <c r="Q24">
-        <v>15.59994307513729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.02121821074547</v>
+      </c>
+      <c r="R24">
+        <v>12.86913614380969</v>
+      </c>
+      <c r="S24">
+        <v>15.14660046320147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.34621085291599</v>
+        <v>13.06419588791913</v>
       </c>
       <c r="C25">
-        <v>8.169504600824633</v>
+        <v>7.929818059699451</v>
       </c>
       <c r="D25">
-        <v>6.639854692544292</v>
+        <v>6.674291888275549</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.71315041707128</v>
+        <v>21.18560392206587</v>
       </c>
       <c r="G25">
-        <v>23.66359976331555</v>
+        <v>22.54038865385971</v>
       </c>
       <c r="H25">
-        <v>2.762219159270844</v>
+        <v>2.676847660653317</v>
       </c>
       <c r="I25">
-        <v>3.246863905562992</v>
+        <v>3.133274923985192</v>
       </c>
       <c r="J25">
-        <v>9.516752466384167</v>
+        <v>9.584613499557141</v>
       </c>
       <c r="K25">
-        <v>15.78257953672025</v>
+        <v>15.23698789629302</v>
       </c>
       <c r="L25">
-        <v>6.514598124131414</v>
+        <v>12.26082849440593</v>
       </c>
       <c r="M25">
-        <v>11.10969344968654</v>
+        <v>10.23369380135822</v>
       </c>
       <c r="N25">
-        <v>7.221270153678951</v>
+        <v>6.448911919357293</v>
       </c>
       <c r="O25">
-        <v>10.46048436563725</v>
+        <v>11.12597517535131</v>
       </c>
       <c r="P25">
-        <v>13.18611100809544</v>
+        <v>7.395881821828272</v>
       </c>
       <c r="Q25">
-        <v>15.56572626570843</v>
+        <v>10.39644033723654</v>
+      </c>
+      <c r="R25">
+        <v>13.07195947985766</v>
+      </c>
+      <c r="S25">
+        <v>15.16833794114325</v>
       </c>
     </row>
   </sheetData>
